--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -4663,7 +4663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4714,12 +4714,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4733,18 +4727,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5074,10 +5059,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -9518,36 +9503,50 @@
         <v>580</v>
       </c>
     </row>
-    <row r="298" ht="19" hidden="1" customHeight="1"/>
+    <row r="298" ht="14.55" spans="1:5">
+      <c r="A298" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
     <row r="299" ht="14.55" spans="1:5">
-      <c r="A299" s="3" t="s">
-        <v>581</v>
-      </c>
+      <c r="A299" s="3"/>
       <c r="B299" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>586</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="300" ht="14.55" spans="1:5">
       <c r="A300" s="3"/>
-      <c r="B300" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C300" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="E300" s="11" t="s">
+      <c r="B300" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="E300" s="18" t="s">
         <v>587</v>
       </c>
     </row>
@@ -9556,205 +9555,190 @@
       <c r="B301" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C301" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="19" t="s">
+      <c r="C301" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="E301" s="20" t="s">
-        <v>587</v>
+      <c r="E301" s="19" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="302" ht="14.55" spans="1:5">
       <c r="A302" s="3"/>
-      <c r="B302" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="C302" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" s="19" t="s">
-        <v>589</v>
+      <c r="B302" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C302" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="20" t="s">
+        <v>592</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="303" ht="14.55" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C303" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D303" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="E303" s="23" t="s">
-        <v>593</v>
+      <c r="D303" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="E303" s="22" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="304" ht="14.55" spans="1:5">
       <c r="A304" s="3"/>
       <c r="B304" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C304" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="E304" s="24" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="305" ht="14.55" spans="1:5">
-      <c r="A305" s="3"/>
-      <c r="B305" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
+      </c>
+      <c r="E304" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="305" ht="13.95" spans="1:5">
+      <c r="A305" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>600</v>
       </c>
       <c r="C305" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D305" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="E305" s="24" t="s">
-        <v>598</v>
+      <c r="D305" s="23"/>
+      <c r="E305" s="18" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="306" ht="13.95" spans="1:5">
-      <c r="A306" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B306" s="18" t="s">
+      <c r="A306" s="3"/>
+      <c r="B306" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="C306" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" s="26"/>
-      <c r="E306" s="20" t="s">
-        <v>601</v>
+      <c r="C306" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="24"/>
+      <c r="E306" s="19" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="307" ht="13.95" spans="1:5">
       <c r="A307" s="3"/>
-      <c r="B307" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307" s="27"/>
-      <c r="E307" s="21" t="s">
-        <v>602</v>
+      <c r="B307" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="23"/>
+      <c r="E307" s="18" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="308" ht="13.95" spans="1:5">
       <c r="A308" s="3"/>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="C308" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D308" s="26"/>
-      <c r="E308" s="20" t="s">
-        <v>601</v>
+      <c r="C308" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="24"/>
+      <c r="E308" s="19" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="309" ht="13.95" spans="1:5">
       <c r="A309" s="3"/>
-      <c r="B309" s="18" t="s">
-        <v>603</v>
-      </c>
-      <c r="C309" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D309" s="27"/>
-      <c r="E309" s="21" t="s">
-        <v>604</v>
+      <c r="B309" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C309" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="23"/>
+      <c r="E309" s="18" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="310" ht="13.95" spans="1:5">
       <c r="A310" s="3"/>
-      <c r="B310" s="29" t="s">
+      <c r="B310" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="C310" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D310" s="26"/>
-      <c r="E310" s="20" t="s">
-        <v>606</v>
+      <c r="C310" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="24"/>
+      <c r="E310" s="19" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="311" ht="13.95" spans="1:5">
       <c r="A311" s="3"/>
-      <c r="B311" s="29" t="s">
-        <v>605</v>
-      </c>
-      <c r="C311" s="31" t="s">
+      <c r="B311" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C311" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D311" s="27"/>
-      <c r="E311" s="21" t="s">
-        <v>607</v>
+      <c r="E311" s="22" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="312" ht="13.95" spans="1:5">
       <c r="A312" s="3"/>
-      <c r="B312" s="18" t="s">
+      <c r="B312" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="C312" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D312" s="32"/>
-      <c r="E312" s="24" t="s">
-        <v>601</v>
+      <c r="C312" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="27"/>
+      <c r="E312" s="18" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="313" ht="13.95" spans="1:5">
       <c r="A313" s="3"/>
-      <c r="B313" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="C313" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" s="32"/>
-      <c r="E313" s="20" t="s">
-        <v>609</v>
+      <c r="B313" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C313" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="23"/>
+      <c r="E313" s="18" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="314" ht="13.95" spans="1:5">
       <c r="A314" s="3"/>
-      <c r="B314" s="18" t="s">
+      <c r="B314" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="C314" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D314" s="26"/>
-      <c r="E314" s="20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="315" ht="13.95" spans="1:5">
-      <c r="A315" s="3"/>
-      <c r="B315" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="C315" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D315" s="27"/>
-      <c r="E315" s="21" t="s">
+      <c r="C314" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="24"/>
+      <c r="E314" s="19" t="s">
         <v>611</v>
       </c>
     </row>
@@ -9783,13 +9767,13 @@
     <mergeCell ref="A278:A279"/>
     <mergeCell ref="A280:A291"/>
     <mergeCell ref="A292:A297"/>
-    <mergeCell ref="A299:A305"/>
-    <mergeCell ref="A306:A315"/>
-    <mergeCell ref="D306:D307"/>
-    <mergeCell ref="D308:D309"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="D314:D315"/>
+    <mergeCell ref="A298:A304"/>
+    <mergeCell ref="A305:A314"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="D309:D310"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="D313:D314"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E173" r:id="rId1" location="torch.cuda.get_rng_state_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.get_rng_state_all.html#torch.cuda.get_rng_state_all"/>
@@ -10043,23 +10027,23 @@
     <hyperlink ref="E163" r:id="rId240" location="torch.randn" display="https://pytorch.org/docs/stable/generated/torch.randn.html#torch.randn"/>
     <hyperlink ref="E154" r:id="rId241" location="torch.Tensor.scatter_add_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_add_.html#torch.Tensor.scatter_add_"/>
     <hyperlink ref="E144" r:id="rId242" location="torch.select" display="https://pytorch.org/docs/stable/generated/torch.select.html#torch.select"/>
-    <hyperlink ref="E302" r:id="rId243" display="https://arxiv.org/pdf/2305.13245"/>
-    <hyperlink ref="E301" r:id="rId244" display="https://github.com/Dao-AILab/flash-attention"/>
-    <hyperlink ref="E304" r:id="rId245" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
-    <hyperlink ref="E305" r:id="rId246" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
-    <hyperlink ref="E307" r:id="rId247" display="https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py"/>
-    <hyperlink ref="E306" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3" tooltip="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E308" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E309" r:id="rId249" display="https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py"/>
-    <hyperlink ref="E310" r:id="rId250" display="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU"/>
-    <hyperlink ref="E311" r:id="rId251" display="https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
-    <hyperlink ref="E312" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3" tooltip="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E314" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E315" r:id="rId252" display="https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
-    <hyperlink ref="E313" r:id="rId253" display="https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py"/>
+    <hyperlink ref="E301" r:id="rId243" display="https://arxiv.org/pdf/2305.13245"/>
     <hyperlink ref="E300" r:id="rId244" display="https://github.com/Dao-AILab/flash-attention"/>
-    <hyperlink ref="E299" r:id="rId254" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
-    <hyperlink ref="E303" r:id="rId255" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
+    <hyperlink ref="E303" r:id="rId245" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
+    <hyperlink ref="E304" r:id="rId246" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
+    <hyperlink ref="E306" r:id="rId247" display="https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py"/>
+    <hyperlink ref="E305" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3" tooltip="https://arxiv.org/html/2406.06858v1#S3"/>
+    <hyperlink ref="E307" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3"/>
+    <hyperlink ref="E308" r:id="rId249" display="https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py"/>
+    <hyperlink ref="E309" r:id="rId250" display="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU"/>
+    <hyperlink ref="E310" r:id="rId251" display="https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
+    <hyperlink ref="E311" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3" tooltip="https://arxiv.org/html/2406.06858v1#S3"/>
+    <hyperlink ref="E313" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3"/>
+    <hyperlink ref="E314" r:id="rId252" display="https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
+    <hyperlink ref="E312" r:id="rId253" display="https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py"/>
+    <hyperlink ref="E299" r:id="rId244" display="https://github.com/Dao-AILab/flash-attention"/>
+    <hyperlink ref="E298" r:id="rId254" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
+    <hyperlink ref="E302" r:id="rId255" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$308</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="610">
   <si>
     <t>标准分类</t>
   </si>
@@ -3830,7 +3830,7 @@
     <t>大模型算子</t>
   </si>
   <si>
-    <t xml:space="preserve"> Multi-Head Attention</t>
+    <t>Multi-Head Attention</t>
   </si>
   <si>
     <t>torch.nn</t>
@@ -3854,7 +3854,8 @@
     <t>transformers</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/2305.13245</t>
+    <t>https://github.com/Dao-AILab/flash-attention
+https://arxiv.org/pdf/2305.13245</t>
   </si>
   <si>
     <t>SwiGLU</t>
@@ -3887,37 +3888,36 @@
     <t>fused_all_gather_gemm</t>
   </si>
   <si>
-    <t>https://arxiv.org/html/2406.06858v1#S3</t>
-  </si>
-  <si>
-    <t>https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py</t>
+    <t>https://arxiv.org/html/2406.06858v1#S3
+https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py</t>
   </si>
   <si>
     <t>fused_gemm_reduce_scatter</t>
   </si>
   <si>
-    <t>https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py</t>
+    <t>https://arxiv.org/html/2406.06858v1#S3
+https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py</t>
   </si>
   <si>
     <t>fused_gemm_all_reduce</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU</t>
-  </si>
-  <si>
-    <t>https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example</t>
+    <t>https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU
+https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example</t>
   </si>
   <si>
     <t>fused_all_gather_grouped_gemm</t>
   </si>
   <si>
-    <t>https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py</t>
+    <t>https://arxiv.org/html/2406.06858v1#S3
+https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py</t>
   </si>
   <si>
     <t>fused_grouped_gemm_reduce_scatter</t>
   </si>
   <si>
-    <t>https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py</t>
+    <t>https://arxiv.org/html/2406.06858v1#S3
+https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py</t>
   </si>
 </sst>
 </file>
@@ -3930,7 +3930,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3987,6 +3987,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4346,7 +4354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4390,19 +4398,6 @@
       <top style="medium">
         <color rgb="FFDEE0E3"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FFDEE0E3"/>
       </bottom>
@@ -4520,29 +4515,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4551,119 +4543,122 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4714,10 +4709,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4728,8 +4720,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5059,10 +5050,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E314"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -7318,7 +7309,7 @@
       <c r="D148" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="11" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7981,7 +7972,7 @@
       <c r="D193" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="11" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8247,7 +8238,7 @@
       <c r="D211" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E211" s="11" t="s">
         <v>431</v>
       </c>
     </row>
@@ -9535,7 +9526,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="300" ht="14.55" spans="1:5">
+    <row r="300" ht="27.15" spans="1:5">
       <c r="A300" s="3"/>
       <c r="B300" s="9" t="s">
         <v>588</v>
@@ -9547,206 +9538,126 @@
         <v>589</v>
       </c>
       <c r="E300" s="18" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="301" ht="14.55" spans="1:5">
       <c r="A301" s="3"/>
-      <c r="B301" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="C301" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="E301" s="19" t="s">
-        <v>590</v>
+      <c r="B301" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C301" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="E301" s="20" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="302" ht="14.55" spans="1:5">
       <c r="A302" s="3"/>
       <c r="B302" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C302" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D302" s="20" t="s">
-        <v>592</v>
+      <c r="D302" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="303" ht="14.55" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C303" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="E303" s="22" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="304" ht="14.55" spans="1:5">
-      <c r="A304" s="3"/>
-      <c r="B304" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
+      </c>
+      <c r="E303" s="21" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="304" ht="27.15" spans="1:5">
+      <c r="A304" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>600</v>
       </c>
       <c r="C304" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D304" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="E304" s="22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="305" ht="13.95" spans="1:5">
-      <c r="A305" s="3" t="s">
-        <v>599</v>
-      </c>
+      <c r="D304" s="22"/>
+      <c r="E304" s="23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="305" ht="27.15" spans="1:5">
+      <c r="A305" s="3"/>
       <c r="B305" s="15" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C305" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D305" s="23"/>
+      <c r="D305" s="22"/>
       <c r="E305" s="18" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="306" ht="13.95" spans="1:5">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="306" ht="27.15" spans="1:5">
       <c r="A306" s="3"/>
-      <c r="B306" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="C306" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" s="24"/>
-      <c r="E306" s="19" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="307" ht="13.95" spans="1:5">
+      <c r="B306" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="22"/>
+      <c r="E306" s="18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="307" ht="27.15" spans="1:5">
       <c r="A307" s="3"/>
       <c r="B307" s="15" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C307" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D307" s="23"/>
-      <c r="E307" s="18" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="308" ht="13.95" spans="1:5">
+      <c r="D307" s="25"/>
+      <c r="E307" s="21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="308" ht="27.15" spans="1:5">
       <c r="A308" s="3"/>
       <c r="B308" s="15" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C308" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D308" s="24"/>
-      <c r="E308" s="19" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="309" ht="13.95" spans="1:5">
-      <c r="A309" s="3"/>
-      <c r="B309" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="C309" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D309" s="23"/>
-      <c r="E309" s="18" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="310" ht="13.95" spans="1:5">
-      <c r="A310" s="3"/>
-      <c r="B310" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="C310" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D310" s="24"/>
-      <c r="E310" s="19" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="311" ht="13.95" spans="1:5">
-      <c r="A311" s="3"/>
-      <c r="B311" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="C311" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D311" s="27"/>
-      <c r="E311" s="22" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="312" ht="13.95" spans="1:5">
-      <c r="A312" s="3"/>
-      <c r="B312" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="C312" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D312" s="27"/>
-      <c r="E312" s="18" t="s">
+      <c r="D308" s="22"/>
+      <c r="E308" s="23" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="313" ht="13.95" spans="1:5">
-      <c r="A313" s="3"/>
-      <c r="B313" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C313" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" s="23"/>
-      <c r="E313" s="18" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="314" ht="13.95" spans="1:5">
-      <c r="A314" s="3"/>
-      <c r="B314" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C314" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D314" s="24"/>
-      <c r="E314" s="19" t="s">
-        <v>611</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E314" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E308" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="27">
+  <mergeCells count="22">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A31"/>
@@ -9767,13 +9678,8 @@
     <mergeCell ref="A278:A279"/>
     <mergeCell ref="A280:A291"/>
     <mergeCell ref="A292:A297"/>
-    <mergeCell ref="A298:A304"/>
-    <mergeCell ref="A305:A314"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="D309:D310"/>
-    <mergeCell ref="D311:D312"/>
-    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A298:A303"/>
+    <mergeCell ref="A304:A308"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E173" r:id="rId1" location="torch.cuda.get_rng_state_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.get_rng_state_all.html#torch.cuda.get_rng_state_all"/>
@@ -10027,26 +9933,23 @@
     <hyperlink ref="E163" r:id="rId240" location="torch.randn" display="https://pytorch.org/docs/stable/generated/torch.randn.html#torch.randn"/>
     <hyperlink ref="E154" r:id="rId241" location="torch.Tensor.scatter_add_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_add_.html#torch.Tensor.scatter_add_"/>
     <hyperlink ref="E144" r:id="rId242" location="torch.select" display="https://pytorch.org/docs/stable/generated/torch.select.html#torch.select"/>
-    <hyperlink ref="E301" r:id="rId243" display="https://arxiv.org/pdf/2305.13245"/>
-    <hyperlink ref="E300" r:id="rId244" display="https://github.com/Dao-AILab/flash-attention"/>
-    <hyperlink ref="E303" r:id="rId245" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
-    <hyperlink ref="E304" r:id="rId246" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
-    <hyperlink ref="E306" r:id="rId247" display="https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py"/>
-    <hyperlink ref="E305" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3" tooltip="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E307" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E308" r:id="rId249" display="https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py"/>
-    <hyperlink ref="E309" r:id="rId250" display="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU"/>
-    <hyperlink ref="E310" r:id="rId251" display="https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
-    <hyperlink ref="E311" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3" tooltip="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E313" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3"/>
-    <hyperlink ref="E314" r:id="rId252" display="https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
-    <hyperlink ref="E312" r:id="rId253" display="https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py"/>
-    <hyperlink ref="E299" r:id="rId244" display="https://github.com/Dao-AILab/flash-attention"/>
-    <hyperlink ref="E298" r:id="rId254" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
-    <hyperlink ref="E302" r:id="rId255" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
+    <hyperlink ref="E300" r:id="rId243" display="https://github.com/Dao-AILab/flash-attention&#10;https://arxiv.org/pdf/2305.13245" tooltip="https://github.com/Dao-AILab/flash-attention"/>
+    <hyperlink ref="E302" r:id="rId244" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
+    <hyperlink ref="E303" r:id="rId245" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
+    <hyperlink ref="E304" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E305" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E306" r:id="rId247" display="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example" tooltip="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU&#10;"/>
+    <hyperlink ref="E307" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E308" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
+    <hyperlink ref="E299" r:id="rId243" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>
+    <hyperlink ref="E298" r:id="rId249" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention" tooltip="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
+    <hyperlink ref="E301" r:id="rId250" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
+    <hyperlink ref="E193" r:id="rId251" display="https://pytorch.org/docs/stable/generated/torch.sign.html#torch.sign"/>
+    <hyperlink ref="E211" r:id="rId252" display="https://pytorch.org/docs/stable/generated/torch.remainder.html#torch.remainder"/>
+    <hyperlink ref="E148" r:id="rId253" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_.html#torch.Tensor.scatter_"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <picture r:id="rId256"/>
+  <picture r:id="rId254"/>
 </worksheet>
 </file>
--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -3902,7 +3902,7 @@
     <t>fused_gemm_all_reduce</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU
+    <t>https://arxiv.org/pdf/2506.11309
 https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example</t>
   </si>
   <si>
@@ -5052,8 +5052,8 @@
   </sheetPr>
   <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="E315" sqref="E315"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -9938,7 +9938,7 @@
     <hyperlink ref="E303" r:id="rId245" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
     <hyperlink ref="E304" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
     <hyperlink ref="E305" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E306" r:id="rId247" display="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example" tooltip="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU&#10;"/>
+    <hyperlink ref="E306" r:id="rId247" display="https://arxiv.org/pdf/2506.11309&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example" tooltip="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU&#10;"/>
     <hyperlink ref="E307" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
     <hyperlink ref="E308" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
     <hyperlink ref="E299" r:id="rId243" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>

--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -5052,8 +5052,8 @@
   </sheetPr>
   <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>

--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="611">
   <si>
     <t>标准分类</t>
   </si>
@@ -3686,6 +3686,39 @@
     <t>kthvalue</t>
   </si>
   <si>
+    <t>https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue</t>
+  </si>
+  <si>
+    <t>bincount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://pytorch.org/docs/stable/generated/torch.bincount.html#torch.bincount</t>
+    </r>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://pytorch.org/docs/stable/generated/torch.mode.html?highlight=torch%20mode#torch.mode</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -3698,36 +3731,6 @@
     </r>
   </si>
   <si>
-    <t>bincount</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://pytorch.org/docs/stable/generated/torch.bincount.html#torch.bincount</t>
-    </r>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://pytorch.org/docs/stable/generated/torch.mode.html?highlight=torch%20mode#torch.mode</t>
-    </r>
-  </si>
-  <si>
     <t>embedding_bag</t>
   </si>
   <si>
@@ -3854,8 +3857,8 @@
     <t>transformers</t>
   </si>
   <si>
-    <t>https://github.com/Dao-AILab/flash-attention
-https://arxiv.org/pdf/2305.13245</t>
+    <t>https://arxiv.org/pdf/2305.13245
+https://github.com/Dao-AILab/flash-attention</t>
   </si>
   <si>
     <t>SwiGLU</t>
@@ -3930,7 +3933,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3981,6 +3984,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4515,29 +4525,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4546,119 +4553,122 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4700,34 +4710,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5050,10 +5061,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="D311" sqref="D311"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -9327,7 +9338,7 @@
       <c r="D286" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E286" s="5" t="s">
+      <c r="E286" s="15" t="s">
         <v>561</v>
       </c>
     </row>
@@ -9373,13 +9384,13 @@
         <v>136</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="290" ht="20" customHeight="1" spans="1:5">
       <c r="A290" s="3"/>
       <c r="B290" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>19</v>
@@ -9388,13 +9399,13 @@
         <v>125</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="291" ht="20" customHeight="1" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>19</v>
@@ -9406,10 +9417,10 @@
     </row>
     <row r="292" ht="19" customHeight="1" spans="1:5">
       <c r="A292" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>7</v>
@@ -9418,13 +9429,13 @@
         <v>281</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="293" ht="19" customHeight="1" spans="1:5">
       <c r="A293" s="3"/>
       <c r="B293" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>7</v>
@@ -9433,13 +9444,13 @@
         <v>136</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="294" ht="19" customHeight="1" spans="1:5">
       <c r="A294" s="3"/>
       <c r="B294" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>19</v>
@@ -9448,13 +9459,13 @@
         <v>136</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="295" ht="19" customHeight="1" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>19</v>
@@ -9467,7 +9478,7 @@
     <row r="296" ht="19" customHeight="1" spans="1:5">
       <c r="A296" s="3"/>
       <c r="B296" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>19</v>
@@ -9476,13 +9487,13 @@
         <v>281</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="297" ht="19" customHeight="1" spans="1:5">
       <c r="A297" s="3"/>
       <c r="B297" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>19</v>
@@ -9491,167 +9502,173 @@
         <v>281</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" ht="14.55" spans="1:5">
       <c r="A298" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C298" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298" s="16" t="s">
         <v>583</v>
       </c>
+      <c r="C298" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>584</v>
+      </c>
       <c r="E298" s="11" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="299" ht="14.55" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C299" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" s="17" t="s">
         <v>586</v>
       </c>
+      <c r="C299" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>587</v>
+      </c>
       <c r="E299" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="300" ht="27.15" spans="1:5">
       <c r="A300" s="3"/>
       <c r="B300" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="C300" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="E300" s="18" t="s">
+      <c r="C300" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="17" t="s">
         <v>590</v>
+      </c>
+      <c r="E300" s="19" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="301" ht="14.55" spans="1:5">
       <c r="A301" s="3"/>
       <c r="B301" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C301" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="E301" s="20" t="s">
+      <c r="C301" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="20" t="s">
         <v>593</v>
+      </c>
+      <c r="E301" s="21" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="302" ht="14.55" spans="1:5">
       <c r="A302" s="3"/>
       <c r="B302" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="C302" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="E302" s="21" t="s">
+      <c r="C302" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>596</v>
+      </c>
+      <c r="E302" s="19" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="303" ht="14.55" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C303" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="E303" s="21" t="s">
         <v>598</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E303" s="19" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="304" ht="27.15" spans="1:5">
       <c r="A304" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B304" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="B304" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C304" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D304" s="22"/>
       <c r="E304" s="23" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="305" ht="27.15" spans="1:5">
       <c r="A305" s="3"/>
-      <c r="B305" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="C305" s="17" t="s">
+      <c r="B305" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C305" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D305" s="22"/>
-      <c r="E305" s="18" t="s">
-        <v>603</v>
+      <c r="E305" s="23" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="306" ht="27.15" spans="1:5">
       <c r="A306" s="3"/>
       <c r="B306" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="C306" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C306" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D306" s="22"/>
-      <c r="E306" s="18" t="s">
-        <v>605</v>
+      <c r="E306" s="23" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="307" ht="27.15" spans="1:5">
       <c r="A307" s="3"/>
-      <c r="B307" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="C307" s="17" t="s">
+      <c r="B307" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C307" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D307" s="25"/>
-      <c r="E307" s="21" t="s">
-        <v>607</v>
+      <c r="E307" s="19" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="308" ht="27.15" spans="1:5">
       <c r="A308" s="3"/>
-      <c r="B308" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="C308" s="17" t="s">
+      <c r="B308" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="C308" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D308" s="22"/>
-      <c r="E308" s="23" t="s">
-        <v>609</v>
-      </c>
+      <c r="E308" s="26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="309" ht="13.95" spans="5:5">
+      <c r="E309" s="23"/>
+    </row>
+    <row r="310" spans="5:5">
+      <c r="E310" s="23"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E308" etc:filterBottomFollowUsedRange="0">
@@ -9811,7 +9828,7 @@
     <hyperlink ref="E259" r:id="rId126" location="torch.eye" display="https://pytorch.org/docs/stable/generated/torch.eye.html?highlight=eye#torch.eye"/>
     <hyperlink ref="E80" r:id="rId127" location="torch.addr" display="https://pytorch.org/docs/stable/generated/torch.addr.html#torch.addr"/>
     <hyperlink ref="E160" r:id="rId128" location="torch.bernoulli" display="https://pytorch.org/docs/stable/generated/torch.bernoulli.html?highlight=bernoulli#torch.bernoulli"/>
-    <hyperlink ref="E286" r:id="rId129" location="torch.kthvalue" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
+    <hyperlink ref="E286" r:id="rId129" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue" tooltip="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
     <hyperlink ref="E54" r:id="rId130" location="torch.nn.functional.hardshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardshrink.html?highlight=hardshrink#torch.nn.functional.hardshrink"/>
     <hyperlink ref="E272" r:id="rId131" location="torch.argmin" display="https://pytorch.org/docs/stable/generated/torch.argmin.html?highlight=argmin#torch.argmin"/>
     <hyperlink ref="E5" r:id="rId132" location="torch.nn.Fold" display="https://pytorch.org/docs/stable/generated/torch.nn.Fold.html?highlight=fold#torch.nn.Fold"/>
@@ -9903,50 +9920,50 @@
     <hyperlink ref="E219" r:id="rId215" location="torch.logical_xor" display="https://pytorch.org/docs/stable/generated/torch.logical_xor.html?highlight=logical_xor#torch.logical_xor"/>
     <hyperlink ref="E26" r:id="rId216" location="torch.nn.CosineEmbeddingLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.CosineEmbeddingLoss.html#torch.nn.CosineEmbeddingLoss"/>
     <hyperlink ref="E22" r:id="rId103" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.kl_div.html?highlight=kl_div"/>
-    <hyperlink ref="E289" r:id="rId129" location="torch.kthvalue" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
-    <hyperlink ref="E19" r:id="rId217" location="torch.nn.NLLLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.NLLLoss.html#torch.nn.NLLLoss"/>
+    <hyperlink ref="E289" r:id="rId217" location="torch.kthvalue" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
+    <hyperlink ref="E19" r:id="rId218" location="torch.nn.NLLLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.NLLLoss.html#torch.nn.NLLLoss"/>
     <hyperlink ref="E41" r:id="rId130" location="torch.nn.functional.hardshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardshrink.html?highlight=hardshrink#torch.nn.functional.hardshrink"/>
-    <hyperlink ref="E196" r:id="rId218" location="torch.nn.functional.threshold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.threshold.html#torch.nn.functional.threshold"/>
-    <hyperlink ref="E241" r:id="rId219" location="torch.trunc" display="https://pytorch.org/docs/stable/generated/torch.trunc.html#torch.trunc"/>
-    <hyperlink ref="E59" r:id="rId220" location="torch.nn.functional.feature_alpha_dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.feature_alpha_dropout.html?highlight=feature_alpha_dropout#torch.nn.functional.feature_alpha_dropout"/>
-    <hyperlink ref="E210" r:id="rId221" location="torch.sub" display="https://pytorch.org/docs/stable/generated/torch.sub.html?highlight=sub#torch.sub"/>
-    <hyperlink ref="E266" r:id="rId222" display="https://pytorch.org/docs/stable/generated/torch.mean.html"/>
-    <hyperlink ref="E115" r:id="rId223" location="torch.geqrf" display="https://pytorch.org/docs/stable/generated/torch.geqrf.html?highlight=geqrf#torch.geqrf"/>
-    <hyperlink ref="E264" r:id="rId224" location="torch.any" display="https://pytorch.org/docs/stable/generated/torch.any.html?highlight=any#torch.any"/>
-    <hyperlink ref="E274" r:id="rId225" location="torch.median" display="https://pytorch.org/docs/stable/generated/torch.median.html?highlight=median#torch.median"/>
-    <hyperlink ref="E87" r:id="rId226" location="torch.diagflat" display="https://pytorch.org/docs/stable/generated/torch.diagflat.html?highlight=diagflat#torch.diagflat"/>
-    <hyperlink ref="E192" r:id="rId227" location="torch.neg" display="https://pytorch.org/docs/stable/generated/torch.neg.html?highlight=neg#torch.neg"/>
-    <hyperlink ref="E206" r:id="rId228" location="torch.ne" display="https://pytorch.org/docs/stable/generated/torch.ne.html?highlight=ne#torch.ne"/>
-    <hyperlink ref="E4" r:id="rId229" location="torch.nn.functional.unfold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.unfold.html?highlight=fold#torch.nn.functional.unfold"/>
+    <hyperlink ref="E196" r:id="rId219" location="torch.nn.functional.threshold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.threshold.html#torch.nn.functional.threshold"/>
+    <hyperlink ref="E241" r:id="rId220" location="torch.trunc" display="https://pytorch.org/docs/stable/generated/torch.trunc.html#torch.trunc"/>
+    <hyperlink ref="E59" r:id="rId221" location="torch.nn.functional.feature_alpha_dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.feature_alpha_dropout.html?highlight=feature_alpha_dropout#torch.nn.functional.feature_alpha_dropout"/>
+    <hyperlink ref="E210" r:id="rId222" location="torch.sub" display="https://pytorch.org/docs/stable/generated/torch.sub.html?highlight=sub#torch.sub"/>
+    <hyperlink ref="E266" r:id="rId223" display="https://pytorch.org/docs/stable/generated/torch.mean.html"/>
+    <hyperlink ref="E115" r:id="rId224" location="torch.geqrf" display="https://pytorch.org/docs/stable/generated/torch.geqrf.html?highlight=geqrf#torch.geqrf"/>
+    <hyperlink ref="E264" r:id="rId225" location="torch.any" display="https://pytorch.org/docs/stable/generated/torch.any.html?highlight=any#torch.any"/>
+    <hyperlink ref="E274" r:id="rId226" location="torch.median" display="https://pytorch.org/docs/stable/generated/torch.median.html?highlight=median#torch.median"/>
+    <hyperlink ref="E87" r:id="rId227" location="torch.diagflat" display="https://pytorch.org/docs/stable/generated/torch.diagflat.html?highlight=diagflat#torch.diagflat"/>
+    <hyperlink ref="E192" r:id="rId228" location="torch.neg" display="https://pytorch.org/docs/stable/generated/torch.neg.html?highlight=neg#torch.neg"/>
+    <hyperlink ref="E206" r:id="rId229" location="torch.ne" display="https://pytorch.org/docs/stable/generated/torch.ne.html?highlight=ne#torch.ne"/>
+    <hyperlink ref="E4" r:id="rId230" location="torch.nn.functional.unfold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.unfold.html?highlight=fold#torch.nn.functional.unfold"/>
     <hyperlink ref="E42" r:id="rId41" location="torch.nn.functional.glu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.glu.html?highlight=glu#torch.nn.functional.glu"/>
-    <hyperlink ref="E32" r:id="rId230" location="torch.nn.functional.batch_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.batch_norm.html?highlight=batch_norm#torch.nn.functional.batch_norm"/>
-    <hyperlink ref="E201" r:id="rId231" location="torch.minimum" display="https://pytorch.org/docs/stable/generated/torch.minimum.html?highlight=minimum#torch.minimum"/>
-    <hyperlink ref="E269" r:id="rId232" location="torch.std" display="https://pytorch.org/docs/stable/generated/torch.std.html?highlight=std#torch.std"/>
-    <hyperlink ref="E197" r:id="rId233" location="torch.clamp" display="https://pytorch.org/docs/stable/generated/torch.clamp.html?highlight=clamp#torch.clamp"/>
-    <hyperlink ref="E55" r:id="rId234" location="torch.nn.functional.softshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softshrink.html#torch.nn.functional.softshrink"/>
-    <hyperlink ref="E53" r:id="rId235" location="torch.nn.functional.selu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.selu.html#torch.nn.functional.selu"/>
-    <hyperlink ref="E94" r:id="rId236" location="torch.renorm" display="https://pytorch.org/docs/stable/generated/torch.renorm.html#torch.renorm"/>
-    <hyperlink ref="E116" r:id="rId237" location="torch.linalg.slogdet" display="https://pytorch.org/docs/stable/generated/torch.linalg.slogdet.html#torch.linalg.slogdet"/>
-    <hyperlink ref="E129" r:id="rId238" location="torch.roll" display="https://pytorch.org/docs/stable/generated/torch.roll.html#torch.roll"/>
-    <hyperlink ref="E166" r:id="rId239" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
-    <hyperlink ref="E165" r:id="rId239" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
-    <hyperlink ref="E163" r:id="rId240" location="torch.randn" display="https://pytorch.org/docs/stable/generated/torch.randn.html#torch.randn"/>
-    <hyperlink ref="E154" r:id="rId241" location="torch.Tensor.scatter_add_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_add_.html#torch.Tensor.scatter_add_"/>
-    <hyperlink ref="E144" r:id="rId242" location="torch.select" display="https://pytorch.org/docs/stable/generated/torch.select.html#torch.select"/>
-    <hyperlink ref="E300" r:id="rId243" display="https://github.com/Dao-AILab/flash-attention&#10;https://arxiv.org/pdf/2305.13245" tooltip="https://github.com/Dao-AILab/flash-attention"/>
+    <hyperlink ref="E32" r:id="rId231" location="torch.nn.functional.batch_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.batch_norm.html?highlight=batch_norm#torch.nn.functional.batch_norm"/>
+    <hyperlink ref="E201" r:id="rId232" location="torch.minimum" display="https://pytorch.org/docs/stable/generated/torch.minimum.html?highlight=minimum#torch.minimum"/>
+    <hyperlink ref="E269" r:id="rId233" location="torch.std" display="https://pytorch.org/docs/stable/generated/torch.std.html?highlight=std#torch.std"/>
+    <hyperlink ref="E197" r:id="rId234" location="torch.clamp" display="https://pytorch.org/docs/stable/generated/torch.clamp.html?highlight=clamp#torch.clamp"/>
+    <hyperlink ref="E55" r:id="rId235" location="torch.nn.functional.softshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softshrink.html#torch.nn.functional.softshrink"/>
+    <hyperlink ref="E53" r:id="rId236" location="torch.nn.functional.selu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.selu.html#torch.nn.functional.selu"/>
+    <hyperlink ref="E94" r:id="rId237" location="torch.renorm" display="https://pytorch.org/docs/stable/generated/torch.renorm.html#torch.renorm"/>
+    <hyperlink ref="E116" r:id="rId238" location="torch.linalg.slogdet" display="https://pytorch.org/docs/stable/generated/torch.linalg.slogdet.html#torch.linalg.slogdet"/>
+    <hyperlink ref="E129" r:id="rId239" location="torch.roll" display="https://pytorch.org/docs/stable/generated/torch.roll.html#torch.roll"/>
+    <hyperlink ref="E166" r:id="rId240" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
+    <hyperlink ref="E165" r:id="rId240" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
+    <hyperlink ref="E163" r:id="rId241" location="torch.randn" display="https://pytorch.org/docs/stable/generated/torch.randn.html#torch.randn"/>
+    <hyperlink ref="E154" r:id="rId242" location="torch.Tensor.scatter_add_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_add_.html#torch.Tensor.scatter_add_"/>
+    <hyperlink ref="E144" r:id="rId243" location="torch.select" display="https://pytorch.org/docs/stable/generated/torch.select.html#torch.select"/>
     <hyperlink ref="E302" r:id="rId244" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
     <hyperlink ref="E303" r:id="rId245" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
     <hyperlink ref="E304" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
     <hyperlink ref="E305" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E306" r:id="rId247" display="https://arxiv.org/pdf/2506.11309&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example" tooltip="https://arxiv.org/pdf/2506.11309#:~:text=Fig,and%20stores%20them%20back%20to%20the%20global%20memory%20on%20the%20current%20GPU&#10;"/>
     <hyperlink ref="E307" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E308" r:id="rId248" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
-    <hyperlink ref="E299" r:id="rId243" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>
+    <hyperlink ref="E308" r:id="rId247" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
+    <hyperlink ref="E299" r:id="rId248" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>
     <hyperlink ref="E298" r:id="rId249" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention" tooltip="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
     <hyperlink ref="E301" r:id="rId250" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
     <hyperlink ref="E193" r:id="rId251" display="https://pytorch.org/docs/stable/generated/torch.sign.html#torch.sign"/>
     <hyperlink ref="E211" r:id="rId252" display="https://pytorch.org/docs/stable/generated/torch.remainder.html#torch.remainder"/>
     <hyperlink ref="E148" r:id="rId253" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_.html#torch.Tensor.scatter_"/>
+    <hyperlink ref="E300" r:id="rId246" display="https://arxiv.org/pdf/2305.13245&#10;https://github.com/Dao-AILab/flash-attention" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E306" r:id="rId247" display="https://arxiv.org/pdf/2506.11309&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -4728,8 +4728,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4737,7 +4737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5064,7 +5064,7 @@
   <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="E315" sqref="E315"/>
+      <selection activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -9647,7 +9647,7 @@
         <v>7</v>
       </c>
       <c r="D307" s="25"/>
-      <c r="E307" s="19" t="s">
+      <c r="E307" s="23" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9660,15 +9660,15 @@
         <v>7</v>
       </c>
       <c r="D308" s="22"/>
-      <c r="E308" s="26" t="s">
+      <c r="E308" s="23" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="309" ht="13.95" spans="5:5">
-      <c r="E309" s="23"/>
+      <c r="E309" s="26"/>
     </row>
     <row r="310" spans="5:5">
-      <c r="E310" s="23"/>
+      <c r="E310" s="26"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E308" etc:filterBottomFollowUsedRange="0">

--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$314</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="623">
   <si>
     <t>标准分类</t>
   </si>
@@ -3883,6 +3883,46 @@
   </si>
   <si>
     <t>https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html</t>
+  </si>
+  <si>
+    <t>Multi-Query Attention</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.02150
+https://github.com/huggingface/transformers/blob/main/src/transformers/models/llama/modeling_llama.py</t>
+  </si>
+  <si>
+    <t>Multi-matrix Factorization Attention</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2412.19255</t>
+  </si>
+  <si>
+    <t>Attention with Linear Biases</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2108.12409
+https://github.com/huggingface/transformers/blob/main/src/transformers/models/bloom/modeling_bloom.py#L56-L97</t>
+  </si>
+  <si>
+    <t>GELU</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.nn.GELU.html</t>
+  </si>
+  <si>
+    <t>Sparse Attention</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1904.10509
+https://github.com/openai/sparse_attention</t>
+  </si>
+  <si>
+    <t>Cross Attention</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2103.14899
+https://github.com/IBM/CrossViT/blob/main/models/crossvit.py</t>
   </si>
   <si>
     <t>计算通信融合算子</t>
@@ -4668,7 +4708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4720,13 +4760,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5061,10 +5123,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="E311" sqref="E311"/>
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -9542,13 +9604,13 @@
       <c r="B300" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="C300" s="16" t="s">
+      <c r="C300" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="E300" s="19" t="s">
+      <c r="E300" s="20" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9557,13 +9619,13 @@
       <c r="B301" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="C301" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="20" t="s">
+      <c r="C301" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="E301" s="21" t="s">
+      <c r="E301" s="23" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9572,106 +9634,190 @@
       <c r="B302" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D302" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="E302" s="19" t="s">
+      <c r="E302" s="20" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="303" ht="14.55" spans="1:5">
+    <row r="303" ht="13.95" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="E303" s="19" t="s">
+      <c r="E303" s="20" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="304" ht="27.15" spans="1:5">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="3"/>
+      <c r="B304" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="B304" s="16" t="s">
+      <c r="C304" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="E304" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="C304" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D304" s="22"/>
-      <c r="E304" s="23" t="s">
+    </row>
+    <row r="305" ht="14.55" spans="1:5">
+      <c r="A305" s="3"/>
+      <c r="B305" s="7" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="305" ht="27.15" spans="1:5">
-      <c r="A305" s="3"/>
-      <c r="B305" s="16" t="s">
+      <c r="C305" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" s="27"/>
+      <c r="E305" s="26" t="s">
         <v>603</v>
-      </c>
-      <c r="C305" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D305" s="22"/>
-      <c r="E305" s="23" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="306" ht="27.15" spans="1:5">
       <c r="A306" s="3"/>
-      <c r="B306" s="24" t="s">
+      <c r="B306" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C306" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="E306" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="C306" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" s="22"/>
-      <c r="E306" s="23" t="s">
+    </row>
+    <row r="307" ht="14.55" spans="1:5">
+      <c r="A307" s="3"/>
+      <c r="B307" s="7" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="307" ht="27.15" spans="1:5">
-      <c r="A307" s="3"/>
-      <c r="B307" s="16" t="s">
+      <c r="C307" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D307" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="E307" s="29" t="s">
         <v>607</v>
-      </c>
-      <c r="C307" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307" s="25"/>
-      <c r="E307" s="23" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="308" ht="27.15" spans="1:5">
       <c r="A308" s="3"/>
-      <c r="B308" s="16" t="s">
+      <c r="B308" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C308" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D308" s="27"/>
+      <c r="E308" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="C308" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D308" s="22"/>
-      <c r="E308" s="23" t="s">
+    </row>
+    <row r="309" ht="27.15" spans="1:5">
+      <c r="A309" s="3"/>
+      <c r="B309" s="7" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="309" ht="13.95" spans="5:5">
-      <c r="E309" s="26"/>
-    </row>
-    <row r="310" spans="5:5">
-      <c r="E310" s="26"/>
+      <c r="C309" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="27"/>
+      <c r="E309" s="26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="310" ht="27.15" spans="1:5">
+      <c r="A310" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B310" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="C310" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="30"/>
+      <c r="E310" s="31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="311" ht="27.15" spans="1:5">
+      <c r="A311" s="3"/>
+      <c r="B311" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C311" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="30"/>
+      <c r="E311" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="312" ht="27.15" spans="1:5">
+      <c r="A312" s="3"/>
+      <c r="B312" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="30"/>
+      <c r="E312" s="31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="313" ht="27.15" spans="1:5">
+      <c r="A313" s="3"/>
+      <c r="B313" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="C313" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="33"/>
+      <c r="E313" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="314" ht="27.15" spans="1:5">
+      <c r="A314" s="3"/>
+      <c r="B314" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C314" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="30"/>
+      <c r="E314" s="31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="315" ht="13.95" spans="5:5">
+      <c r="E315" s="34"/>
+    </row>
+    <row r="316" spans="5:5">
+      <c r="E316" s="34"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E308" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E314" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="22">
@@ -9695,8 +9841,8 @@
     <mergeCell ref="A278:A279"/>
     <mergeCell ref="A280:A291"/>
     <mergeCell ref="A292:A297"/>
-    <mergeCell ref="A298:A303"/>
-    <mergeCell ref="A304:A308"/>
+    <mergeCell ref="A298:A309"/>
+    <mergeCell ref="A310:A314"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E173" r:id="rId1" location="torch.cuda.get_rng_state_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.get_rng_state_all.html#torch.cuda.get_rng_state_all"/>
@@ -9952,21 +10098,27 @@
     <hyperlink ref="E144" r:id="rId243" location="torch.select" display="https://pytorch.org/docs/stable/generated/torch.select.html#torch.select"/>
     <hyperlink ref="E302" r:id="rId244" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
     <hyperlink ref="E303" r:id="rId245" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
-    <hyperlink ref="E304" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E305" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E307" r:id="rId246" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E308" r:id="rId247" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
-    <hyperlink ref="E299" r:id="rId248" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>
-    <hyperlink ref="E298" r:id="rId249" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention" tooltip="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
-    <hyperlink ref="E301" r:id="rId250" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
-    <hyperlink ref="E193" r:id="rId251" display="https://pytorch.org/docs/stable/generated/torch.sign.html#torch.sign"/>
-    <hyperlink ref="E211" r:id="rId252" display="https://pytorch.org/docs/stable/generated/torch.remainder.html#torch.remainder"/>
-    <hyperlink ref="E148" r:id="rId253" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_.html#torch.Tensor.scatter_"/>
-    <hyperlink ref="E300" r:id="rId246" display="https://arxiv.org/pdf/2305.13245&#10;https://github.com/Dao-AILab/flash-attention" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E306" r:id="rId247" display="https://arxiv.org/pdf/2506.11309&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
+    <hyperlink ref="E299" r:id="rId246" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>
+    <hyperlink ref="E298" r:id="rId247" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention" tooltip="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
+    <hyperlink ref="E301" r:id="rId248" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
+    <hyperlink ref="E193" r:id="rId249" display="https://pytorch.org/docs/stable/generated/torch.sign.html#torch.sign"/>
+    <hyperlink ref="E211" r:id="rId250" display="https://pytorch.org/docs/stable/generated/torch.remainder.html#torch.remainder"/>
+    <hyperlink ref="E148" r:id="rId251" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_.html#torch.Tensor.scatter_"/>
+    <hyperlink ref="E314" r:id="rId252" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
+    <hyperlink ref="E313" r:id="rId253" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E312" r:id="rId252" display="https://arxiv.org/pdf/2506.11309&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
+    <hyperlink ref="E311" r:id="rId253" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E300" r:id="rId253" display="https://arxiv.org/pdf/2305.13245&#10;https://github.com/Dao-AILab/flash-attention" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E304" r:id="rId254" display="https://arxiv.org/pdf/1911.02150&#10;https://github.com/huggingface/transformers/blob/main/src/transformers/models/llama/modeling_llama.py" tooltip="https://arxiv.org/pdf/1911.02150&#10;"/>
+    <hyperlink ref="E305" r:id="rId255" display="https://arxiv.org/pdf/2412.19255"/>
+    <hyperlink ref="E306" r:id="rId256" display="https://arxiv.org/pdf/2108.12409&#10;https://github.com/huggingface/transformers/blob/main/src/transformers/models/bloom/modeling_bloom.py#L56-L97"/>
+    <hyperlink ref="E307" r:id="rId257" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.GELU.html"/>
+    <hyperlink ref="E310" r:id="rId253" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="E308" r:id="rId258" display="https://arxiv.org/pdf/1904.10509&#10;https://github.com/openai/sparse_attention"/>
+    <hyperlink ref="E309" r:id="rId259" display="https://arxiv.org/pdf/2103.14899&#10;https://github.com/IBM/CrossViT/blob/main/models/crossvit.py"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <picture r:id="rId254"/>
+  <picture r:id="rId260"/>
 </worksheet>
 </file>
--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$322</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="638">
   <si>
     <t>标准分类</t>
   </si>
@@ -41,6 +41,9 @@
     <t>算子分级</t>
   </si>
   <si>
+    <t>dense/sparse</t>
+  </si>
+  <si>
     <t>Package</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>P0</t>
   </si>
   <si>
+    <t>dense</t>
+  </si>
+  <si>
     <t>torch, torch.nn.functional</t>
   </si>
   <si>
@@ -782,6 +788,18 @@
     <t>https://pytorch.org/docs/stable/generated/torch.nn.functional.softshrink.html#torch.nn.functional.softshrink</t>
   </si>
   <si>
+    <t>sparse</t>
+  </si>
+  <si>
+    <t>torch.sparse</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.softmax.html</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.log_softmax.html</t>
+  </si>
+  <si>
     <t>Dropout</t>
   </si>
   <si>
@@ -1130,6 +1148,18 @@
     </r>
   </si>
   <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.addmm.html</t>
+  </si>
+  <si>
+    <t>sampled_addmm</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.sampled_addmm.html</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.mm.html</t>
+  </si>
+  <si>
     <t>Linalg</t>
   </si>
   <si>
@@ -1796,6 +1826,12 @@
     </r>
   </si>
   <si>
+    <t>spsolve</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.spsolve.html</t>
+  </si>
+  <si>
     <t>Permute</t>
   </si>
   <si>
@@ -3557,6 +3593,9 @@
     </r>
   </si>
   <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.sum.html</t>
+  </si>
+  <si>
     <t>Composite</t>
   </si>
   <si>
@@ -3588,6 +3627,12 @@
       </rPr>
       <t>https://pytorch.org/docs/stable/generated/torch.allclose.html?highlight=allclose#torch.allclose</t>
     </r>
+  </si>
+  <si>
+    <t>spdiags</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.sparse.spdiags.html</t>
   </si>
   <si>
     <t>Misc</t>
@@ -4019,6 +4064,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF1F2329"/>
       <name val="等线"/>
@@ -4030,12 +4081,6 @@
       <sz val="10.5"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4191,14 +4236,14 @@
     </font>
     <font>
       <u/>
-      <sz val="9.75"/>
+      <sz val="10.5"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="10.5"/>
+      <sz val="9.75"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4420,9 +4465,7 @@
       <top style="medium">
         <color rgb="FFDEE0E3"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4461,7 +4504,9 @@
       <top style="medium">
         <color rgb="FFDEE0E3"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4708,7 +4753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4741,59 +4786,73 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5123,22 +5182,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="39.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="125" customWidth="1"/>
+    <col min="4" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5154,4670 +5213,5756 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="13.8" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="13.8" customHeight="1" spans="1:5">
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:5">
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="14.4" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="1:6">
       <c r="A17" s="3"/>
       <c r="B17" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="14.4" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="14.4" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="13.8" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="14.4" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" ht="13.8" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" ht="14.4" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" ht="13.8" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" ht="13.8" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" ht="13.8" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" ht="13.8" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" ht="13.8" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" ht="14.4" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" ht="14.4" spans="1:5">
-      <c r="A56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="5" t="s">
+    </row>
+    <row r="56" ht="13.95" spans="1:6">
+      <c r="A56" s="3"/>
+      <c r="B56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" ht="13.8" spans="1:5">
+      <c r="E56" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" ht="13.95" spans="1:6">
       <c r="A57" s="3"/>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" ht="20" customHeight="1" spans="1:5">
-      <c r="A58" s="3"/>
+      <c r="F57" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" ht="14.4" spans="1:6">
+      <c r="A58" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="B58" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" ht="13.8" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" ht="20" customHeight="1" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:6">
+      <c r="A60" s="3"/>
+      <c r="B60" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="C60" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" spans="1:6">
       <c r="A61" s="3"/>
-      <c r="B61" s="9" t="s">
-        <v>133</v>
+      <c r="B61" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" ht="20" customHeight="1" spans="1:5">
-      <c r="A62" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" spans="1:6">
+      <c r="A62" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="B62" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" ht="14.4" spans="1:5">
-      <c r="A65" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>143</v>
       </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" spans="1:6">
+      <c r="A65" s="3"/>
+      <c r="B65" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="C65" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" ht="14.4" spans="1:5">
-      <c r="A67" s="3"/>
-      <c r="B67" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>147</v>
       </c>
+    </row>
+    <row r="67" ht="14.4" spans="1:6">
+      <c r="A67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="C67" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" ht="14.4" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" ht="14.4" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" ht="20" customHeight="1" spans="1:5">
+    <row r="77" ht="20" customHeight="1" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" spans="1:6">
       <c r="A78" s="3"/>
-      <c r="B78" s="7" t="s">
-        <v>165</v>
+      <c r="B78" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1" spans="1:6">
       <c r="A80" s="3"/>
-      <c r="B80" s="9" t="s">
-        <v>169</v>
+      <c r="B80" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" ht="14.4" spans="1:5">
-      <c r="A81" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1" spans="1:6">
+      <c r="A81" s="3"/>
       <c r="B81" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" ht="20" customHeight="1" spans="1:5">
+    <row r="82" ht="20" customHeight="1" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="83" ht="20" customHeight="1" spans="1:5">
+    <row r="83" ht="14.55" spans="1:6">
       <c r="A83" s="3"/>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E83" s="5" t="s">
+    </row>
+    <row r="84" ht="14.55" spans="1:6">
+      <c r="A84" s="3"/>
+      <c r="B84" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="84" ht="20" customHeight="1" spans="1:5">
-      <c r="A84" s="3"/>
-      <c r="B84" s="9" t="s">
+      <c r="C84" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="5" t="s">
+    </row>
+    <row r="85" ht="14.55" spans="1:6">
+      <c r="A85" s="3"/>
+      <c r="B85" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="85" ht="20" customHeight="1" spans="1:5">
-      <c r="A85" s="3"/>
-      <c r="B85" s="9" t="s">
+    <row r="86" ht="14.4" spans="1:6">
+      <c r="A86" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="86" ht="20" customHeight="1" spans="1:5">
-      <c r="A86" s="3"/>
-      <c r="B86" s="9" t="s">
+      <c r="C86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" ht="20" customHeight="1" spans="1:5">
+    <row r="87" ht="20" customHeight="1" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" ht="20" customHeight="1" spans="1:5">
+    <row r="88" ht="20" customHeight="1" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" ht="20" customHeight="1" spans="1:5">
+    <row r="89" ht="20" customHeight="1" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" ht="20" customHeight="1" spans="1:5">
+    <row r="90" ht="20" customHeight="1" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91" ht="20" customHeight="1" spans="1:5">
+    <row r="91" ht="20" customHeight="1" spans="1:6">
       <c r="A91" s="3"/>
       <c r="B91" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="92" ht="20" customHeight="1" spans="1:5">
+    <row r="92" ht="20" customHeight="1" spans="1:6">
       <c r="A92" s="3"/>
       <c r="B92" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93" ht="20" customHeight="1" spans="1:5">
+    <row r="93" ht="20" customHeight="1" spans="1:6">
       <c r="A93" s="3"/>
       <c r="B93" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="94" ht="20" customHeight="1" spans="1:5">
+    <row r="94" ht="20" customHeight="1" spans="1:6">
       <c r="A94" s="3"/>
       <c r="B94" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" ht="20" customHeight="1" spans="1:5">
+    <row r="95" ht="20" customHeight="1" spans="1:6">
       <c r="A95" s="3"/>
       <c r="B95" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E95" s="8" t="s">
+    </row>
+    <row r="96" ht="20" customHeight="1" spans="1:6">
+      <c r="A96" s="3"/>
+      <c r="B96" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="96" ht="20" customHeight="1" spans="1:5">
-      <c r="A96" s="3"/>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" ht="20" customHeight="1" spans="1:5">
+    </row>
+    <row r="97" ht="20" customHeight="1" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" ht="20" customHeight="1" spans="1:5">
+    </row>
+    <row r="98" ht="20" customHeight="1" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="99" ht="20" customHeight="1" spans="1:5">
+    </row>
+    <row r="99" ht="20" customHeight="1" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" ht="20" customHeight="1" spans="1:5">
+    </row>
+    <row r="100" ht="20" customHeight="1" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="F100" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="101" ht="20" customHeight="1" spans="1:5">
+    <row r="101" ht="20" customHeight="1" spans="1:6">
       <c r="A101" s="3"/>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="7" t="s">
         <v>214</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" ht="20" customHeight="1" spans="1:5">
+    <row r="102" ht="20" customHeight="1" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="9" t="s">
         <v>216</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="103" ht="20" customHeight="1" spans="1:5">
+    <row r="103" ht="20" customHeight="1" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="104" ht="20" customHeight="1" spans="1:5">
+    <row r="104" ht="20" customHeight="1" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="105" ht="20" customHeight="1" spans="1:5">
+    <row r="105" ht="20" customHeight="1" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" ht="20" customHeight="1" spans="1:5">
+    <row r="106" ht="20" customHeight="1" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="9" t="s">
         <v>224</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="107" ht="20" customHeight="1" spans="1:5">
+    <row r="107" ht="20" customHeight="1" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="108" ht="20" customHeight="1" spans="1:5">
+    <row r="108" ht="20" customHeight="1" spans="1:6">
       <c r="A108" s="3"/>
       <c r="B108" s="9" t="s">
         <v>228</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="109" ht="20" customHeight="1" spans="1:5">
+    <row r="109" ht="20" customHeight="1" spans="1:6">
       <c r="A109" s="3"/>
       <c r="B109" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="110" ht="20" customHeight="1" spans="1:5">
+    <row r="110" ht="20" customHeight="1" spans="1:6">
       <c r="A110" s="3"/>
       <c r="B110" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="111" ht="20" customHeight="1" spans="1:5">
+    <row r="111" ht="20" customHeight="1" spans="1:6">
       <c r="A111" s="3"/>
       <c r="B111" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="112" ht="20" customHeight="1" spans="1:5">
+    <row r="112" ht="20" customHeight="1" spans="1:6">
       <c r="A112" s="3"/>
       <c r="B112" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="113" ht="20" customHeight="1" spans="1:5">
+    <row r="113" ht="20" customHeight="1" spans="1:6">
       <c r="A113" s="3"/>
       <c r="B113" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="114" ht="20" customHeight="1" spans="1:5">
+    <row r="114" ht="20" customHeight="1" spans="1:6">
       <c r="A114" s="3"/>
       <c r="B114" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="115" ht="20" customHeight="1" spans="1:5">
+    <row r="115" ht="20" customHeight="1" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="9" t="s">
         <v>242</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="116" ht="20" customHeight="1" spans="1:5">
+    <row r="116" ht="20" customHeight="1" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="117" ht="20" customHeight="1" spans="1:5">
+    <row r="117" ht="20" customHeight="1" spans="1:6">
       <c r="A117" s="3"/>
       <c r="B117" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="118" ht="20" customHeight="1" spans="1:5">
+    <row r="118" ht="20" customHeight="1" spans="1:6">
       <c r="A118" s="3"/>
       <c r="B118" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="119" ht="20" customHeight="1" spans="1:5">
+    <row r="119" ht="20" customHeight="1" spans="1:6">
       <c r="A119" s="3"/>
       <c r="B119" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" ht="20" customHeight="1" spans="1:5">
+    <row r="120" ht="20" customHeight="1" spans="1:6">
       <c r="A120" s="3"/>
       <c r="B120" s="9" t="s">
         <v>252</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="121" ht="20" customHeight="1" spans="1:5">
+    <row r="121" ht="20" customHeight="1" spans="1:6">
       <c r="A121" s="3"/>
       <c r="B121" s="9" t="s">
         <v>254</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E121" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F121" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="122" ht="20" customHeight="1" spans="1:5">
+    <row r="122" ht="20" customHeight="1" spans="1:6">
       <c r="A122" s="3"/>
       <c r="B122" s="9" t="s">
         <v>256</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="123" ht="20" customHeight="1" spans="1:5">
+    <row r="123" ht="20" customHeight="1" spans="1:6">
       <c r="A123" s="3"/>
       <c r="B123" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="124" ht="20" customHeight="1" spans="1:5">
+    <row r="124" ht="20" customHeight="1" spans="1:6">
       <c r="A124" s="3"/>
       <c r="B124" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E124" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="125" ht="20" customHeight="1" spans="1:5">
+    <row r="125" ht="20" customHeight="1" spans="1:6">
       <c r="A125" s="3"/>
       <c r="B125" s="9" t="s">
         <v>262</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="126" ht="14.4" spans="1:5">
-      <c r="A126" s="13" t="s">
+    <row r="126" ht="20" customHeight="1" spans="1:6">
+      <c r="A126" s="3"/>
+      <c r="B126" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E126" s="5" t="s">
+    </row>
+    <row r="127" ht="20" customHeight="1" spans="1:6">
+      <c r="A127" s="3"/>
+      <c r="B127" s="9" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="127" ht="14.4" spans="1:5">
-      <c r="A127" s="13"/>
-      <c r="B127" s="9" t="s">
+      <c r="C127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E127" s="5" t="s">
+    </row>
+    <row r="128" ht="20" customHeight="1" spans="1:6">
+      <c r="A128" s="3"/>
+      <c r="B128" s="9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="128" ht="13.8" spans="1:5">
-      <c r="A128" s="13"/>
-      <c r="B128" s="9" t="s">
+      <c r="C128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E128" s="8" t="s">
+    </row>
+    <row r="129" ht="20" customHeight="1" spans="1:6">
+      <c r="A129" s="3"/>
+      <c r="B129" s="9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="129" ht="20" customHeight="1" spans="1:5">
-      <c r="A129" s="13"/>
-      <c r="B129" s="9" t="s">
+      <c r="C129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E129" s="11" t="s">
+    </row>
+    <row r="130" ht="20" customHeight="1" spans="1:6">
+      <c r="A130" s="3"/>
+      <c r="B130" s="9" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="130" ht="20" customHeight="1" spans="1:5">
-      <c r="A130" s="13"/>
-      <c r="B130" s="9" t="s">
+      <c r="C130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E130" s="8" t="s">
+    </row>
+    <row r="131" ht="13.95" spans="1:6">
+      <c r="A131" s="3"/>
+      <c r="B131" s="12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="131" ht="20" customHeight="1" spans="1:5">
-      <c r="A131" s="13"/>
-      <c r="B131" s="9" t="s">
+      <c r="C131" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E131" s="8" t="s">
+    </row>
+    <row r="132" ht="14.4" spans="1:6">
+      <c r="A132" s="17" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="132" ht="20" customHeight="1" spans="1:5">
-      <c r="A132" s="13"/>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="133" ht="13.8" spans="1:5">
-      <c r="A133" s="3" t="s">
+    <row r="133" ht="14.4" spans="1:6">
+      <c r="A133" s="17"/>
+      <c r="B133" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="C133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="6" t="s">
+    </row>
+    <row r="134" ht="13.8" spans="1:6">
+      <c r="A134" s="17"/>
+      <c r="B134" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="C134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="134" ht="13.8" spans="1:5">
-      <c r="A134" s="3"/>
-      <c r="B134" s="7" t="s">
+    <row r="135" ht="20" customHeight="1" spans="1:6">
+      <c r="A135" s="17"/>
+      <c r="B135" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E134" s="8" t="s">
+      <c r="C135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="135" ht="13.8" spans="1:5">
-      <c r="A135" s="3"/>
-      <c r="B135" s="9" t="s">
+    <row r="136" ht="20" customHeight="1" spans="1:6">
+      <c r="A136" s="17"/>
+      <c r="B136" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E135" s="8" t="s">
+      <c r="C136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="136" ht="13.8" spans="1:5">
-      <c r="A136" s="3"/>
-      <c r="B136" s="7" t="s">
+    <row r="137" ht="20" customHeight="1" spans="1:6">
+      <c r="A137" s="17"/>
+      <c r="B137" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="C137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="137" ht="13.8" spans="1:5">
-      <c r="A137" s="3"/>
-      <c r="B137" s="9" t="s">
+    <row r="138" ht="20" customHeight="1" spans="1:6">
+      <c r="A138" s="17"/>
+      <c r="B138" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E137" s="8" t="s">
+      <c r="C138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="138" ht="14.4" spans="1:5">
-      <c r="A138" s="3"/>
-      <c r="B138" s="9" t="s">
+    <row r="139" ht="13.8" spans="1:6">
+      <c r="A139" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E138" s="5" t="s">
+      <c r="B139" s="7" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="139" ht="14.4" spans="1:5">
-      <c r="A139" s="3"/>
-      <c r="B139" s="9" t="s">
+      <c r="C139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E139" s="5" t="s">
+      <c r="F139" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="140" ht="13.8" spans="1:5">
+    <row r="140" ht="13.8" spans="1:6">
       <c r="A140" s="3"/>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="7" t="s">
         <v>295</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E140" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="141" ht="14.4" spans="1:5">
+    <row r="141" ht="13.8" spans="1:6">
       <c r="A141" s="3"/>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="142" ht="13.8" spans="1:5">
+    <row r="142" ht="13.8" spans="1:6">
       <c r="A142" s="3"/>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="7" t="s">
         <v>299</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E142" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="143" ht="13.8" spans="1:5">
+    <row r="143" ht="13.8" spans="1:6">
       <c r="A143" s="3"/>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="9" t="s">
         <v>301</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E143" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="144" ht="13.8" spans="1:5">
+    <row r="144" ht="14.4" spans="1:6">
       <c r="A144" s="3"/>
       <c r="B144" s="9" t="s">
         <v>303</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E144" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="145" ht="20" customHeight="1" spans="1:5">
+    <row r="145" ht="14.4" spans="1:6">
       <c r="A145" s="3"/>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="9" t="s">
         <v>305</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="146" ht="20" customHeight="1" spans="1:5">
+    <row r="146" ht="13.8" spans="1:6">
       <c r="A146" s="3"/>
       <c r="B146" s="9" t="s">
         <v>307</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E146" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F146" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="147" ht="13.8" spans="1:5">
-      <c r="A147" s="3" t="s">
+    <row r="147" ht="14.4" spans="1:6">
+      <c r="A147" s="3"/>
+      <c r="B147" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="C147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F147" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="148" ht="13.8" spans="1:5">
+    </row>
+    <row r="148" ht="13.8" spans="1:6">
       <c r="A148" s="3"/>
       <c r="B148" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="149" ht="14.4" spans="1:5">
+    </row>
+    <row r="149" ht="13.8" spans="1:6">
       <c r="A149" s="3"/>
       <c r="B149" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F149" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="150" ht="14.4" spans="1:5">
+    </row>
+    <row r="150" ht="13.8" spans="1:6">
       <c r="A150" s="3"/>
       <c r="B150" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F150" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E150" s="5" t="s">
+    </row>
+    <row r="151" ht="20" customHeight="1" spans="1:6">
+      <c r="A151" s="3"/>
+      <c r="B151" s="18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="151" ht="14.4" spans="1:5">
-      <c r="A151" s="3"/>
-      <c r="B151" s="7" t="s">
+      <c r="C151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="152" ht="14.4" spans="1:5">
+    </row>
+    <row r="152" ht="20" customHeight="1" spans="1:6">
       <c r="A152" s="3"/>
       <c r="B152" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E152" s="5" t="s">
+    </row>
+    <row r="153" ht="13.8" spans="1:6">
+      <c r="A153" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="153" ht="20" customHeight="1" spans="1:5">
-      <c r="A153" s="3"/>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="9" t="s">
         <v>322</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F153" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="154" ht="20" customHeight="1" spans="1:5">
+    <row r="154" ht="13.8" spans="1:6">
       <c r="A154" s="3"/>
       <c r="B154" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E154" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F154" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="155" ht="20" customHeight="1" spans="1:5">
+    <row r="155" ht="14.4" spans="1:6">
       <c r="A155" s="3"/>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="7" t="s">
         <v>326</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E155" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="156" ht="20" customHeight="1" spans="1:5">
+    <row r="156" ht="14.4" spans="1:6">
       <c r="A156" s="3"/>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="157" ht="20" customHeight="1" spans="1:5">
+    <row r="157" ht="14.4" spans="1:6">
       <c r="A157" s="3"/>
       <c r="B157" s="7" t="s">
         <v>330</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F157" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="158" ht="20" customHeight="1" spans="1:5">
+    <row r="158" ht="14.4" spans="1:6">
       <c r="A158" s="3"/>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="9" t="s">
         <v>332</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="159" ht="13.8" spans="1:5">
-      <c r="A159" s="13" t="s">
+    <row r="159" ht="20" customHeight="1" spans="1:6">
+      <c r="A159" s="3"/>
+      <c r="B159" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="C159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E159" s="5" t="s">
+    </row>
+    <row r="160" ht="20" customHeight="1" spans="1:6">
+      <c r="A160" s="3"/>
+      <c r="B160" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="160" ht="13.8" spans="1:5">
-      <c r="A160" s="13"/>
-      <c r="B160" s="9" t="s">
+      <c r="C160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F160" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E160" s="8" t="s">
+    </row>
+    <row r="161" ht="20" customHeight="1" spans="1:6">
+      <c r="A161" s="3"/>
+      <c r="B161" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="161" ht="13.8" spans="1:5">
-      <c r="A161" s="13"/>
-      <c r="B161" s="9" t="s">
+      <c r="C161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="8" t="s">
+    </row>
+    <row r="162" ht="20" customHeight="1" spans="1:6">
+      <c r="A162" s="3"/>
+      <c r="B162" s="7" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="162" ht="20" customHeight="1" spans="1:5">
-      <c r="A162" s="13"/>
-      <c r="B162" s="7" t="s">
+      <c r="C162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E162" s="5" t="s">
+    </row>
+    <row r="163" ht="20" customHeight="1" spans="1:6">
+      <c r="A163" s="3"/>
+      <c r="B163" s="7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="163" ht="20" customHeight="1" spans="1:5">
-      <c r="A163" s="13"/>
-      <c r="B163" s="7" t="s">
+      <c r="C163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E163" s="11" t="s">
+    </row>
+    <row r="164" ht="20" customHeight="1" spans="1:6">
+      <c r="A164" s="3"/>
+      <c r="B164" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="164" ht="20" customHeight="1" spans="1:5">
-      <c r="A164" s="13"/>
-      <c r="B164" s="9" t="s">
+      <c r="C164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E164" s="8" t="s">
+    </row>
+    <row r="165" ht="13.8" spans="1:6">
+      <c r="A165" s="17" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="165" ht="20" customHeight="1" spans="1:5">
-      <c r="A165" s="13"/>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="9" t="s">
         <v>347</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E165" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="166" ht="20" customHeight="1" spans="1:5">
-      <c r="A166" s="13"/>
-      <c r="B166" s="7" t="s">
-        <v>347</v>
+    <row r="166" ht="13.8" spans="1:6">
+      <c r="A166" s="17"/>
+      <c r="B166" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="167" ht="20" customHeight="1" spans="1:5">
-      <c r="A167" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" ht="13.8" spans="1:6">
+      <c r="A167" s="17"/>
       <c r="B167" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="168" ht="20" customHeight="1" spans="1:5">
-      <c r="A168" s="13"/>
-      <c r="B168" s="9" t="s">
-        <v>351</v>
+        <v>9</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="168" ht="20" customHeight="1" spans="1:6">
+      <c r="A168" s="17"/>
+      <c r="B168" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="169" ht="20" customHeight="1" spans="1:5">
-      <c r="A169" s="13"/>
-      <c r="B169" s="9" t="s">
-        <v>353</v>
+        <v>9</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" ht="20" customHeight="1" spans="1:6">
+      <c r="A169" s="17"/>
+      <c r="B169" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="170" ht="20" customHeight="1" spans="1:5">
-      <c r="A170" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="170" ht="20" customHeight="1" spans="1:6">
+      <c r="A170" s="17"/>
       <c r="B170" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="171" ht="20" customHeight="1" spans="1:5">
-      <c r="A171" s="13"/>
-      <c r="B171" s="9" t="s">
-        <v>357</v>
+        <v>9</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171" ht="20" customHeight="1" spans="1:6">
+      <c r="A171" s="17"/>
+      <c r="B171" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E171" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" ht="20" customHeight="1" spans="1:6">
+      <c r="A172" s="17"/>
+      <c r="B172" s="7" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="172" ht="20" customHeight="1" spans="1:5">
-      <c r="A172" s="13"/>
-      <c r="B172" s="9" t="s">
+      <c r="C172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F172" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E172" s="8" t="s">
+    </row>
+    <row r="173" ht="20" customHeight="1" spans="1:6">
+      <c r="A173" s="17"/>
+      <c r="B173" s="9" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="173" ht="20" customHeight="1" spans="1:5">
-      <c r="A173" s="13"/>
-      <c r="B173" s="9" t="s">
+      <c r="C173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F173" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="6" t="s">
+    </row>
+    <row r="174" ht="20" customHeight="1" spans="1:6">
+      <c r="A174" s="17"/>
+      <c r="B174" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="C174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F174" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="174" ht="20" customHeight="1" spans="1:5">
-      <c r="A174" s="13"/>
-      <c r="B174" s="9" t="s">
+    <row r="175" ht="20" customHeight="1" spans="1:6">
+      <c r="A175" s="17"/>
+      <c r="B175" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C174" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E174" s="8" t="s">
+      <c r="C175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F175" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="175" ht="20" customHeight="1" spans="1:5">
-      <c r="A175" s="13"/>
-      <c r="B175" s="9" t="s">
+    <row r="176" ht="20" customHeight="1" spans="1:6">
+      <c r="A176" s="17"/>
+      <c r="B176" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E175" s="8" t="s">
+      <c r="C176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="176" ht="20" customHeight="1" spans="1:5">
-      <c r="A176" s="13"/>
-      <c r="B176" s="9" t="s">
+    <row r="177" ht="20" customHeight="1" spans="1:6">
+      <c r="A177" s="17"/>
+      <c r="B177" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E176" s="8" t="s">
+      <c r="C177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="177" ht="20" customHeight="1" spans="1:5">
-      <c r="A177" s="13"/>
-      <c r="B177" s="9" t="s">
+      <c r="F177" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E177" s="8" t="s">
+    </row>
+    <row r="178" ht="20" customHeight="1" spans="1:6">
+      <c r="A178" s="17"/>
+      <c r="B178" s="9" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="178" ht="20" customHeight="1" spans="1:5">
-      <c r="A178" s="13"/>
-      <c r="B178" s="9" t="s">
+      <c r="C178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F178" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E178" s="8" t="s">
+    </row>
+    <row r="179" ht="20" customHeight="1" spans="1:6">
+      <c r="A179" s="17"/>
+      <c r="B179" s="9" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="179" ht="20" customHeight="1" spans="1:5">
-      <c r="A179" s="13"/>
-      <c r="B179" s="9" t="s">
+      <c r="C179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E179" s="8" t="s">
+      <c r="F179" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="180" ht="14.4" spans="1:5">
-      <c r="A180" s="3" t="s">
+    <row r="180" ht="20" customHeight="1" spans="1:6">
+      <c r="A180" s="17"/>
+      <c r="B180" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="C180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F180" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E180" s="5" t="s">
+    </row>
+    <row r="181" ht="20" customHeight="1" spans="1:6">
+      <c r="A181" s="17"/>
+      <c r="B181" s="9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="181" ht="13.8" spans="1:5">
-      <c r="A181" s="3"/>
-      <c r="B181" s="9" t="s">
+      <c r="C181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F181" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E181" s="8" t="s">
+    </row>
+    <row r="182" ht="20" customHeight="1" spans="1:6">
+      <c r="A182" s="17"/>
+      <c r="B182" s="9" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="182" ht="20" customHeight="1" spans="1:5">
-      <c r="A182" s="3"/>
-      <c r="B182" s="9" t="s">
+      <c r="C182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F182" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E182" s="8" t="s">
+    </row>
+    <row r="183" ht="20" customHeight="1" spans="1:6">
+      <c r="A183" s="17"/>
+      <c r="B183" s="9" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="183" ht="13.8" spans="1:5">
-      <c r="A183" s="3" t="s">
+      <c r="C183" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F183" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B183" s="7" t="s">
+    </row>
+    <row r="184" ht="20" customHeight="1" spans="1:6">
+      <c r="A184" s="17"/>
+      <c r="B184" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" ht="13.8" spans="1:5">
-      <c r="A184" s="3"/>
-      <c r="B184" s="7" t="s">
+      <c r="C184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F184" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" ht="13.8" spans="1:5">
-      <c r="A185" s="3"/>
-      <c r="B185" s="7" t="s">
+    </row>
+    <row r="185" ht="20" customHeight="1" spans="1:6">
+      <c r="A185" s="17"/>
+      <c r="B185" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E185" s="8"/>
-    </row>
-    <row r="186" ht="13.8" spans="1:5">
-      <c r="A186" s="3"/>
-      <c r="B186" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F185" s="8" t="s">
         <v>388</v>
       </c>
+    </row>
+    <row r="186" ht="14.4" spans="1:6">
+      <c r="A186" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="C186" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E186" s="8"/>
-    </row>
-    <row r="187" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="187" ht="13.8" spans="1:6">
       <c r="A187" s="3"/>
-      <c r="B187" s="7" t="s">
-        <v>389</v>
+      <c r="B187" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E187" s="8"/>
-    </row>
-    <row r="188" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="188" ht="20" customHeight="1" spans="1:6">
       <c r="A188" s="3"/>
-      <c r="B188" s="7" t="s">
-        <v>390</v>
+      <c r="B188" s="9" t="s">
+        <v>394</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E188" s="8"/>
-    </row>
-    <row r="189" ht="13.8" spans="1:5">
-      <c r="A189" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" ht="13.8" spans="1:6">
+      <c r="A189" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B189" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E189" s="8"/>
-    </row>
-    <row r="190" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F189" s="8"/>
+    </row>
+    <row r="190" ht="13.8" spans="1:6">
       <c r="A190" s="3"/>
       <c r="B190" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E190" s="8"/>
-    </row>
-    <row r="191" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" ht="13.8" spans="1:6">
       <c r="A191" s="3"/>
       <c r="B191" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E191" s="8"/>
-    </row>
-    <row r="192" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" ht="13.8" spans="1:6">
       <c r="A192" s="3"/>
       <c r="B192" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="193" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" ht="13.8" spans="1:6">
       <c r="A193" s="3"/>
-      <c r="B193" s="9" t="s">
-        <v>396</v>
+      <c r="B193" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="194" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F193" s="8"/>
+    </row>
+    <row r="194" ht="13.8" spans="1:6">
       <c r="A194" s="3"/>
-      <c r="B194" s="9" t="s">
-        <v>398</v>
+      <c r="B194" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="195" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F194" s="8"/>
+    </row>
+    <row r="195" ht="13.8" spans="1:6">
       <c r="A195" s="3"/>
-      <c r="B195" s="9" t="s">
-        <v>400</v>
+      <c r="B195" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="196" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" ht="13.8" spans="1:6">
       <c r="A196" s="3"/>
       <c r="B196" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="197" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" ht="13.8" spans="1:6">
       <c r="A197" s="3"/>
       <c r="B197" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="198" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" ht="14.4" spans="1:6">
       <c r="A198" s="3"/>
       <c r="B198" s="7" t="s">
         <v>406</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E198" s="5"/>
-    </row>
-    <row r="199" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" ht="13.8" spans="1:6">
       <c r="A199" s="3"/>
-      <c r="B199" s="7" t="s">
-        <v>407</v>
+      <c r="B199" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E199" s="5"/>
-    </row>
-    <row r="200" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="200" ht="14.4" spans="1:6">
       <c r="A200" s="3"/>
       <c r="B200" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="201" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" ht="14.4" spans="1:6">
       <c r="A201" s="3"/>
       <c r="B201" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="202" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="202" ht="14.4" spans="1:6">
       <c r="A202" s="3"/>
-      <c r="B202" s="9" t="s">
-        <v>412</v>
+      <c r="B202" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="203" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="203" ht="13.8" spans="1:6">
       <c r="A203" s="3"/>
-      <c r="B203" s="9" t="s">
-        <v>414</v>
+      <c r="B203" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="204" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="204" ht="13.8" spans="1:6">
       <c r="A204" s="3"/>
-      <c r="B204" s="9" t="s">
-        <v>416</v>
+      <c r="B204" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="205" ht="14.4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F204" s="5"/>
+    </row>
+    <row r="205" ht="13.8" spans="1:6">
       <c r="A205" s="3"/>
-      <c r="B205" s="9" t="s">
-        <v>418</v>
+      <c r="B205" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="206" ht="13.8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F205" s="5"/>
+    </row>
+    <row r="206" ht="13.8" spans="1:6">
       <c r="A206" s="3"/>
       <c r="B206" s="9" t="s">
         <v>420</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E206" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F206" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="207" ht="13.8" spans="1:5">
+    <row r="207" ht="13.8" spans="1:6">
       <c r="A207" s="3"/>
       <c r="B207" s="9" t="s">
         <v>422</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E207" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="208" ht="14.4" spans="1:5">
+    <row r="208" ht="13.8" spans="1:6">
       <c r="A208" s="3"/>
       <c r="B208" s="9" t="s">
         <v>424</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E208" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F208" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="209" ht="14.4" spans="1:5">
+    <row r="209" ht="13.8" spans="1:6">
       <c r="A209" s="3"/>
       <c r="B209" s="9" t="s">
         <v>426</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E209" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="210" ht="14.4" spans="1:5">
+    <row r="210" ht="13.8" spans="1:6">
       <c r="A210" s="3"/>
       <c r="B210" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F210" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="211" ht="13.8" spans="1:5">
+    <row r="211" ht="14.4" spans="1:6">
       <c r="A211" s="3"/>
       <c r="B211" s="9" t="s">
         <v>430</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E211" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F211" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="212" ht="13.8" spans="1:5">
+    <row r="212" ht="13.8" spans="1:6">
       <c r="A212" s="3"/>
       <c r="B212" s="9" t="s">
         <v>432</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E212" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F212" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="213" ht="13.8" spans="1:5">
+    <row r="213" ht="13.8" spans="1:6">
       <c r="A213" s="3"/>
       <c r="B213" s="9" t="s">
         <v>434</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E213" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F213" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="214" ht="20" customHeight="1" spans="1:5">
+    <row r="214" ht="14.4" spans="1:6">
       <c r="A214" s="3"/>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="9" t="s">
         <v>436</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E214" s="8"/>
-    </row>
-    <row r="215" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="215" ht="14.4" spans="1:6">
       <c r="A215" s="3"/>
-      <c r="B215" s="7" t="s">
-        <v>437</v>
+      <c r="B215" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E215" s="8"/>
-    </row>
-    <row r="216" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="216" ht="14.4" spans="1:6">
       <c r="A216" s="3"/>
       <c r="B216" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="217" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" ht="13.8" spans="1:6">
       <c r="A217" s="3"/>
-      <c r="B217" s="7" t="s">
-        <v>440</v>
+      <c r="B217" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E217" s="9"/>
-    </row>
-    <row r="218" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F217" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="218" ht="13.8" spans="1:6">
       <c r="A218" s="3"/>
       <c r="B218" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E218" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="219" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="219" ht="13.8" spans="1:6">
       <c r="A219" s="3"/>
       <c r="B219" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="220" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="220" ht="20" customHeight="1" spans="1:6">
       <c r="A220" s="3"/>
       <c r="B220" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E220" s="9"/>
-    </row>
-    <row r="221" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" ht="20" customHeight="1" spans="1:6">
       <c r="A221" s="3"/>
       <c r="B221" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E221" s="9"/>
-    </row>
-    <row r="222" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" ht="20" customHeight="1" spans="1:6">
       <c r="A222" s="3"/>
-      <c r="B222" s="7" t="s">
-        <v>447</v>
+      <c r="B222" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="223" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="223" ht="20" customHeight="1" spans="1:6">
       <c r="A223" s="3"/>
       <c r="B223" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E223" s="9"/>
-    </row>
-    <row r="224" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" ht="20" customHeight="1" spans="1:6">
       <c r="A224" s="3"/>
-      <c r="B224" s="7" t="s">
-        <v>450</v>
+      <c r="B224" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E224" s="9"/>
-    </row>
-    <row r="225" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="225" ht="20" customHeight="1" spans="1:6">
       <c r="A225" s="3"/>
-      <c r="B225" s="7" t="s">
-        <v>451</v>
+      <c r="B225" s="9" t="s">
+        <v>455</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E225" s="9"/>
-    </row>
-    <row r="226" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="226" ht="20" customHeight="1" spans="1:6">
       <c r="A226" s="3"/>
       <c r="B226" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E226" s="9"/>
-    </row>
-    <row r="227" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F226" s="9"/>
+    </row>
+    <row r="227" ht="20" customHeight="1" spans="1:6">
       <c r="A227" s="3"/>
       <c r="B227" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E227" s="9"/>
-    </row>
-    <row r="228" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F227" s="9"/>
+    </row>
+    <row r="228" ht="20" customHeight="1" spans="1:6">
       <c r="A228" s="3"/>
       <c r="B228" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E228" s="9"/>
-    </row>
-    <row r="229" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="229" ht="20" customHeight="1" spans="1:6">
       <c r="A229" s="3"/>
       <c r="B229" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E229" s="9"/>
-    </row>
-    <row r="230" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F229" s="9"/>
+    </row>
+    <row r="230" ht="20" customHeight="1" spans="1:6">
       <c r="A230" s="3"/>
       <c r="B230" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E230" s="9"/>
-    </row>
-    <row r="231" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F230" s="9"/>
+    </row>
+    <row r="231" ht="20" customHeight="1" spans="1:6">
       <c r="A231" s="3"/>
       <c r="B231" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E231" s="9"/>
-    </row>
-    <row r="232" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F231" s="9"/>
+    </row>
+    <row r="232" ht="20" customHeight="1" spans="1:6">
       <c r="A232" s="3"/>
       <c r="B232" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E232" s="9"/>
-    </row>
-    <row r="233" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F232" s="9"/>
+    </row>
+    <row r="233" ht="20" customHeight="1" spans="1:6">
       <c r="A233" s="3"/>
       <c r="B233" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E233" s="9"/>
-    </row>
-    <row r="234" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F233" s="9"/>
+    </row>
+    <row r="234" ht="20" customHeight="1" spans="1:6">
       <c r="A234" s="3"/>
       <c r="B234" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E234" s="9"/>
-    </row>
-    <row r="235" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F234" s="9"/>
+    </row>
+    <row r="235" ht="20" customHeight="1" spans="1:6">
       <c r="A235" s="3"/>
       <c r="B235" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E235" s="9"/>
-    </row>
-    <row r="236" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F235" s="9"/>
+    </row>
+    <row r="236" ht="20" customHeight="1" spans="1:6">
       <c r="A236" s="3"/>
       <c r="B236" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E236" s="9"/>
-    </row>
-    <row r="237" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F236" s="9"/>
+    </row>
+    <row r="237" ht="20" customHeight="1" spans="1:6">
       <c r="A237" s="3"/>
       <c r="B237" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E237" s="9"/>
-    </row>
-    <row r="238" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" ht="20" customHeight="1" spans="1:6">
       <c r="A238" s="3"/>
       <c r="B238" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E238" s="9"/>
-    </row>
-    <row r="239" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" ht="20" customHeight="1" spans="1:6">
       <c r="A239" s="3"/>
       <c r="B239" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E239" s="9"/>
-    </row>
-    <row r="240" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" ht="20" customHeight="1" spans="1:6">
       <c r="A240" s="3"/>
       <c r="B240" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="241" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F240" s="9"/>
+    </row>
+    <row r="241" ht="20" customHeight="1" spans="1:6">
       <c r="A241" s="3"/>
       <c r="B241" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="242" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F241" s="9"/>
+    </row>
+    <row r="242" ht="20" customHeight="1" spans="1:6">
       <c r="A242" s="3"/>
-      <c r="B242" s="9" t="s">
-        <v>470</v>
+      <c r="B242" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="243" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F242" s="9"/>
+    </row>
+    <row r="243" ht="20" customHeight="1" spans="1:6">
       <c r="A243" s="3"/>
-      <c r="B243" s="9" t="s">
-        <v>472</v>
+      <c r="B243" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E243" s="8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="244" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" ht="20" customHeight="1" spans="1:6">
       <c r="A244" s="3"/>
-      <c r="B244" s="9" t="s">
-        <v>474</v>
+      <c r="B244" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="245" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F244" s="9"/>
+    </row>
+    <row r="245" ht="20" customHeight="1" spans="1:6">
       <c r="A245" s="3"/>
-      <c r="B245" s="9" t="s">
-        <v>476</v>
+      <c r="B245" s="7" t="s">
+        <v>477</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="246" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F245" s="9"/>
+    </row>
+    <row r="246" ht="20" customHeight="1" spans="1:6">
       <c r="A246" s="3"/>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="7" t="s">
         <v>478</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E246" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F246" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="247" ht="20" customHeight="1" spans="1:5">
+    <row r="247" ht="20" customHeight="1" spans="1:6">
       <c r="A247" s="3"/>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="7" t="s">
         <v>480</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E247" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F247" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="248" ht="20" customHeight="1" spans="1:5">
+    <row r="248" ht="20" customHeight="1" spans="1:6">
       <c r="A248" s="3"/>
       <c r="B248" s="9" t="s">
         <v>482</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E248" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F248" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="249" ht="13.8" spans="1:5">
-      <c r="A249" s="3" t="s">
+    <row r="249" ht="20" customHeight="1" spans="1:6">
+      <c r="A249" s="3"/>
+      <c r="B249" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="C249" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F249" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="250" ht="14.4" spans="1:5">
+    </row>
+    <row r="250" ht="20" customHeight="1" spans="1:6">
       <c r="A250" s="3"/>
       <c r="B250" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F250" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C250" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E250" s="5" t="s">
+    </row>
+    <row r="251" ht="20" customHeight="1" spans="1:6">
+      <c r="A251" s="3"/>
+      <c r="B251" s="9" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="251" ht="14.4" spans="1:5">
-      <c r="A251" s="3"/>
-      <c r="B251" s="7" t="s">
+      <c r="C251" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F251" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E251" s="5" t="s">
+    </row>
+    <row r="252" ht="20" customHeight="1" spans="1:6">
+      <c r="A252" s="3"/>
+      <c r="B252" s="9" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="252" ht="13.8" spans="1:5">
-      <c r="A252" s="3"/>
-      <c r="B252" s="7" t="s">
+      <c r="C252" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F252" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C252" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E252" s="8" t="s">
+    </row>
+    <row r="253" ht="20" customHeight="1" spans="1:6">
+      <c r="A253" s="3"/>
+      <c r="B253" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="253" ht="14.4" spans="1:5">
-      <c r="A253" s="3"/>
-      <c r="B253" s="7" t="s">
+      <c r="C253" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F253" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C253" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E253" s="5" t="s">
+    </row>
+    <row r="254" ht="20" customHeight="1" spans="1:6">
+      <c r="A254" s="3"/>
+      <c r="B254" s="9" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="254" ht="13.8" spans="1:5">
-      <c r="A254" s="3"/>
-      <c r="B254" s="7" t="s">
+      <c r="C254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F254" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E254" s="8" t="s">
+    </row>
+    <row r="255" ht="13.8" spans="1:6">
+      <c r="A255" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="255" ht="13.8" spans="1:5">
-      <c r="A255" s="3"/>
       <c r="B255" s="9" t="s">
         <v>497</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E255" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F255" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="256" ht="13.8" spans="1:5">
+    <row r="256" ht="14.4" spans="1:6">
       <c r="A256" s="3"/>
       <c r="B256" s="9" t="s">
         <v>499</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E256" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F256" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="257" ht="13.8" spans="1:5">
+    <row r="257" ht="14.4" spans="1:6">
       <c r="A257" s="3"/>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="7" t="s">
         <v>501</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E257" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F257" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="258" ht="20" customHeight="1" spans="1:5">
+    <row r="258" ht="13.8" spans="1:6">
       <c r="A258" s="3"/>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="7" t="s">
         <v>503</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E258" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F258" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="259" ht="20" customHeight="1" spans="1:5">
+    <row r="259" ht="14.4" spans="1:6">
       <c r="A259" s="3"/>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="7" t="s">
         <v>505</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E259" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F259" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="260" ht="20" customHeight="1" spans="1:5">
+    <row r="260" ht="13.8" spans="1:6">
       <c r="A260" s="3"/>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="7" t="s">
         <v>507</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E260" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F260" s="8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="261" ht="20" customHeight="1" spans="1:5">
+    <row r="261" ht="13.8" spans="1:6">
       <c r="A261" s="3"/>
       <c r="B261" s="9" t="s">
         <v>509</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E261" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F261" s="8" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="262" ht="20" customHeight="1" spans="1:5">
+    <row r="262" ht="13.8" spans="1:6">
       <c r="A262" s="3"/>
       <c r="B262" s="9" t="s">
         <v>511</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E262" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F262" s="8" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="263" ht="13.8" spans="1:5">
-      <c r="A263" s="3" t="s">
+    <row r="263" ht="13.8" spans="1:6">
+      <c r="A263" s="3"/>
+      <c r="B263" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="C263" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F263" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="264" ht="13.8" spans="1:5">
+    </row>
+    <row r="264" ht="20" customHeight="1" spans="1:6">
       <c r="A264" s="3"/>
       <c r="B264" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F264" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E264" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="265" ht="14.4" spans="1:5">
+    </row>
+    <row r="265" ht="20" customHeight="1" spans="1:6">
       <c r="A265" s="3"/>
       <c r="B265" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F265" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="266" ht="14.4" spans="1:5">
+    </row>
+    <row r="266" ht="20" customHeight="1" spans="1:6">
       <c r="A266" s="3"/>
       <c r="B266" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F266" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E266" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="267" ht="14.4" spans="1:5">
+    </row>
+    <row r="267" ht="20" customHeight="1" spans="1:6">
       <c r="A267" s="3"/>
       <c r="B267" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F267" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="268" ht="14.4" spans="1:5">
+    </row>
+    <row r="268" ht="20" customHeight="1" spans="1:6">
       <c r="A268" s="3"/>
       <c r="B268" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F268" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E268" s="5" t="s">
+    </row>
+    <row r="269" ht="13.8" spans="1:6">
+      <c r="A269" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="269" ht="20" customHeight="1" spans="1:5">
-      <c r="A269" s="3"/>
       <c r="B269" s="9" t="s">
         <v>526</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E269" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F269" s="8" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="270" ht="20" customHeight="1" spans="1:5">
+    <row r="270" ht="13.8" spans="1:6">
       <c r="A270" s="3"/>
       <c r="B270" s="9" t="s">
         <v>528</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E270" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F270" s="8" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="271" ht="20" customHeight="1" spans="1:5">
+    <row r="271" ht="14.4" spans="1:6">
       <c r="A271" s="3"/>
       <c r="B271" s="9" t="s">
         <v>530</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E271" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F271" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="272" ht="20" customHeight="1" spans="1:5">
+    <row r="272" ht="14.4" spans="1:6">
       <c r="A272" s="3"/>
       <c r="B272" s="9" t="s">
         <v>532</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E272" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F272" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="273" ht="20" customHeight="1" spans="1:5">
+    <row r="273" ht="14.4" spans="1:6">
       <c r="A273" s="3"/>
       <c r="B273" s="9" t="s">
         <v>534</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E273" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F273" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="274" ht="20" customHeight="1" spans="1:5">
+    <row r="274" ht="14.4" spans="1:6">
       <c r="A274" s="3"/>
       <c r="B274" s="9" t="s">
         <v>536</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E274" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F274" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="275" ht="20" customHeight="1" spans="1:5">
+    <row r="275" ht="20" customHeight="1" spans="1:6">
       <c r="A275" s="3"/>
       <c r="B275" s="9" t="s">
         <v>538</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E275" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F275" s="8" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="276" ht="20" customHeight="1" spans="1:5">
+    <row r="276" ht="20" customHeight="1" spans="1:6">
       <c r="A276" s="3"/>
       <c r="B276" s="9" t="s">
         <v>540</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E276" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F276" s="8" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="277" ht="20" customHeight="1" spans="1:5">
+    <row r="277" ht="20" customHeight="1" spans="1:6">
       <c r="A277" s="3"/>
       <c r="B277" s="9" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="278" ht="20" customHeight="1" spans="1:5">
-      <c r="A278" s="3" t="s">
-        <v>542</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="278" ht="20" customHeight="1" spans="1:6">
+      <c r="A278" s="3"/>
       <c r="B278" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="279" ht="20" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="279" ht="20" customHeight="1" spans="1:6">
       <c r="A279" s="3"/>
       <c r="B279" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E279" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="280" ht="14.4" spans="1:5">
-      <c r="A280" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F279" s="5" t="s">
         <v>547</v>
       </c>
+    </row>
+    <row r="280" ht="20" customHeight="1" spans="1:6">
+      <c r="A280" s="3"/>
       <c r="B280" s="9" t="s">
         <v>548</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E280" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F280" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="281" ht="14.4" spans="1:5">
+    <row r="281" ht="20" customHeight="1" spans="1:6">
       <c r="A281" s="3"/>
       <c r="B281" s="9" t="s">
         <v>550</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E281" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F281" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="282" ht="20" customHeight="1" spans="1:5">
+    <row r="282" ht="20" customHeight="1" spans="1:6">
       <c r="A282" s="3"/>
       <c r="B282" s="9" t="s">
         <v>552</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E282" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F282" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="283" ht="20" customHeight="1" spans="1:5">
+    <row r="283" ht="20" customHeight="1" spans="1:6">
       <c r="A283" s="3"/>
       <c r="B283" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F283" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="284" ht="20" customHeight="1" spans="1:6">
+      <c r="A284" s="3"/>
+      <c r="B284" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C284" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E284" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F284" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E283" s="8" t="s">
+    </row>
+    <row r="285" ht="20" customHeight="1" spans="1:6">
+      <c r="A285" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="284" ht="20" customHeight="1" spans="1:5">
-      <c r="A284" s="3"/>
-      <c r="B284" s="9" t="s">
+      <c r="B285" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C284" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E284" s="5" t="s">
+      <c r="C285" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F285" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="285" ht="20" customHeight="1" spans="1:5">
-      <c r="A285" s="3"/>
-      <c r="B285" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="286" ht="20" customHeight="1" spans="1:5">
+    <row r="286" ht="20" customHeight="1" spans="1:6">
       <c r="A286" s="3"/>
       <c r="B286" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F286" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="287" ht="13.95" spans="1:6">
+      <c r="A287" s="3"/>
+      <c r="B287" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E286" s="15" t="s">
+      <c r="C287" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E287" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F287" s="21" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="287" ht="20" customHeight="1" spans="1:5">
-      <c r="A287" s="3"/>
-      <c r="B287" s="9" t="s">
+    <row r="288" ht="14.4" spans="1:6">
+      <c r="A288" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C287" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E287" s="5" t="s">
+      <c r="B288" s="9" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="288" ht="20" customHeight="1" spans="1:5">
-      <c r="A288" s="3"/>
-      <c r="B288" s="9" t="s">
+      <c r="C288" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F288" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C288" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E288" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="289" ht="20" customHeight="1" spans="1:5">
+    </row>
+    <row r="289" ht="14.4" spans="1:6">
       <c r="A289" s="3"/>
       <c r="B289" s="9" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E289" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F289" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="290" ht="20" customHeight="1" spans="1:5">
+    <row r="290" ht="20" customHeight="1" spans="1:6">
       <c r="A290" s="3"/>
       <c r="B290" s="9" t="s">
         <v>567</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E290" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F290" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="291" ht="20" customHeight="1" spans="1:5">
+    <row r="291" ht="20" customHeight="1" spans="1:6">
       <c r="A291" s="3"/>
       <c r="B291" s="9" t="s">
         <v>569</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E291" s="5"/>
-    </row>
-    <row r="292" ht="19" customHeight="1" spans="1:5">
-      <c r="A292" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" s="8" t="s">
         <v>570</v>
       </c>
+    </row>
+    <row r="292" ht="20" customHeight="1" spans="1:6">
+      <c r="A292" s="3"/>
       <c r="B292" s="9" t="s">
         <v>571</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E292" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F292" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="293" ht="19" customHeight="1" spans="1:5">
+    <row r="293" ht="20" customHeight="1" spans="1:6">
       <c r="A293" s="3"/>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="9" t="s">
         <v>573</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E293" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F293" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="294" ht="19" customHeight="1" spans="1:5">
+    <row r="294" ht="20" customHeight="1" spans="1:6">
       <c r="A294" s="3"/>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="9" t="s">
         <v>575</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E294" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F294" s="23" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="295" ht="19" customHeight="1" spans="1:5">
+    <row r="295" ht="20" customHeight="1" spans="1:6">
       <c r="A295" s="3"/>
       <c r="B295" s="9" t="s">
         <v>577</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E295" s="8"/>
-    </row>
-    <row r="296" ht="19" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="296" ht="20" customHeight="1" spans="1:6">
       <c r="A296" s="3"/>
-      <c r="B296" s="7" t="s">
-        <v>578</v>
+      <c r="B296" s="9" t="s">
+        <v>579</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E296" s="8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="297" ht="19" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="297" ht="20" customHeight="1" spans="1:6">
       <c r="A297" s="3"/>
       <c r="B297" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E297" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F297" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="298" ht="14.55" spans="1:5">
-      <c r="A298" s="3" t="s">
+    <row r="298" ht="20" customHeight="1" spans="1:6">
+      <c r="A298" s="3"/>
+      <c r="B298" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="C298" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F298" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C298" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298" s="17" t="s">
+    </row>
+    <row r="299" ht="20" customHeight="1" spans="1:6">
+      <c r="A299" s="3"/>
+      <c r="B299" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E298" s="11" t="s">
+      <c r="C299" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F299" s="5"/>
+    </row>
+    <row r="300" ht="19" customHeight="1" spans="1:6">
+      <c r="A300" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="299" ht="14.55" spans="1:5">
-      <c r="A299" s="3"/>
-      <c r="B299" s="7" t="s">
+      <c r="B300" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="C299" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" s="18" t="s">
+      <c r="C300" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F300" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="E299" s="11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="300" ht="27.15" spans="1:5">
-      <c r="A300" s="3"/>
-      <c r="B300" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="C300" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="E300" s="20" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="301" ht="14.55" spans="1:5">
+    </row>
+    <row r="301" ht="19" customHeight="1" spans="1:6">
       <c r="A301" s="3"/>
       <c r="B301" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C301" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="E301" s="23" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="302" ht="14.55" spans="1:5">
+        <v>588</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="302" ht="19" customHeight="1" spans="1:6">
       <c r="A302" s="3"/>
       <c r="B302" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="C302" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="E302" s="20" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="303" ht="13.95" spans="1:5">
+        <v>590</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F302" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="303" ht="19" customHeight="1" spans="1:6">
       <c r="A303" s="3"/>
-      <c r="B303" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="C303" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E303" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="304" ht="27.15" spans="1:5">
+      <c r="B303" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F303" s="8"/>
+    </row>
+    <row r="304" ht="19" customHeight="1" spans="1:6">
       <c r="A304" s="3"/>
       <c r="B304" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F304" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="305" ht="19" customHeight="1" spans="1:6">
+      <c r="A305" s="3"/>
+      <c r="B305" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F305" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="306" ht="14.55" spans="1:6">
+      <c r="A306" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C306" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="F306" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="C304" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D304" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="E304" s="26" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="305" ht="14.55" spans="1:5">
-      <c r="A305" s="3"/>
-      <c r="B305" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C305" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D305" s="27"/>
-      <c r="E305" s="26" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="306" ht="27.15" spans="1:5">
-      <c r="A306" s="3"/>
-      <c r="B306" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="C306" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D306" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="E306" s="26" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="307" ht="14.55" spans="1:5">
+    </row>
+    <row r="307" ht="14.55" spans="1:6">
       <c r="A307" s="3"/>
       <c r="B307" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="F307" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="308" ht="27.15" spans="1:6">
+      <c r="A308" s="3"/>
+      <c r="B308" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C308" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="F308" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="C307" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D307" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="E307" s="29" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="308" ht="27.15" spans="1:5">
-      <c r="A308" s="3"/>
-      <c r="B308" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="C308" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D308" s="27"/>
-      <c r="E308" s="26" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="309" ht="27.15" spans="1:5">
+    </row>
+    <row r="309" ht="14.55" spans="1:6">
       <c r="A309" s="3"/>
       <c r="B309" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C309" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="F309" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="310" ht="14.55" spans="1:6">
+      <c r="A310" s="3"/>
+      <c r="B310" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C309" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D309" s="27"/>
-      <c r="E309" s="26" t="s">
+      <c r="C310" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" s="25" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="310" ht="27.15" spans="1:5">
-      <c r="A310" s="3" t="s">
+      <c r="F310" s="28" t="s">
         <v>612</v>
       </c>
-      <c r="B310" s="16" t="s">
+    </row>
+    <row r="311" ht="14.55" spans="1:6">
+      <c r="A311" s="3"/>
+      <c r="B311" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C310" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D310" s="30"/>
-      <c r="E310" s="31" t="s">
+      <c r="C311" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="F311" s="28" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="311" ht="27.15" spans="1:5">
-      <c r="A311" s="3"/>
-      <c r="B311" s="16" t="s">
+    <row r="312" ht="27.15" spans="1:6">
+      <c r="A312" s="3"/>
+      <c r="B312" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C311" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D311" s="30"/>
-      <c r="E311" s="31" t="s">
+      <c r="C312" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="F312" s="32" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="312" ht="27.15" spans="1:5">
-      <c r="A312" s="3"/>
-      <c r="B312" s="32" t="s">
+    <row r="313" ht="14.55" spans="1:6">
+      <c r="A313" s="3"/>
+      <c r="B313" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C312" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D312" s="30"/>
-      <c r="E312" s="31" t="s">
+      <c r="C313" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E313" s="33"/>
+      <c r="F313" s="32" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="313" ht="27.15" spans="1:5">
-      <c r="A313" s="3"/>
-      <c r="B313" s="16" t="s">
+    <row r="314" ht="27.15" spans="1:6">
+      <c r="A314" s="3"/>
+      <c r="B314" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="C313" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" s="33"/>
-      <c r="E313" s="31" t="s">
+      <c r="C314" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="F314" s="32" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="314" ht="27.15" spans="1:5">
-      <c r="A314" s="3"/>
-      <c r="B314" s="16" t="s">
+    <row r="315" ht="14.55" spans="1:6">
+      <c r="A315" s="3"/>
+      <c r="B315" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C314" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D314" s="30"/>
-      <c r="E314" s="31" t="s">
+      <c r="C315" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="F315" s="34" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="315" ht="13.95" spans="5:5">
-      <c r="E315" s="34"/>
-    </row>
-    <row r="316" spans="5:5">
-      <c r="E316" s="34"/>
+    <row r="316" ht="27.15" spans="1:6">
+      <c r="A316" s="3"/>
+      <c r="B316" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" s="33"/>
+      <c r="F316" s="32" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="317" ht="27.15" spans="1:6">
+      <c r="A317" s="3"/>
+      <c r="B317" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" s="33"/>
+      <c r="F317" s="32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="318" ht="27.15" spans="1:6">
+      <c r="A318" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B318" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E318" s="33"/>
+      <c r="F318" s="35" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="319" ht="27.15" spans="1:6">
+      <c r="A319" s="3"/>
+      <c r="B319" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" s="33"/>
+      <c r="F319" s="35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="320" ht="27.15" spans="1:6">
+      <c r="A320" s="3"/>
+      <c r="B320" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="C320" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" s="33"/>
+      <c r="F320" s="35" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="321" ht="27.15" spans="1:6">
+      <c r="A321" s="3"/>
+      <c r="B321" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" s="37"/>
+      <c r="F321" s="35" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="322" ht="27.15" spans="1:6">
+      <c r="A322" s="3"/>
+      <c r="B322" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" s="33"/>
+      <c r="F322" s="35" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="323" spans="6:6">
+      <c r="F323" s="38"/>
+    </row>
+    <row r="324" spans="6:6">
+      <c r="F324" s="38"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E314" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F322" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="22">
@@ -9825,300 +10970,307 @@
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A31"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="A81:A125"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A133:A146"/>
-    <mergeCell ref="A147:A158"/>
-    <mergeCell ref="A159:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A248"/>
-    <mergeCell ref="A249:A262"/>
-    <mergeCell ref="A263:A277"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="A280:A291"/>
-    <mergeCell ref="A292:A297"/>
-    <mergeCell ref="A298:A309"/>
-    <mergeCell ref="A310:A314"/>
+    <mergeCell ref="A37:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A85"/>
+    <mergeCell ref="A86:A131"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A139:A152"/>
+    <mergeCell ref="A153:A164"/>
+    <mergeCell ref="A165:A185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A189:A254"/>
+    <mergeCell ref="A255:A268"/>
+    <mergeCell ref="A269:A284"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="A288:A299"/>
+    <mergeCell ref="A300:A305"/>
+    <mergeCell ref="A306:A317"/>
+    <mergeCell ref="A318:A322"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E173" r:id="rId1" location="torch.cuda.get_rng_state_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.get_rng_state_all.html#torch.cuda.get_rng_state_all"/>
-    <hyperlink ref="E86" r:id="rId2" location="torch.diag" display="https://pytorch.org/docs/stable/generated/torch.diag.html?highlight=diag#torch.diag"/>
-    <hyperlink ref="E262" r:id="rId3" location="torch.logspace" display="https://pytorch.org/docs/stable/generated/torch.logspace.html?highlight=logspace#torch.logspace"/>
-    <hyperlink ref="E75" r:id="rId4" location="torch.nn.functional.bilinear" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.bilinear.html?highlight=bilinear#torch.nn.functional.bilinear"/>
-    <hyperlink ref="E150" r:id="rId5" display="https://pytorch.org/docs/stable/generated/torch.index_select.html?highlight=index_select"/>
-    <hyperlink ref="E85" r:id="rId6" location="torch.nn.functional.normalize" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.normalize.html?highlight=normalize#torch.nn.functional.normalize"/>
-    <hyperlink ref="E39" r:id="rId7" location="torch.nn.functional.leaky_relu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.leaky_relu.html?highlight=leaky_relu#torch.nn.functional.leaky_relu"/>
-    <hyperlink ref="E131" r:id="rId8" location="torch.flip" display="https://pytorch.org/docs/stable/generated/torch.flip.html?highlight=flip#torch.flip"/>
-    <hyperlink ref="E72" r:id="rId9" location="torch.dot" display="https://pytorch.org/docs/stable/generated/torch.dot.html?highlight=dot#torch.dot"/>
-    <hyperlink ref="E27" r:id="rId10" location="torch.nn.HingeEmbeddingLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.HingeEmbeddingLoss.html#torch.nn.HingeEmbeddingLoss"/>
-    <hyperlink ref="E60" r:id="rId11" location="torch.meshgrid" display="https://pytorch.org/docs/stable/generated/torch.meshgrid.html?highlight=meshgrid#torch.meshgrid"/>
-    <hyperlink ref="E25" r:id="rId12" location="torch.nn.PoissonNLLLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.PoissonNLLLoss.html#torch.nn.PoissonNLLLoss"/>
-    <hyperlink ref="E76" r:id="rId13" location="torch.tensordot" display="https://pytorch.org/docs/stable/generated/torch.tensordot.html?highlight=tensordot#torch.tensordot"/>
-    <hyperlink ref="E270" r:id="rId14" location="torch.argmax" display="https://pytorch.org/docs/stable/generated/torch.argmax.html?highlight=argmax#torch.argmax"/>
-    <hyperlink ref="E297" r:id="rId15" location="torch.Tensor.tolist" display="https://pytorch.org/docs/stable/generated/torch.Tensor.tolist.html#torch.Tensor.tolist"/>
-    <hyperlink ref="E145" r:id="rId16" location="torch.take" display="https://pytorch.org/docs/stable/generated/torch.take.html?highlight=take#torch.take"/>
-    <hyperlink ref="E168" r:id="rId17" location="torch.poisson" display="https://pytorch.org/docs/stable/generated/torch.poisson.html?highlight=poisson#torch.poisson"/>
-    <hyperlink ref="E161" r:id="rId18" location="torch.nn.functional.one_hot" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.one_hot.html?highlight=one_hot#torch.nn.functional.one_hot"/>
-    <hyperlink ref="E107" r:id="rId19" location="torch.logdet" display="https://pytorch.org/docs/stable/generated/torch.logdet.html?highlight=logdet#torch.logdet"/>
-    <hyperlink ref="E56" r:id="rId20" location="torch.nn.Dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.Dropout.html?highlight=dropout#torch.nn.Dropout"/>
-    <hyperlink ref="E247" r:id="rId21" location="torch.logical_or" display="https://pytorch.org/docs/stable/generated/torch.logical_or.html?highlight=logical_#torch.logical_or"/>
-    <hyperlink ref="E138" r:id="rId22" location="torch.squeeze" display="https://pytorch.org/docs/stable/generated/torch.squeeze.html?highlight=squeeze#torch.squeeze"/>
-    <hyperlink ref="E273" r:id="rId23" location="torch.var" display="https://pytorch.org/docs/stable/generated/torch.var.html#torch.var"/>
-    <hyperlink ref="E35" r:id="rId24" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.instance_norm.html?highlight=instance_norm"/>
-    <hyperlink ref="E182" r:id="rId25" location="torch.argsort" display="https://pytorch.org/docs/stable/generated/torch.argsort.html?highlight=argsort#torch.argsort"/>
-    <hyperlink ref="E218" r:id="rId26" location="torch.equal" display="https://pytorch.org/docs/stable/generated/torch.equal.html?highlight=equal#torch.equal"/>
-    <hyperlink ref="E36" r:id="rId27" location="torch.nn.functional.local_response_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.local_response_norm.html?highlight=local_response_norm#torch.nn.functional.local_response_norm"/>
-    <hyperlink ref="E179" r:id="rId28" location="torch.cuda.initial_seed" display="https://pytorch.org/docs/stable/generated/torch.cuda.initial_seed.html#torch.cuda.initial_seed"/>
-    <hyperlink ref="E293" r:id="rId29" display="https://pytorch.org/docs/stable/generated/torch.Tensor.detach.html?highlight=detach"/>
-    <hyperlink ref="E177" r:id="rId30" location="torch.cuda.seed" display="https://pytorch.org/docs/stable/generated/torch.cuda.seed.html#torch.cuda.seed"/>
-    <hyperlink ref="E213" r:id="rId31" location="torch.addcmul" display="https://pytorch.org/docs/stable/generated/torch.addcmul.html#torch.addcmul"/>
-    <hyperlink ref="E172" r:id="rId32" location="torch.cuda.set_rng_state" display="https://pytorch.org/docs/stable/generated/torch.cuda.set_rng_state.html#torch.cuda.set_rng_state"/>
-    <hyperlink ref="E135" r:id="rId33" location="torch.narrow" display="https://pytorch.org/docs/stable/generated/torch.narrow.html?highlight=narrow#torch.narrow"/>
-    <hyperlink ref="E267" r:id="rId34" location="torch.min" display="https://pytorch.org/docs/stable/generated/torch.min.html?highlight=torch%20min#torch.min"/>
-    <hyperlink ref="E33" r:id="rId35" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.layer_norm.html?highlight=layer_norm"/>
-    <hyperlink ref="E106" r:id="rId36" location="torch.linalg.det" display="https://pytorch.org/docs/stable/generated/torch.linalg.det.html#torch.linalg.det"/>
-    <hyperlink ref="E61" r:id="rId37" location="torch.nn.functional.grid_sample" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.grid_sample.html?highlight=grid_sample#torch.nn.functional.grid_sample"/>
-    <hyperlink ref="E158" r:id="rId38" location="torch.Tensor.masked_scatter" display="https://pytorch.org/docs/stable/generated/torch.Tensor.masked_scatter.html?highlight=masked_scatter#torch.Tensor.masked_scatter"/>
-    <hyperlink ref="E258" r:id="rId39" display="https://pytorch.org/docs/stable/generated/torch.linspace.html?highlight=linspace"/>
-    <hyperlink ref="E285" r:id="rId40" location="torch.unique_consecutive" display="https://pytorch.org/docs/stable/generated/torch.unique_consecutive.html#torch.unique_consecutive"/>
-    <hyperlink ref="E47" r:id="rId41" location="torch.nn.functional.glu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.glu.html?highlight=glu#torch.nn.functional.glu"/>
-    <hyperlink ref="E17" r:id="rId42" location="torch.nn.functional.mse_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.mse_loss.html?highlight=mse_loss#torch.nn.functional.mse_loss"/>
-    <hyperlink ref="E105" r:id="rId43" location="torch.trace" display="https://pytorch.org/docs/stable/generated/torch.trace.html?highlight=trace#torch.trace"/>
-    <hyperlink ref="E88" r:id="rId44" display="https://pytorch.org/docs/stable/generated/torch.cholesky.html?highlight=cholesky"/>
-    <hyperlink ref="E125" r:id="rId45" location="torch.nn.functional.pdist" display="https://pytorch.org/docs/1.11/generated/torch.nn.functional.pdist.html?highlight=pdist#torch.nn.functional.pdist"/>
-    <hyperlink ref="E29" r:id="rId46" location="torch.nn.MultiLabelMarginLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.MultiLabelMarginLoss.html#torch.nn.MultiLabelMarginLoss"/>
-    <hyperlink ref="E97" r:id="rId47" location="torch.cumprod" display="https://pytorch.org/docs/stable/generated/torch.cumprod.html?highlight=cumprod#torch.cumprod"/>
-    <hyperlink ref="E245" r:id="rId48" location="torch.special.polygamma" display="https://pytorch.org/docs/stable/special.html#torch.special.polygamma"/>
-    <hyperlink ref="E120" r:id="rId49" location="torch.lu_solve" display="https://pytorch.org/docs/stable/generated/torch.lu_solve.html?highlight=lu_solve#torch.lu_solve"/>
-    <hyperlink ref="E250" r:id="rId50" location="torch.Tensor.zero_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.zero_.html#torch.Tensor.zero_"/>
-    <hyperlink ref="E294" r:id="rId51" location="torch.numel" display="https://pytorch.org/docs/stable/generated/torch.numel.html?highlight=numel#torch.numel"/>
-    <hyperlink ref="E123" r:id="rId52" location="torch.inverse" display="https://pytorch.org/docs/stable/generated/torch.inverse.html#torch.inverse"/>
-    <hyperlink ref="E6" r:id="rId53" display="https://pytorch.org/docs/stable/jit_builtin_functions.html?highlight=tbc"/>
-    <hyperlink ref="E79" r:id="rId54" location="torch.addbmm" display="https://pytorch.org/docs/stable/generated/torch.addbmm.html?highlight=addbmm#torch.addbmm"/>
-    <hyperlink ref="E180" r:id="rId55" location="torch.topk" display="https://pytorch.org/docs/stable/generated/torch.topk.html?highlight=topk#torch.topk"/>
-    <hyperlink ref="E164" r:id="rId56" location="torch.multinomial" display="https://pytorch.org/docs/stable/generated/torch.multinomial.html?highlight=multinomial#torch.multinomial"/>
-    <hyperlink ref="E49" r:id="rId57" location="torch.nn.functional.prelu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.prelu.html?highlight=prelu#torch.nn.functional.prelu"/>
-    <hyperlink ref="E10" r:id="rId58" location="torch.nn.functional.max_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.max_pool2d.html?highlight=max_pool2d#torch.nn.functional.max_pool2d"/>
-    <hyperlink ref="E21" r:id="rId59" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.l1_loss.html?highlight=l1_loss"/>
-    <hyperlink ref="E246" r:id="rId60" location="torch.lt" display="https://pytorch.org/docs/stable/generated/torch.lt.html?highlight=lt#torch.lt"/>
-    <hyperlink ref="E89" r:id="rId61" location="torch.triangular_solve" display="https://pytorch.org/docs/stable/generated/torch.triangular_solve.html#torch.triangular_solve"/>
-    <hyperlink ref="E248" r:id="rId62" location="torch.logical_not" display="https://pytorch.org/docs/stable/generated/torch.logical_not.html#torch.logical_not"/>
-    <hyperlink ref="E112" r:id="rId63" location="torch.symeig" display="https://pytorch.org/docs/stable/generated/torch.symeig.html?highlight=symeig#torch.symeig"/>
-    <hyperlink ref="E111" r:id="rId64" location="torch.svd" display="https://pytorch.org/docs/stable/generated/torch.svd.html?highlight=svd#torch.svd"/>
-    <hyperlink ref="E204" r:id="rId65" location="torch.gt" display="https://pytorch.org/docs/stable/generated/torch.gt.html?highlight=gt#torch.gt"/>
-    <hyperlink ref="E171" r:id="rId66" location="torch.cuda.get_rng_state" display="https://pytorch.org/docs/stable/generated/torch.cuda.get_rng_state.html#torch.cuda.get_rng_state"/>
-    <hyperlink ref="E252" r:id="rId67" location="torch.full" display="https://pytorch.org/docs/stable/generated/torch.full.html?highlight=full#torch.full"/>
-    <hyperlink ref="E284" r:id="rId68" location="torch.histc" display="https://pytorch.org/docs/stable/generated/torch.histc.html?highlight=histc#torch.histc"/>
-    <hyperlink ref="E141" r:id="rId69" location="torch.split" display="https://pytorch.org/docs/stable/generated/torch.split.html?highlight=split#torch.split"/>
-    <hyperlink ref="E207" r:id="rId70" location="torch.add" display="https://pytorch.org/docs/stable/generated/torch.add.html?highlight=add#torch.add"/>
-    <hyperlink ref="E2" r:id="rId71" location="torch.nn.functional.conv2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.conv2d.html?highlight=conv2d#torch.nn.functional.conv2d"/>
-    <hyperlink ref="E109" r:id="rId72" location="torch.triu_indices" display="https://pytorch.org/docs/stable/generated/torch.triu_indices.html?highlight=triu_indices#torch.triu_indices"/>
-    <hyperlink ref="E151" r:id="rId73" location="torch.Tensor.masked_fill" display="https://pytorch.org/docs/stable/generated/torch.Tensor.masked_fill.html?highlight=masked_fill#torch.Tensor.masked_fill"/>
-    <hyperlink ref="E279" r:id="rId74" location="torch.allclose" display="https://pytorch.org/docs/stable/generated/torch.allclose.html?highlight=allclose#torch.allclose"/>
-    <hyperlink ref="E113" r:id="rId75" location="torch.orgqr" display="https://pytorch.org/docs/stable/generated/torch.orgqr.html?highlight=orgqr#torch.orgqr"/>
-    <hyperlink ref="E9" r:id="rId76" location="torch.nn.functional.adaptive_max_pool3d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.adaptive_max_pool3d.html?highlight=adaptive_max_pool3d#torch.nn.functional.adaptive_max_pool3d"/>
-    <hyperlink ref="E71" r:id="rId77" location="torch.mv" display="https://pytorch.org/docs/stable/generated/torch.mv.html?highlight=mv#torch.mv"/>
-    <hyperlink ref="E91" r:id="rId78" location="torch.qr" display="https://pytorch.org/docs/stable/generated/torch.qr.html?highlight=qr#torch.qr"/>
-    <hyperlink ref="E280" r:id="rId79" location="torch.nonzero" display="https://pytorch.org/docs/stable/generated/torch.nonzero.html?highlight=nonzero#torch.nonzero"/>
-    <hyperlink ref="E194" r:id="rId80" location="torch.isinf" display="https://pytorch.org/docs/stable/generated/torch.isinf.html?highlight=isinf#torch.isinf"/>
-    <hyperlink ref="E58" r:id="rId81" location="torch.nn.functional.alpha_dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.alpha_dropout.html?highlight=alpha_dropout#torch.nn.functional.alpha_dropout"/>
-    <hyperlink ref="E276" r:id="rId82" location="torch.var_mean" display="https://pytorch.org/docs/stable/generated/torch.var_mean.html?highlight=var_mean#torch.var_mean"/>
-    <hyperlink ref="E124" r:id="rId83" location="torch.pinverse" display="https://pytorch.org/docs/1.11/generated/torch.pinverse.html?highlight=pinvers#torch.pinverse"/>
-    <hyperlink ref="E142" r:id="rId84" location="torch.unbind" display="https://pytorch.org/docs/stable/generated/torch.unbind.html?highlight=bind#torch.unbind"/>
-    <hyperlink ref="E69" r:id="rId85" location="torch.baddbmm" display="https://pytorch.org/docs/stable/generated/torch.baddbmm.html?highlight=baddbmm#torch.baddbmm"/>
-    <hyperlink ref="E156" r:id="rId86" location="torch.Tensor.index_copy" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_copy.html?highlight=index_copy#torch.Tensor.index_copy"/>
-    <hyperlink ref="E68" r:id="rId87" display="https://pytorch.org/docs/stable/generated/torch.addmm.html"/>
-    <hyperlink ref="E222" r:id="rId88" location="torch.acos" display="https://pytorch.org/docs/stable/generated/torch.acos.html?highlight=acos#torch.acos"/>
-    <hyperlink ref="E265" r:id="rId89" location="torch.max" display="https://pytorch.org/docs/stable/generated/torch.max.html?highlight=max#torch.max"/>
-    <hyperlink ref="E288" r:id="rId90" location="torch.mode" display="https://pytorch.org/docs/stable/generated/torch.mode.html?highlight=torch%20mode#torch.mode"/>
-    <hyperlink ref="E18" r:id="rId91" location="torch.nn.functional.ctc_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.ctc_loss.html?highlight=ctc_loss#torch.nn.functional.ctc_loss"/>
-    <hyperlink ref="E200" r:id="rId92" location="torch.maximum" display="https://pytorch.org/docs/stable/generated/torch.maximum.html#torch.maximum"/>
-    <hyperlink ref="E83" r:id="rId93" location="torch.cumsum" display="https://pytorch.org/docs/stable/generated/torch.cumsum.html?highlight=cumsum#torch.cumsum"/>
-    <hyperlink ref="E292" r:id="rId94" location="torch.Tensor.item" display="https://pytorch.org/docs/stable/generated/torch.Tensor.item.html?highlight=item#torch.Tensor.item"/>
-    <hyperlink ref="E195" r:id="rId95" location="torch.isnan" display="https://pytorch.org/docs/stable/generated/torch.isnan.html?highlight=isnan#torch.isnan"/>
-    <hyperlink ref="E99" r:id="rId96" location="torch.dist" display="https://pytorch.org/docs/stable/generated/torch.dist.html?highlight=dist#torch.dist"/>
-    <hyperlink ref="E65" r:id="rId97" location="torch.mm" display="https://pytorch.org/docs/stable/generated/torch.mm.html?highlight=torch%20mm#torch.mm"/>
-    <hyperlink ref="E181" r:id="rId98" location="torch.sort" display="https://pytorch.org/docs/stable/generated/torch.sort.html?highlight=sort#torch.sort"/>
-    <hyperlink ref="E38" r:id="rId99" location="torch.nn.functional.gelu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.gelu.html?highlight=gelu#torch.nn.functional.gelu"/>
-    <hyperlink ref="E46" r:id="rId100" location="torch.nn.ELU" display="https://pytorch.org/docs/stable/generated/torch.nn.ELU.html#torch.nn.ELU"/>
-    <hyperlink ref="E174" r:id="rId101" location="torch.cuda.set_rng_state_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.set_rng_state_all.html#torch.cuda.set_rng_state_all"/>
-    <hyperlink ref="E271" r:id="rId102" location="torch.prod" display="https://pytorch.org/docs/stable/generated/torch.prod.html?highlight=prod#torch.prod"/>
-    <hyperlink ref="E24" r:id="rId103" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.kl_div.html?highlight=kl_div"/>
-    <hyperlink ref="E30" r:id="rId104" location="torch.nn.SoftMarginLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.SoftMarginLoss.html#torch.nn.SoftMarginLoss"/>
-    <hyperlink ref="E12" r:id="rId105" location="torch.nn.functional.max_unpool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.max_unpool2d.html?highlight=max_unpool2d#torch.nn.functional.max_unpool2d"/>
-    <hyperlink ref="E203" r:id="rId106" location="torch.ge" display="https://pytorch.org/docs/stable/generated/torch.ge.html?highlight=ge#torch.ge"/>
-    <hyperlink ref="E44" r:id="rId107" location="torch.nn.functional.softmax" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softmax.html#torch.nn.functional.softmax"/>
-    <hyperlink ref="E114" r:id="rId108" location="torch.ormqr" display="https://pytorch.org/docs/stable/generated/torch.ormqr.html?highlight=ormqr#torch.ormqr"/>
-    <hyperlink ref="E275" r:id="rId109" location="torch.std_mean" display="https://pytorch.org/docs/stable/generated/torch.std_mean.html?highlight=std_mean#torch.std_mean"/>
-    <hyperlink ref="E296" r:id="rId110" location="torch.Tensor.dim" display="https://pytorch.org/docs/stable/generated/torch.Tensor.dim.html#torch.Tensor.dim"/>
-    <hyperlink ref="E40" r:id="rId111" location="torch.nn.functional.hardtanh" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardtanh.html?highlight=hardtanh#torch.nn.functional.hardtanh"/>
-    <hyperlink ref="E244" r:id="rId48" location="torch.special.digamma" display="https://pytorch.org/docs/stable/special.html#torch.special.digamma"/>
-    <hyperlink ref="E155" r:id="rId112" location="torch.slice_scatter" display="https://pytorch.org/docs/stable/generated/torch.slice_scatter.html?highlight=slice_scatter#torch.slice_scatter"/>
-    <hyperlink ref="E63" r:id="rId113" location="torch.nn.functional.affine_grid" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.affine_grid.html?highlight=affine_grid#torch.nn.functional.affine_grid"/>
-    <hyperlink ref="E100" r:id="rId114" location="torch.nn.functional.cosine_similarity" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.cosine_similarity.html?highlight=cosine_similarity#torch.nn.functional.cosine_similarity"/>
-    <hyperlink ref="E249" r:id="rId115" location="torch.Tensor.fill_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.fill_.html?highlight=fill_#torch.Tensor.fill_"/>
-    <hyperlink ref="E240" r:id="rId116" location="torch.frac" display="https://pytorch.org/docs/stable/generated/torch.frac.html?highlight=frac#torch.frac"/>
-    <hyperlink ref="E50" r:id="rId117" location="torch.nn.functional.silu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.silu.html?highlight=silu#torch.nn.functional.silu"/>
-    <hyperlink ref="E134" r:id="rId118" display="https://pytorch.org/docs/stable/generated/torch.Tensor.resize_.html?highlight=resize"/>
-    <hyperlink ref="E209" r:id="rId119" display="https://pytorch.org/docs/stable/generated/torch.mul.html?highlight=mul"/>
-    <hyperlink ref="E103" r:id="rId120" display="https://pytorch.org/docs/stable/generated/torch.cartesian_prod.html?highlight=cartesian_prod"/>
-    <hyperlink ref="E268" r:id="rId121" location="torch.sum" display="https://pytorch.org/docs/stable/generated/torch.sum.html?highlight=sum#torch.sum"/>
-    <hyperlink ref="E175" r:id="rId122" location="torch.cuda.manual_seed" display="https://pytorch.org/docs/stable/generated/torch.cuda.manual_seed.html#torch.cuda.manual_seed"/>
-    <hyperlink ref="E157" r:id="rId123" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_fill.html?highlight=index_fill"/>
-    <hyperlink ref="E263" r:id="rId124" location="torch.all" display="https://pytorch.org/docs/stable/generated/torch.all.html?highlight=all#torch.all"/>
-    <hyperlink ref="E7" r:id="rId125" location="torch.nn.functional.linear" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.linear.html?highlight=linear#torch.nn.functional.linear"/>
-    <hyperlink ref="E259" r:id="rId126" location="torch.eye" display="https://pytorch.org/docs/stable/generated/torch.eye.html?highlight=eye#torch.eye"/>
-    <hyperlink ref="E80" r:id="rId127" location="torch.addr" display="https://pytorch.org/docs/stable/generated/torch.addr.html#torch.addr"/>
-    <hyperlink ref="E160" r:id="rId128" location="torch.bernoulli" display="https://pytorch.org/docs/stable/generated/torch.bernoulli.html?highlight=bernoulli#torch.bernoulli"/>
-    <hyperlink ref="E286" r:id="rId129" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue" tooltip="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
-    <hyperlink ref="E54" r:id="rId130" location="torch.nn.functional.hardshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardshrink.html?highlight=hardshrink#torch.nn.functional.hardshrink"/>
-    <hyperlink ref="E272" r:id="rId131" location="torch.argmin" display="https://pytorch.org/docs/stable/generated/torch.argmin.html?highlight=argmin#torch.argmin"/>
-    <hyperlink ref="E5" r:id="rId132" location="torch.nn.Fold" display="https://pytorch.org/docs/stable/generated/torch.nn.Fold.html?highlight=fold#torch.nn.Fold"/>
-    <hyperlink ref="E143" r:id="rId133" location="torch.Tensor.expand" display="https://pytorch.org/docs/stable/generated/torch.Tensor.expand.html?highlight=expand#torch.Tensor.expand"/>
-    <hyperlink ref="E37" r:id="rId134" location="torch.nn.functional.relu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.relu.html#torch.nn.functional.relu"/>
-    <hyperlink ref="E122" r:id="rId135" location="torch.matrix_rank" display="https://pytorch.org/docs/stable/generated/torch.matrix_rank.html?highlight=matrix_rank#torch.matrix_rank"/>
-    <hyperlink ref="E66" r:id="rId136" location="torch.bmm" display="https://pytorch.org/docs/stable/generated/torch.bmm.html#torch.bmm"/>
-    <hyperlink ref="E15" r:id="rId137" location="torch.nn.functional.binary_cross_entropy" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.binary_cross_entropy.html?highlight=binary_cross_entropy#torch.nn.functional.binary_cross_entropy"/>
-    <hyperlink ref="E149" r:id="rId138" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_put.html?highlight=index_put"/>
-    <hyperlink ref="E28" r:id="rId139" location="torch.nn.MultiMarginLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.MultiMarginLoss.html#torch.nn.MultiMarginLoss"/>
-    <hyperlink ref="E152" r:id="rId140" location="torch.masked_select" display="https://pytorch.org/docs/stable/generated/torch.masked_select.html?highlight=masked_select#torch.masked_select"/>
-    <hyperlink ref="E117" r:id="rId141" location="torch.cholesky_inverse" display="https://pytorch.org/docs/stable/generated/torch.cholesky_inverse.html?highlight=cholesky_inverse#torch.cholesky_inverse"/>
-    <hyperlink ref="E130" r:id="rId142" location="torch.nn.functional.pixel_shuffle" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.pixel_shuffle.html?highlight=pixel_shuffle#torch.nn.functional.pixel_shuffle"/>
-    <hyperlink ref="E257" r:id="rId143" display="https://pytorch.org/docs/stable/generated/torch.broadcast_tensors.html?highlight=broadcast_tensors"/>
-    <hyperlink ref="E256" r:id="rId144" location="torch.Tensor.repeat" display="https://pytorch.org/docs/stable/generated/torch.Tensor.repeat.html?highlight=repeat#torch.Tensor.repeat"/>
-    <hyperlink ref="E119" r:id="rId145" location="torch.lu" display="https://pytorch.org/docs/stable/generated/torch.lu.html#torch.lu"/>
-    <hyperlink ref="E81" r:id="rId146" location="torch.norm" display="https://pytorch.org/docs/stable/generated/torch.norm.html?highlight=norm#torch.norm"/>
-    <hyperlink ref="E34" r:id="rId147" location="torch.nn.functional.group_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.group_norm.html?highlight=group_norm#torch.nn.functional.group_norm"/>
-    <hyperlink ref="E96" r:id="rId148" location="torch.linalg.matrix_norm" display="https://pytorch.org/docs/stable/generated/torch.linalg.matrix_norm.html?highlight=matrix_norm#torch.linalg.matrix_norm"/>
-    <hyperlink ref="E78" r:id="rId149" location="torch.addmv" display="https://pytorch.org/docs/stable/generated/torch.addmv.html?highlight=addmv#torch.addmv"/>
-    <hyperlink ref="E67" r:id="rId150" location="torch.matmul" display="https://pytorch.org/docs/stable/generated/torch.matmul.html#torch.matmul"/>
-    <hyperlink ref="E281" r:id="rId151" location="torch.unique" display="https://pytorch.org/docs/stable/generated/torch.unique.html?highlight=unique#torch.unique"/>
-    <hyperlink ref="E48" r:id="rId152" location="torch.nn.functional.softplus" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softplus.html#torch.nn.functional.softplus"/>
-    <hyperlink ref="E8" r:id="rId153" location="torch.nn.functional.adaptive_avg_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.adaptive_avg_pool2d.html?highlight=adaptive_avg_pool2d#torch.nn.functional.adaptive_avg_pool2d"/>
-    <hyperlink ref="E77" r:id="rId154" display="https://pytorch.org/docs/stable/generated/torch.chain_matmul.html?highlight=chain_matmul"/>
-    <hyperlink ref="E84" r:id="rId155" location="torch.einsum" display="https://pytorch.org/docs/stable/generated/torch.einsum.html?highlight=einsum#torch.einsum"/>
-    <hyperlink ref="E282" r:id="rId156" location="torch.where" display="https://pytorch.org/docs/stable/generated/torch.where.html#torch.where"/>
-    <hyperlink ref="E13" r:id="rId157" location="torch.nn.functional.fractional_max_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.fractional_max_pool2d.html?highlight=fractional_max_pool2d#torch.nn.functional.fractional_max_pool2d"/>
-    <hyperlink ref="E254" r:id="rId158" location="torch.zeros" display="https://pytorch.org/docs/stable/generated/torch.zeros.html?highlight=zeros#torch.zeros"/>
-    <hyperlink ref="E176" r:id="rId159" location="torch.cuda.manual_seed_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.manual_seed_all.html#torch.cuda.manual_seed_all"/>
-    <hyperlink ref="E90" r:id="rId160" location="torch.diagonal" display="https://pytorch.org/docs/stable/generated/torch.diagonal.html?highlight=diagonal#torch.diagonal"/>
-    <hyperlink ref="E121" r:id="rId161" location="torch.solve" display="https://pytorch.org/docs/stable/generated/torch.solve.html?highlight=solve#torch.solve"/>
-    <hyperlink ref="E31" r:id="rId162" location="torch.nn.TripletMarginWithDistanceLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.TripletMarginWithDistanceLoss.html#torch.nn.TripletMarginWithDistanceLoss"/>
-    <hyperlink ref="E253" r:id="rId163" location="torch.ones" display="https://pytorch.org/docs/stable/generated/torch.ones.html?highlight=ones#torch.ones"/>
-    <hyperlink ref="E93" r:id="rId164" location="torch.triu" display="https://pytorch.org/docs/stable/generated/torch.triu.html?highlight=triu#torch.triu"/>
-    <hyperlink ref="E64" r:id="rId165" location="torch.nn.functional.interpolate" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.interpolate.html?highlight=interpolate#torch.nn.functional.interpolate"/>
-    <hyperlink ref="E128" r:id="rId166" display="https://pytorch.org/docs/stable/generated/torch.cat.html?highlight=cat"/>
-    <hyperlink ref="E11" r:id="rId167" location="torch.nn.functional.avg_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.avg_pool2d.html?highlight=avg_pool2#torch.nn.functional.avg_pool2d"/>
-    <hyperlink ref="E95" r:id="rId168" display="https://pytorch.org/docs/stable/generated/torch.linalg.vector_norm.html?highlight=matrix_norm"/>
-    <hyperlink ref="E202" r:id="rId169" location="torch.eq" display="https://pytorch.org/docs/stable/generated/torch.eq.html?highlight=eq#torch.eq"/>
-    <hyperlink ref="E283" r:id="rId170" location="torch.nn.functional.embedding" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.embedding.html?highlight=embedding#torch.nn.functional.embedding"/>
-    <hyperlink ref="E110" r:id="rId171" location="torch.eig" display="https://pytorch.org/docs/stable/generated/torch.eig.html?highlight=eig#torch.eig"/>
-    <hyperlink ref="E146" r:id="rId172" location="torch.tensor_split" display="https://pytorch.org/docs/stable/generated/torch.tensor_split.html#torch.tensor_split"/>
-    <hyperlink ref="E45" r:id="rId173" location="torch.nn.functional.log_softmax" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.log_softmax.html?highlight=log_softmax#torch.nn.functional.log_softmax"/>
-    <hyperlink ref="E139" r:id="rId174" location="torch.unsqueeze" display="https://pytorch.org/docs/stable/generated/torch.unsqueeze.html#torch.unsqueeze"/>
-    <hyperlink ref="E118" r:id="rId175" location="torch.cholesky_solve" display="https://pytorch.org/docs/stable/generated/torch.cholesky_solve.html?highlight=cholesky_solve#torch.cholesky_solve"/>
-    <hyperlink ref="E167" r:id="rId176" location="torch.normal" display="https://pytorch.org/docs/stable/generated/torch.normal.html?highlight=normal#torch.normal"/>
-    <hyperlink ref="E23" r:id="rId177" location="torch.nn.functional.margin_ranking_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.margin_ranking_loss.html?highlight=margin_ranking_loss#torch.nn.functional.margin_ranking_loss"/>
-    <hyperlink ref="E242" r:id="rId178" location="torch.lgamma" display="https://pytorch.org/docs/stable/generated/torch.lgamma.html?highlight=lgamma#torch.lgamma"/>
-    <hyperlink ref="E126" r:id="rId179" location="torch.transpose" display="https://pytorch.org/docs/stable/generated/torch.transpose.html#torch.transpose"/>
-    <hyperlink ref="E205" r:id="rId180" location="torch.le" display="https://pytorch.org/docs/stable/generated/torch.le.html?highlight=le#torch.le"/>
-    <hyperlink ref="E127" r:id="rId181" location="torch.stack" display="https://pytorch.org/docs/stable/generated/torch.stack.html?highlight=stack#torch.stack"/>
-    <hyperlink ref="E216" r:id="rId182" location="torch.logical_and" display="https://pytorch.org/docs/stable/generated/torch.logical_and.html?highlight=logical_#torch.logical_and"/>
-    <hyperlink ref="E16" r:id="rId183" location="torch.nn.functional.cross_entropy" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.cross_entropy.html?highlight=cross_entropy#torch.nn.functional.cross_entropy"/>
-    <hyperlink ref="E147" r:id="rId184" location="torch.gather" display="https://pytorch.org/docs/stable/generated/torch.gather.html?highlight=gather#torch.gather"/>
-    <hyperlink ref="E51" r:id="rId185" location="torch.nn.CELU" display="https://pytorch.org/docs/stable/generated/torch.nn.CELU.html#torch.nn.CELU"/>
-    <hyperlink ref="E70" r:id="rId186" location="torch.ger" display="https://pytorch.org/docs/stable/generated/torch.ger.html?highlight=ger#torch.ger"/>
-    <hyperlink ref="E73" r:id="rId9" location="torch.dot" display="https://pytorch.org/docs/stable/generated/torch.dot.html?highlight=dot#torch.dot"/>
-    <hyperlink ref="E3" r:id="rId187" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.conv_transpose2d.html?highlight=conv_transpose2d"/>
-    <hyperlink ref="E98" r:id="rId188" location="torch.nn.PairwiseDistance" display="https://pytorch.org/docs/1.11/generated/torch.nn.PairwiseDistance.html#torch.nn.PairwiseDistance"/>
-    <hyperlink ref="E278" r:id="rId189" location="torch.logsumexp" display="https://pytorch.org/docs/stable/generated/torch.logsumexp.html?highlight=logsumexp#torch.logsumexp"/>
-    <hyperlink ref="E108" r:id="rId190" location="torch.tril_indices" display="https://pytorch.org/docs/stable/generated/torch.tril_indices.html?highlight=tril_indices#torch.tril_indices"/>
-    <hyperlink ref="E255" r:id="rId191" location="torch.arange" display="https://pytorch.org/docs/stable/generated/torch.arange.html?highlight=arange#torch.arange"/>
-    <hyperlink ref="E43" r:id="rId192" location="torch.nn.functional.sigmoid" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.sigmoid.html#torch.nn.functional.sigmoid"/>
-    <hyperlink ref="E208" r:id="rId193" location="torch.div" display="https://pytorch.org/docs/stable/generated/torch.div.html?highlight=div#torch.div"/>
-    <hyperlink ref="E82" r:id="rId194" display="https://pytorch.org/docs/stable/generated/torch.cdist.html?highlight=cdist"/>
-    <hyperlink ref="E104" r:id="rId195" location="torch.diag_embed" display="https://pytorch.org/docs/stable/generated/torch.diag_embed.html?highlight=diag_embed#torch.diag_embed"/>
-    <hyperlink ref="E277" r:id="rId131" location="torch.argmin" display="https://pytorch.org/docs/stable/generated/torch.argmin.html?highlight=argmin#torch.argmin"/>
-    <hyperlink ref="E102" r:id="rId196" location="torch.linalg.matrix_power" display="https://pytorch.org/docs/stable/generated/torch.linalg.matrix_power.html#torch.linalg.matrix_power"/>
-    <hyperlink ref="E133" r:id="rId197" location="torch.Tensor.view" display="https://pytorch.org/docs/stable/generated/torch.Tensor.view.html?highlight=view#torch.Tensor.view"/>
-    <hyperlink ref="E101" r:id="rId198" location="torch.cross" display="https://pytorch.org/docs/stable/generated/torch.cross.html?highlight=cross#torch.cross"/>
-    <hyperlink ref="E153" r:id="rId199" location="torch.Tensor.index_add" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_add.html?highlight=index_add#torch.Tensor.index_add"/>
-    <hyperlink ref="E178" r:id="rId200" location="torch.cuda.seed_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.seed_all.html#torch.cuda.seed_all"/>
-    <hyperlink ref="E169" r:id="rId201" location="torch.Tensor.cauchy_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.cauchy_.html?highlight=cauchy#torch.Tensor.cauchy_"/>
-    <hyperlink ref="E287" r:id="rId202" location="torch.bincount" display="https://pytorch.org/docs/stable/generated/torch.bincount.html#torch.bincount"/>
-    <hyperlink ref="E243" r:id="rId203" location="torch.mvlgamma" display="https://pytorch.org/docs/stable/generated/torch.mvlgamma.html?highlight=mvlgamma#torch.mvlgamma"/>
-    <hyperlink ref="E140" r:id="rId204" location="torch.chunk" display="https://pytorch.org/docs/stable/generated/torch.chunk.html?highlight=chunk#torch.chunk"/>
-    <hyperlink ref="E290" r:id="rId205" location="torch.nn.functional.embedding_bag" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.embedding_bag.html?highlight=embedding_bag#torch.nn.functional.embedding_bag"/>
-    <hyperlink ref="E14" r:id="rId206" location="torch.nn.functional.pad" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.pad.html?highlight=pad#torch.nn.functional.pad"/>
-    <hyperlink ref="E92" r:id="rId207" location="torch.tril" display="https://pytorch.org/docs/stable/generated/torch.tril.html#torch.tril"/>
-    <hyperlink ref="E251" r:id="rId208" location="torch.empty" display="https://pytorch.org/docs/stable/generated/torch.empty.html?highlight=empty#torch.empty"/>
-    <hyperlink ref="E52" r:id="rId209" location="torch.nn.functional.rrelu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.rrelu.html#torch.nn.functional.rrelu"/>
-    <hyperlink ref="E62" r:id="rId210" location="torch.lerp" display="https://pytorch.org/docs/stable/generated/torch.lerp.html?highlight=lerp#torch.lerp"/>
-    <hyperlink ref="E212" r:id="rId211" location="torch.addcdiv" display="https://pytorch.org/docs/stable/generated/torch.addcdiv.html#torch.addcdiv"/>
-    <hyperlink ref="E74" r:id="rId77" location="torch.mv" display="https://pytorch.org/docs/stable/generated/torch.mv.html?highlight=mv#torch.mv"/>
-    <hyperlink ref="E137" r:id="rId212" location="torch.flatten" display="https://pytorch.org/docs/stable/generated/torch.flatten.html?highlight=flatten#torch.flatten"/>
-    <hyperlink ref="E20" r:id="rId213" location="torch.nn.functional.smooth_l1_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.smooth_l1_loss.html#torch.nn.functional.smooth_l1_loss"/>
-    <hyperlink ref="E170" r:id="rId214" location="torch.Tensor.exponential_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.exponential_.html?highlight=exponential#torch.Tensor.exponential_"/>
-    <hyperlink ref="E219" r:id="rId215" location="torch.logical_xor" display="https://pytorch.org/docs/stable/generated/torch.logical_xor.html?highlight=logical_xor#torch.logical_xor"/>
-    <hyperlink ref="E26" r:id="rId216" location="torch.nn.CosineEmbeddingLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.CosineEmbeddingLoss.html#torch.nn.CosineEmbeddingLoss"/>
-    <hyperlink ref="E22" r:id="rId103" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.kl_div.html?highlight=kl_div"/>
-    <hyperlink ref="E289" r:id="rId217" location="torch.kthvalue" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
-    <hyperlink ref="E19" r:id="rId218" location="torch.nn.NLLLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.NLLLoss.html#torch.nn.NLLLoss"/>
-    <hyperlink ref="E41" r:id="rId130" location="torch.nn.functional.hardshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardshrink.html?highlight=hardshrink#torch.nn.functional.hardshrink"/>
-    <hyperlink ref="E196" r:id="rId219" location="torch.nn.functional.threshold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.threshold.html#torch.nn.functional.threshold"/>
-    <hyperlink ref="E241" r:id="rId220" location="torch.trunc" display="https://pytorch.org/docs/stable/generated/torch.trunc.html#torch.trunc"/>
-    <hyperlink ref="E59" r:id="rId221" location="torch.nn.functional.feature_alpha_dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.feature_alpha_dropout.html?highlight=feature_alpha_dropout#torch.nn.functional.feature_alpha_dropout"/>
-    <hyperlink ref="E210" r:id="rId222" location="torch.sub" display="https://pytorch.org/docs/stable/generated/torch.sub.html?highlight=sub#torch.sub"/>
-    <hyperlink ref="E266" r:id="rId223" display="https://pytorch.org/docs/stable/generated/torch.mean.html"/>
-    <hyperlink ref="E115" r:id="rId224" location="torch.geqrf" display="https://pytorch.org/docs/stable/generated/torch.geqrf.html?highlight=geqrf#torch.geqrf"/>
-    <hyperlink ref="E264" r:id="rId225" location="torch.any" display="https://pytorch.org/docs/stable/generated/torch.any.html?highlight=any#torch.any"/>
-    <hyperlink ref="E274" r:id="rId226" location="torch.median" display="https://pytorch.org/docs/stable/generated/torch.median.html?highlight=median#torch.median"/>
-    <hyperlink ref="E87" r:id="rId227" location="torch.diagflat" display="https://pytorch.org/docs/stable/generated/torch.diagflat.html?highlight=diagflat#torch.diagflat"/>
-    <hyperlink ref="E192" r:id="rId228" location="torch.neg" display="https://pytorch.org/docs/stable/generated/torch.neg.html?highlight=neg#torch.neg"/>
-    <hyperlink ref="E206" r:id="rId229" location="torch.ne" display="https://pytorch.org/docs/stable/generated/torch.ne.html?highlight=ne#torch.ne"/>
-    <hyperlink ref="E4" r:id="rId230" location="torch.nn.functional.unfold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.unfold.html?highlight=fold#torch.nn.functional.unfold"/>
-    <hyperlink ref="E42" r:id="rId41" location="torch.nn.functional.glu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.glu.html?highlight=glu#torch.nn.functional.glu"/>
-    <hyperlink ref="E32" r:id="rId231" location="torch.nn.functional.batch_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.batch_norm.html?highlight=batch_norm#torch.nn.functional.batch_norm"/>
-    <hyperlink ref="E201" r:id="rId232" location="torch.minimum" display="https://pytorch.org/docs/stable/generated/torch.minimum.html?highlight=minimum#torch.minimum"/>
-    <hyperlink ref="E269" r:id="rId233" location="torch.std" display="https://pytorch.org/docs/stable/generated/torch.std.html?highlight=std#torch.std"/>
-    <hyperlink ref="E197" r:id="rId234" location="torch.clamp" display="https://pytorch.org/docs/stable/generated/torch.clamp.html?highlight=clamp#torch.clamp"/>
-    <hyperlink ref="E55" r:id="rId235" location="torch.nn.functional.softshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softshrink.html#torch.nn.functional.softshrink"/>
-    <hyperlink ref="E53" r:id="rId236" location="torch.nn.functional.selu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.selu.html#torch.nn.functional.selu"/>
-    <hyperlink ref="E94" r:id="rId237" location="torch.renorm" display="https://pytorch.org/docs/stable/generated/torch.renorm.html#torch.renorm"/>
-    <hyperlink ref="E116" r:id="rId238" location="torch.linalg.slogdet" display="https://pytorch.org/docs/stable/generated/torch.linalg.slogdet.html#torch.linalg.slogdet"/>
-    <hyperlink ref="E129" r:id="rId239" location="torch.roll" display="https://pytorch.org/docs/stable/generated/torch.roll.html#torch.roll"/>
-    <hyperlink ref="E166" r:id="rId240" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
-    <hyperlink ref="E165" r:id="rId240" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
-    <hyperlink ref="E163" r:id="rId241" location="torch.randn" display="https://pytorch.org/docs/stable/generated/torch.randn.html#torch.randn"/>
-    <hyperlink ref="E154" r:id="rId242" location="torch.Tensor.scatter_add_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_add_.html#torch.Tensor.scatter_add_"/>
-    <hyperlink ref="E144" r:id="rId243" location="torch.select" display="https://pytorch.org/docs/stable/generated/torch.select.html#torch.select"/>
-    <hyperlink ref="E302" r:id="rId244" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
-    <hyperlink ref="E303" r:id="rId245" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
-    <hyperlink ref="E299" r:id="rId246" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>
-    <hyperlink ref="E298" r:id="rId247" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention" tooltip="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
-    <hyperlink ref="E301" r:id="rId248" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
-    <hyperlink ref="E193" r:id="rId249" display="https://pytorch.org/docs/stable/generated/torch.sign.html#torch.sign"/>
-    <hyperlink ref="E211" r:id="rId250" display="https://pytorch.org/docs/stable/generated/torch.remainder.html#torch.remainder"/>
-    <hyperlink ref="E148" r:id="rId251" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_.html#torch.Tensor.scatter_"/>
-    <hyperlink ref="E314" r:id="rId252" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
-    <hyperlink ref="E313" r:id="rId253" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E312" r:id="rId252" display="https://arxiv.org/pdf/2506.11309&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
-    <hyperlink ref="E311" r:id="rId253" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E300" r:id="rId253" display="https://arxiv.org/pdf/2305.13245&#10;https://github.com/Dao-AILab/flash-attention" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E304" r:id="rId254" display="https://arxiv.org/pdf/1911.02150&#10;https://github.com/huggingface/transformers/blob/main/src/transformers/models/llama/modeling_llama.py" tooltip="https://arxiv.org/pdf/1911.02150&#10;"/>
-    <hyperlink ref="E305" r:id="rId255" display="https://arxiv.org/pdf/2412.19255"/>
-    <hyperlink ref="E306" r:id="rId256" display="https://arxiv.org/pdf/2108.12409&#10;https://github.com/huggingface/transformers/blob/main/src/transformers/models/bloom/modeling_bloom.py#L56-L97"/>
-    <hyperlink ref="E307" r:id="rId257" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.GELU.html"/>
-    <hyperlink ref="E310" r:id="rId253" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
-    <hyperlink ref="E308" r:id="rId258" display="https://arxiv.org/pdf/1904.10509&#10;https://github.com/openai/sparse_attention"/>
-    <hyperlink ref="E309" r:id="rId259" display="https://arxiv.org/pdf/2103.14899&#10;https://github.com/IBM/CrossViT/blob/main/models/crossvit.py"/>
+    <hyperlink ref="F179" r:id="rId1" location="torch.cuda.get_rng_state_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.get_rng_state_all.html#torch.cuda.get_rng_state_all"/>
+    <hyperlink ref="F91" r:id="rId2" location="torch.diag" display="https://pytorch.org/docs/stable/generated/torch.diag.html?highlight=diag#torch.diag"/>
+    <hyperlink ref="F268" r:id="rId3" location="torch.logspace" display="https://pytorch.org/docs/stable/generated/torch.logspace.html?highlight=logspace#torch.logspace"/>
+    <hyperlink ref="F77" r:id="rId4" location="torch.nn.functional.bilinear" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.bilinear.html?highlight=bilinear#torch.nn.functional.bilinear"/>
+    <hyperlink ref="F156" r:id="rId5" display="https://pytorch.org/docs/stable/generated/torch.index_select.html?highlight=index_select"/>
+    <hyperlink ref="F90" r:id="rId6" location="torch.nn.functional.normalize" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.normalize.html?highlight=normalize#torch.nn.functional.normalize"/>
+    <hyperlink ref="F39" r:id="rId7" location="torch.nn.functional.leaky_relu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.leaky_relu.html?highlight=leaky_relu#torch.nn.functional.leaky_relu"/>
+    <hyperlink ref="F137" r:id="rId8" location="torch.flip" display="https://pytorch.org/docs/stable/generated/torch.flip.html?highlight=flip#torch.flip"/>
+    <hyperlink ref="F74" r:id="rId9" location="torch.dot" display="https://pytorch.org/docs/stable/generated/torch.dot.html?highlight=dot#torch.dot"/>
+    <hyperlink ref="F27" r:id="rId10" location="torch.nn.HingeEmbeddingLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.HingeEmbeddingLoss.html#torch.nn.HingeEmbeddingLoss"/>
+    <hyperlink ref="F62" r:id="rId11" location="torch.meshgrid" display="https://pytorch.org/docs/stable/generated/torch.meshgrid.html?highlight=meshgrid#torch.meshgrid"/>
+    <hyperlink ref="F25" r:id="rId12" location="torch.nn.PoissonNLLLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.PoissonNLLLoss.html#torch.nn.PoissonNLLLoss"/>
+    <hyperlink ref="F78" r:id="rId13" location="torch.tensordot" display="https://pytorch.org/docs/stable/generated/torch.tensordot.html?highlight=tensordot#torch.tensordot"/>
+    <hyperlink ref="F276" r:id="rId14" location="torch.argmax" display="https://pytorch.org/docs/stable/generated/torch.argmax.html?highlight=argmax#torch.argmax"/>
+    <hyperlink ref="F305" r:id="rId15" location="torch.Tensor.tolist" display="https://pytorch.org/docs/stable/generated/torch.Tensor.tolist.html#torch.Tensor.tolist"/>
+    <hyperlink ref="F151" r:id="rId16" location="torch.take" display="https://pytorch.org/docs/stable/generated/torch.take.html?highlight=take#torch.take"/>
+    <hyperlink ref="F174" r:id="rId17" location="torch.poisson" display="https://pytorch.org/docs/stable/generated/torch.poisson.html?highlight=poisson#torch.poisson"/>
+    <hyperlink ref="F167" r:id="rId18" location="torch.nn.functional.one_hot" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.one_hot.html?highlight=one_hot#torch.nn.functional.one_hot"/>
+    <hyperlink ref="F112" r:id="rId19" location="torch.logdet" display="https://pytorch.org/docs/stable/generated/torch.logdet.html?highlight=logdet#torch.logdet"/>
+    <hyperlink ref="F58" r:id="rId20" location="torch.nn.Dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.Dropout.html?highlight=dropout#torch.nn.Dropout"/>
+    <hyperlink ref="F253" r:id="rId21" location="torch.logical_or" display="https://pytorch.org/docs/stable/generated/torch.logical_or.html?highlight=logical_#torch.logical_or"/>
+    <hyperlink ref="F144" r:id="rId22" location="torch.squeeze" display="https://pytorch.org/docs/stable/generated/torch.squeeze.html?highlight=squeeze#torch.squeeze"/>
+    <hyperlink ref="F279" r:id="rId23" location="torch.var" display="https://pytorch.org/docs/stable/generated/torch.var.html#torch.var"/>
+    <hyperlink ref="F35" r:id="rId24" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.instance_norm.html?highlight=instance_norm"/>
+    <hyperlink ref="F188" r:id="rId25" location="torch.argsort" display="https://pytorch.org/docs/stable/generated/torch.argsort.html?highlight=argsort#torch.argsort"/>
+    <hyperlink ref="F224" r:id="rId26" location="torch.equal" display="https://pytorch.org/docs/stable/generated/torch.equal.html?highlight=equal#torch.equal"/>
+    <hyperlink ref="F36" r:id="rId27" location="torch.nn.functional.local_response_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.local_response_norm.html?highlight=local_response_norm#torch.nn.functional.local_response_norm"/>
+    <hyperlink ref="F185" r:id="rId28" location="torch.cuda.initial_seed" display="https://pytorch.org/docs/stable/generated/torch.cuda.initial_seed.html#torch.cuda.initial_seed"/>
+    <hyperlink ref="F301" r:id="rId29" display="https://pytorch.org/docs/stable/generated/torch.Tensor.detach.html?highlight=detach"/>
+    <hyperlink ref="F183" r:id="rId30" location="torch.cuda.seed" display="https://pytorch.org/docs/stable/generated/torch.cuda.seed.html#torch.cuda.seed"/>
+    <hyperlink ref="F219" r:id="rId31" location="torch.addcmul" display="https://pytorch.org/docs/stable/generated/torch.addcmul.html#torch.addcmul"/>
+    <hyperlink ref="F178" r:id="rId32" location="torch.cuda.set_rng_state" display="https://pytorch.org/docs/stable/generated/torch.cuda.set_rng_state.html#torch.cuda.set_rng_state"/>
+    <hyperlink ref="F141" r:id="rId33" location="torch.narrow" display="https://pytorch.org/docs/stable/generated/torch.narrow.html?highlight=narrow#torch.narrow"/>
+    <hyperlink ref="F273" r:id="rId34" location="torch.min" display="https://pytorch.org/docs/stable/generated/torch.min.html?highlight=torch%20min#torch.min"/>
+    <hyperlink ref="F33" r:id="rId35" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.layer_norm.html?highlight=layer_norm"/>
+    <hyperlink ref="F111" r:id="rId36" location="torch.linalg.det" display="https://pytorch.org/docs/stable/generated/torch.linalg.det.html#torch.linalg.det"/>
+    <hyperlink ref="F63" r:id="rId37" location="torch.nn.functional.grid_sample" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.grid_sample.html?highlight=grid_sample#torch.nn.functional.grid_sample"/>
+    <hyperlink ref="F164" r:id="rId38" location="torch.Tensor.masked_scatter" display="https://pytorch.org/docs/stable/generated/torch.Tensor.masked_scatter.html?highlight=masked_scatter#torch.Tensor.masked_scatter"/>
+    <hyperlink ref="F264" r:id="rId39" display="https://pytorch.org/docs/stable/generated/torch.linspace.html?highlight=linspace"/>
+    <hyperlink ref="F293" r:id="rId40" location="torch.unique_consecutive" display="https://pytorch.org/docs/stable/generated/torch.unique_consecutive.html#torch.unique_consecutive"/>
+    <hyperlink ref="F47" r:id="rId41" location="torch.nn.functional.glu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.glu.html?highlight=glu#torch.nn.functional.glu"/>
+    <hyperlink ref="F17" r:id="rId42" location="torch.nn.functional.mse_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.mse_loss.html?highlight=mse_loss#torch.nn.functional.mse_loss"/>
+    <hyperlink ref="F110" r:id="rId43" location="torch.trace" display="https://pytorch.org/docs/stable/generated/torch.trace.html?highlight=trace#torch.trace"/>
+    <hyperlink ref="F93" r:id="rId44" display="https://pytorch.org/docs/stable/generated/torch.cholesky.html?highlight=cholesky"/>
+    <hyperlink ref="F130" r:id="rId45" location="torch.nn.functional.pdist" display="https://pytorch.org/docs/1.11/generated/torch.nn.functional.pdist.html?highlight=pdist#torch.nn.functional.pdist"/>
+    <hyperlink ref="F29" r:id="rId46" location="torch.nn.MultiLabelMarginLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.MultiLabelMarginLoss.html#torch.nn.MultiLabelMarginLoss"/>
+    <hyperlink ref="F102" r:id="rId47" location="torch.cumprod" display="https://pytorch.org/docs/stable/generated/torch.cumprod.html?highlight=cumprod#torch.cumprod"/>
+    <hyperlink ref="F251" r:id="rId48" location="torch.special.polygamma" display="https://pytorch.org/docs/stable/special.html#torch.special.polygamma"/>
+    <hyperlink ref="F125" r:id="rId49" location="torch.lu_solve" display="https://pytorch.org/docs/stable/generated/torch.lu_solve.html?highlight=lu_solve#torch.lu_solve"/>
+    <hyperlink ref="F256" r:id="rId50" location="torch.Tensor.zero_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.zero_.html#torch.Tensor.zero_"/>
+    <hyperlink ref="F302" r:id="rId51" location="torch.numel" display="https://pytorch.org/docs/stable/generated/torch.numel.html?highlight=numel#torch.numel"/>
+    <hyperlink ref="F128" r:id="rId52" location="torch.inverse" display="https://pytorch.org/docs/stable/generated/torch.inverse.html#torch.inverse"/>
+    <hyperlink ref="F6" r:id="rId53" display="https://pytorch.org/docs/stable/jit_builtin_functions.html?highlight=tbc"/>
+    <hyperlink ref="F81" r:id="rId54" location="torch.addbmm" display="https://pytorch.org/docs/stable/generated/torch.addbmm.html?highlight=addbmm#torch.addbmm"/>
+    <hyperlink ref="F186" r:id="rId55" location="torch.topk" display="https://pytorch.org/docs/stable/generated/torch.topk.html?highlight=topk#torch.topk"/>
+    <hyperlink ref="F170" r:id="rId56" location="torch.multinomial" display="https://pytorch.org/docs/stable/generated/torch.multinomial.html?highlight=multinomial#torch.multinomial"/>
+    <hyperlink ref="F49" r:id="rId57" location="torch.nn.functional.prelu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.prelu.html?highlight=prelu#torch.nn.functional.prelu"/>
+    <hyperlink ref="F10" r:id="rId58" location="torch.nn.functional.max_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.max_pool2d.html?highlight=max_pool2d#torch.nn.functional.max_pool2d"/>
+    <hyperlink ref="F21" r:id="rId59" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.l1_loss.html?highlight=l1_loss"/>
+    <hyperlink ref="F252" r:id="rId60" location="torch.lt" display="https://pytorch.org/docs/stable/generated/torch.lt.html?highlight=lt#torch.lt"/>
+    <hyperlink ref="F94" r:id="rId61" location="torch.triangular_solve" display="https://pytorch.org/docs/stable/generated/torch.triangular_solve.html#torch.triangular_solve"/>
+    <hyperlink ref="F254" r:id="rId62" location="torch.logical_not" display="https://pytorch.org/docs/stable/generated/torch.logical_not.html#torch.logical_not"/>
+    <hyperlink ref="F117" r:id="rId63" location="torch.symeig" display="https://pytorch.org/docs/stable/generated/torch.symeig.html?highlight=symeig#torch.symeig"/>
+    <hyperlink ref="F116" r:id="rId64" location="torch.svd" display="https://pytorch.org/docs/stable/generated/torch.svd.html?highlight=svd#torch.svd"/>
+    <hyperlink ref="F210" r:id="rId65" location="torch.gt" display="https://pytorch.org/docs/stable/generated/torch.gt.html?highlight=gt#torch.gt"/>
+    <hyperlink ref="F177" r:id="rId66" location="torch.cuda.get_rng_state" display="https://pytorch.org/docs/stable/generated/torch.cuda.get_rng_state.html#torch.cuda.get_rng_state"/>
+    <hyperlink ref="F258" r:id="rId67" location="torch.full" display="https://pytorch.org/docs/stable/generated/torch.full.html?highlight=full#torch.full"/>
+    <hyperlink ref="F292" r:id="rId68" location="torch.histc" display="https://pytorch.org/docs/stable/generated/torch.histc.html?highlight=histc#torch.histc"/>
+    <hyperlink ref="F147" r:id="rId69" location="torch.split" display="https://pytorch.org/docs/stable/generated/torch.split.html?highlight=split#torch.split"/>
+    <hyperlink ref="F213" r:id="rId70" location="torch.add" display="https://pytorch.org/docs/stable/generated/torch.add.html?highlight=add#torch.add"/>
+    <hyperlink ref="F2" r:id="rId71" location="torch.nn.functional.conv2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.conv2d.html?highlight=conv2d#torch.nn.functional.conv2d"/>
+    <hyperlink ref="F114" r:id="rId72" location="torch.triu_indices" display="https://pytorch.org/docs/stable/generated/torch.triu_indices.html?highlight=triu_indices#torch.triu_indices"/>
+    <hyperlink ref="F157" r:id="rId73" location="torch.Tensor.masked_fill" display="https://pytorch.org/docs/stable/generated/torch.Tensor.masked_fill.html?highlight=masked_fill#torch.Tensor.masked_fill"/>
+    <hyperlink ref="F286" r:id="rId74" location="torch.allclose" display="https://pytorch.org/docs/stable/generated/torch.allclose.html?highlight=allclose#torch.allclose"/>
+    <hyperlink ref="F118" r:id="rId75" location="torch.orgqr" display="https://pytorch.org/docs/stable/generated/torch.orgqr.html?highlight=orgqr#torch.orgqr"/>
+    <hyperlink ref="F9" r:id="rId76" location="torch.nn.functional.adaptive_max_pool3d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.adaptive_max_pool3d.html?highlight=adaptive_max_pool3d#torch.nn.functional.adaptive_max_pool3d"/>
+    <hyperlink ref="F73" r:id="rId77" location="torch.mv" display="https://pytorch.org/docs/stable/generated/torch.mv.html?highlight=mv#torch.mv"/>
+    <hyperlink ref="F96" r:id="rId78" location="torch.qr" display="https://pytorch.org/docs/stable/generated/torch.qr.html?highlight=qr#torch.qr"/>
+    <hyperlink ref="F288" r:id="rId79" location="torch.nonzero" display="https://pytorch.org/docs/stable/generated/torch.nonzero.html?highlight=nonzero#torch.nonzero"/>
+    <hyperlink ref="F200" r:id="rId80" location="torch.isinf" display="https://pytorch.org/docs/stable/generated/torch.isinf.html?highlight=isinf#torch.isinf"/>
+    <hyperlink ref="F60" r:id="rId81" location="torch.nn.functional.alpha_dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.alpha_dropout.html?highlight=alpha_dropout#torch.nn.functional.alpha_dropout"/>
+    <hyperlink ref="F282" r:id="rId82" location="torch.var_mean" display="https://pytorch.org/docs/stable/generated/torch.var_mean.html?highlight=var_mean#torch.var_mean"/>
+    <hyperlink ref="F129" r:id="rId83" location="torch.pinverse" display="https://pytorch.org/docs/1.11/generated/torch.pinverse.html?highlight=pinvers#torch.pinverse"/>
+    <hyperlink ref="F148" r:id="rId84" location="torch.unbind" display="https://pytorch.org/docs/stable/generated/torch.unbind.html?highlight=bind#torch.unbind"/>
+    <hyperlink ref="F71" r:id="rId85" location="torch.baddbmm" display="https://pytorch.org/docs/stable/generated/torch.baddbmm.html?highlight=baddbmm#torch.baddbmm"/>
+    <hyperlink ref="F162" r:id="rId86" location="torch.Tensor.index_copy" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_copy.html?highlight=index_copy#torch.Tensor.index_copy"/>
+    <hyperlink ref="F70" r:id="rId87" display="https://pytorch.org/docs/stable/generated/torch.addmm.html"/>
+    <hyperlink ref="F228" r:id="rId88" location="torch.acos" display="https://pytorch.org/docs/stable/generated/torch.acos.html?highlight=acos#torch.acos"/>
+    <hyperlink ref="F271" r:id="rId89" location="torch.max" display="https://pytorch.org/docs/stable/generated/torch.max.html?highlight=max#torch.max"/>
+    <hyperlink ref="F296" r:id="rId90" location="torch.mode" display="https://pytorch.org/docs/stable/generated/torch.mode.html?highlight=torch%20mode#torch.mode"/>
+    <hyperlink ref="F18" r:id="rId91" location="torch.nn.functional.ctc_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.ctc_loss.html?highlight=ctc_loss#torch.nn.functional.ctc_loss"/>
+    <hyperlink ref="F206" r:id="rId92" location="torch.maximum" display="https://pytorch.org/docs/stable/generated/torch.maximum.html#torch.maximum"/>
+    <hyperlink ref="F300" r:id="rId93" location="torch.Tensor.item" display="https://pytorch.org/docs/stable/generated/torch.Tensor.item.html?highlight=item#torch.Tensor.item"/>
+    <hyperlink ref="F201" r:id="rId94" location="torch.isnan" display="https://pytorch.org/docs/stable/generated/torch.isnan.html?highlight=isnan#torch.isnan"/>
+    <hyperlink ref="F104" r:id="rId95" location="torch.dist" display="https://pytorch.org/docs/stable/generated/torch.dist.html?highlight=dist#torch.dist"/>
+    <hyperlink ref="F67" r:id="rId96" location="torch.mm" display="https://pytorch.org/docs/stable/generated/torch.mm.html?highlight=torch%20mm#torch.mm"/>
+    <hyperlink ref="F187" r:id="rId97" location="torch.sort" display="https://pytorch.org/docs/stable/generated/torch.sort.html?highlight=sort#torch.sort"/>
+    <hyperlink ref="F38" r:id="rId98" location="torch.nn.functional.gelu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.gelu.html?highlight=gelu#torch.nn.functional.gelu"/>
+    <hyperlink ref="F46" r:id="rId99" location="torch.nn.ELU" display="https://pytorch.org/docs/stable/generated/torch.nn.ELU.html#torch.nn.ELU"/>
+    <hyperlink ref="F180" r:id="rId100" location="torch.cuda.set_rng_state_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.set_rng_state_all.html#torch.cuda.set_rng_state_all"/>
+    <hyperlink ref="F277" r:id="rId101" location="torch.prod" display="https://pytorch.org/docs/stable/generated/torch.prod.html?highlight=prod#torch.prod"/>
+    <hyperlink ref="F24" r:id="rId102" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.kl_div.html?highlight=kl_div"/>
+    <hyperlink ref="F30" r:id="rId103" location="torch.nn.SoftMarginLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.SoftMarginLoss.html#torch.nn.SoftMarginLoss"/>
+    <hyperlink ref="F12" r:id="rId104" location="torch.nn.functional.max_unpool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.max_unpool2d.html?highlight=max_unpool2d#torch.nn.functional.max_unpool2d"/>
+    <hyperlink ref="F209" r:id="rId105" location="torch.ge" display="https://pytorch.org/docs/stable/generated/torch.ge.html?highlight=ge#torch.ge"/>
+    <hyperlink ref="F44" r:id="rId106" location="torch.nn.functional.softmax" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softmax.html#torch.nn.functional.softmax"/>
+    <hyperlink ref="F119" r:id="rId107" location="torch.ormqr" display="https://pytorch.org/docs/stable/generated/torch.ormqr.html?highlight=ormqr#torch.ormqr"/>
+    <hyperlink ref="F281" r:id="rId108" location="torch.std_mean" display="https://pytorch.org/docs/stable/generated/torch.std_mean.html?highlight=std_mean#torch.std_mean"/>
+    <hyperlink ref="F304" r:id="rId109" location="torch.Tensor.dim" display="https://pytorch.org/docs/stable/generated/torch.Tensor.dim.html#torch.Tensor.dim"/>
+    <hyperlink ref="F40" r:id="rId110" location="torch.nn.functional.hardtanh" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardtanh.html?highlight=hardtanh#torch.nn.functional.hardtanh"/>
+    <hyperlink ref="F250" r:id="rId48" location="torch.special.digamma" display="https://pytorch.org/docs/stable/special.html#torch.special.digamma"/>
+    <hyperlink ref="F161" r:id="rId111" location="torch.slice_scatter" display="https://pytorch.org/docs/stable/generated/torch.slice_scatter.html?highlight=slice_scatter#torch.slice_scatter"/>
+    <hyperlink ref="F65" r:id="rId112" location="torch.nn.functional.affine_grid" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.affine_grid.html?highlight=affine_grid#torch.nn.functional.affine_grid"/>
+    <hyperlink ref="F105" r:id="rId113" location="torch.nn.functional.cosine_similarity" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.cosine_similarity.html?highlight=cosine_similarity#torch.nn.functional.cosine_similarity"/>
+    <hyperlink ref="F255" r:id="rId114" location="torch.Tensor.fill_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.fill_.html?highlight=fill_#torch.Tensor.fill_"/>
+    <hyperlink ref="F246" r:id="rId115" location="torch.frac" display="https://pytorch.org/docs/stable/generated/torch.frac.html?highlight=frac#torch.frac"/>
+    <hyperlink ref="F50" r:id="rId116" location="torch.nn.functional.silu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.silu.html?highlight=silu#torch.nn.functional.silu"/>
+    <hyperlink ref="F140" r:id="rId117" display="https://pytorch.org/docs/stable/generated/torch.Tensor.resize_.html?highlight=resize"/>
+    <hyperlink ref="F215" r:id="rId118" display="https://pytorch.org/docs/stable/generated/torch.mul.html?highlight=mul"/>
+    <hyperlink ref="F108" r:id="rId119" display="https://pytorch.org/docs/stable/generated/torch.cartesian_prod.html?highlight=cartesian_prod"/>
+    <hyperlink ref="F274" r:id="rId120" location="torch.sum" display="https://pytorch.org/docs/stable/generated/torch.sum.html?highlight=sum#torch.sum"/>
+    <hyperlink ref="F181" r:id="rId121" location="torch.cuda.manual_seed" display="https://pytorch.org/docs/stable/generated/torch.cuda.manual_seed.html#torch.cuda.manual_seed"/>
+    <hyperlink ref="F163" r:id="rId122" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_fill.html?highlight=index_fill"/>
+    <hyperlink ref="F269" r:id="rId123" location="torch.all" display="https://pytorch.org/docs/stable/generated/torch.all.html?highlight=all#torch.all"/>
+    <hyperlink ref="F7" r:id="rId124" location="torch.nn.functional.linear" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.linear.html?highlight=linear#torch.nn.functional.linear"/>
+    <hyperlink ref="F265" r:id="rId125" location="torch.eye" display="https://pytorch.org/docs/stable/generated/torch.eye.html?highlight=eye#torch.eye"/>
+    <hyperlink ref="F82" r:id="rId126" location="torch.addr" display="https://pytorch.org/docs/stable/generated/torch.addr.html#torch.addr"/>
+    <hyperlink ref="F166" r:id="rId127" location="torch.bernoulli" display="https://pytorch.org/docs/stable/generated/torch.bernoulli.html?highlight=bernoulli#torch.bernoulli"/>
+    <hyperlink ref="F294" r:id="rId128" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue" tooltip="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
+    <hyperlink ref="F54" r:id="rId129" location="torch.nn.functional.hardshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardshrink.html?highlight=hardshrink#torch.nn.functional.hardshrink"/>
+    <hyperlink ref="F278" r:id="rId130" location="torch.argmin" display="https://pytorch.org/docs/stable/generated/torch.argmin.html?highlight=argmin#torch.argmin"/>
+    <hyperlink ref="F5" r:id="rId131" location="torch.nn.Fold" display="https://pytorch.org/docs/stable/generated/torch.nn.Fold.html?highlight=fold#torch.nn.Fold"/>
+    <hyperlink ref="F149" r:id="rId132" location="torch.Tensor.expand" display="https://pytorch.org/docs/stable/generated/torch.Tensor.expand.html?highlight=expand#torch.Tensor.expand"/>
+    <hyperlink ref="F37" r:id="rId133" location="torch.nn.functional.relu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.relu.html#torch.nn.functional.relu"/>
+    <hyperlink ref="F127" r:id="rId134" location="torch.matrix_rank" display="https://pytorch.org/docs/stable/generated/torch.matrix_rank.html?highlight=matrix_rank#torch.matrix_rank"/>
+    <hyperlink ref="F68" r:id="rId135" location="torch.bmm" display="https://pytorch.org/docs/stable/generated/torch.bmm.html#torch.bmm"/>
+    <hyperlink ref="F15" r:id="rId136" location="torch.nn.functional.binary_cross_entropy" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.binary_cross_entropy.html?highlight=binary_cross_entropy#torch.nn.functional.binary_cross_entropy"/>
+    <hyperlink ref="F155" r:id="rId137" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_put.html?highlight=index_put"/>
+    <hyperlink ref="F28" r:id="rId138" location="torch.nn.MultiMarginLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.MultiMarginLoss.html#torch.nn.MultiMarginLoss"/>
+    <hyperlink ref="F158" r:id="rId139" location="torch.masked_select" display="https://pytorch.org/docs/stable/generated/torch.masked_select.html?highlight=masked_select#torch.masked_select"/>
+    <hyperlink ref="F122" r:id="rId140" location="torch.cholesky_inverse" display="https://pytorch.org/docs/stable/generated/torch.cholesky_inverse.html?highlight=cholesky_inverse#torch.cholesky_inverse"/>
+    <hyperlink ref="F136" r:id="rId141" location="torch.nn.functional.pixel_shuffle" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.pixel_shuffle.html?highlight=pixel_shuffle#torch.nn.functional.pixel_shuffle"/>
+    <hyperlink ref="F263" r:id="rId142" display="https://pytorch.org/docs/stable/generated/torch.broadcast_tensors.html?highlight=broadcast_tensors"/>
+    <hyperlink ref="F262" r:id="rId143" location="torch.Tensor.repeat" display="https://pytorch.org/docs/stable/generated/torch.Tensor.repeat.html?highlight=repeat#torch.Tensor.repeat"/>
+    <hyperlink ref="F124" r:id="rId144" location="torch.lu" display="https://pytorch.org/docs/stable/generated/torch.lu.html#torch.lu"/>
+    <hyperlink ref="F34" r:id="rId145" location="torch.nn.functional.group_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.group_norm.html?highlight=group_norm#torch.nn.functional.group_norm"/>
+    <hyperlink ref="F101" r:id="rId146" location="torch.linalg.matrix_norm" display="https://pytorch.org/docs/stable/generated/torch.linalg.matrix_norm.html?highlight=matrix_norm#torch.linalg.matrix_norm"/>
+    <hyperlink ref="F80" r:id="rId147" location="torch.addmv" display="https://pytorch.org/docs/stable/generated/torch.addmv.html?highlight=addmv#torch.addmv"/>
+    <hyperlink ref="F69" r:id="rId148" location="torch.matmul" display="https://pytorch.org/docs/stable/generated/torch.matmul.html#torch.matmul"/>
+    <hyperlink ref="F289" r:id="rId149" location="torch.unique" display="https://pytorch.org/docs/stable/generated/torch.unique.html?highlight=unique#torch.unique"/>
+    <hyperlink ref="F48" r:id="rId150" location="torch.nn.functional.softplus" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softplus.html#torch.nn.functional.softplus"/>
+    <hyperlink ref="F8" r:id="rId151" location="torch.nn.functional.adaptive_avg_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.adaptive_avg_pool2d.html?highlight=adaptive_avg_pool2d#torch.nn.functional.adaptive_avg_pool2d"/>
+    <hyperlink ref="F79" r:id="rId152" display="https://pytorch.org/docs/stable/generated/torch.chain_matmul.html?highlight=chain_matmul"/>
+    <hyperlink ref="F89" r:id="rId153" location="torch.einsum" display="https://pytorch.org/docs/stable/generated/torch.einsum.html?highlight=einsum#torch.einsum"/>
+    <hyperlink ref="F290" r:id="rId154" location="torch.where" display="https://pytorch.org/docs/stable/generated/torch.where.html#torch.where"/>
+    <hyperlink ref="F13" r:id="rId155" location="torch.nn.functional.fractional_max_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.fractional_max_pool2d.html?highlight=fractional_max_pool2d#torch.nn.functional.fractional_max_pool2d"/>
+    <hyperlink ref="F260" r:id="rId156" location="torch.zeros" display="https://pytorch.org/docs/stable/generated/torch.zeros.html?highlight=zeros#torch.zeros"/>
+    <hyperlink ref="F182" r:id="rId157" location="torch.cuda.manual_seed_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.manual_seed_all.html#torch.cuda.manual_seed_all"/>
+    <hyperlink ref="F95" r:id="rId158" location="torch.diagonal" display="https://pytorch.org/docs/stable/generated/torch.diagonal.html?highlight=diagonal#torch.diagonal"/>
+    <hyperlink ref="F126" r:id="rId159" location="torch.solve" display="https://pytorch.org/docs/stable/generated/torch.solve.html?highlight=solve#torch.solve"/>
+    <hyperlink ref="F31" r:id="rId160" location="torch.nn.TripletMarginWithDistanceLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.TripletMarginWithDistanceLoss.html#torch.nn.TripletMarginWithDistanceLoss"/>
+    <hyperlink ref="F259" r:id="rId161" location="torch.ones" display="https://pytorch.org/docs/stable/generated/torch.ones.html?highlight=ones#torch.ones"/>
+    <hyperlink ref="F98" r:id="rId162" location="torch.triu" display="https://pytorch.org/docs/stable/generated/torch.triu.html?highlight=triu#torch.triu"/>
+    <hyperlink ref="F66" r:id="rId163" location="torch.nn.functional.interpolate" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.interpolate.html?highlight=interpolate#torch.nn.functional.interpolate"/>
+    <hyperlink ref="F134" r:id="rId164" display="https://pytorch.org/docs/stable/generated/torch.cat.html?highlight=cat"/>
+    <hyperlink ref="F11" r:id="rId165" location="torch.nn.functional.avg_pool2d" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.avg_pool2d.html?highlight=avg_pool2#torch.nn.functional.avg_pool2d"/>
+    <hyperlink ref="F100" r:id="rId166" display="https://pytorch.org/docs/stable/generated/torch.linalg.vector_norm.html?highlight=matrix_norm"/>
+    <hyperlink ref="F208" r:id="rId167" location="torch.eq" display="https://pytorch.org/docs/stable/generated/torch.eq.html?highlight=eq#torch.eq"/>
+    <hyperlink ref="F291" r:id="rId168" location="torch.nn.functional.embedding" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.embedding.html?highlight=embedding#torch.nn.functional.embedding"/>
+    <hyperlink ref="F115" r:id="rId169" location="torch.eig" display="https://pytorch.org/docs/stable/generated/torch.eig.html?highlight=eig#torch.eig"/>
+    <hyperlink ref="F152" r:id="rId170" location="torch.tensor_split" display="https://pytorch.org/docs/stable/generated/torch.tensor_split.html#torch.tensor_split"/>
+    <hyperlink ref="F45" r:id="rId171" location="torch.nn.functional.log_softmax" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.log_softmax.html?highlight=log_softmax#torch.nn.functional.log_softmax"/>
+    <hyperlink ref="F145" r:id="rId172" location="torch.unsqueeze" display="https://pytorch.org/docs/stable/generated/torch.unsqueeze.html#torch.unsqueeze"/>
+    <hyperlink ref="F123" r:id="rId173" location="torch.cholesky_solve" display="https://pytorch.org/docs/stable/generated/torch.cholesky_solve.html?highlight=cholesky_solve#torch.cholesky_solve"/>
+    <hyperlink ref="F173" r:id="rId174" location="torch.normal" display="https://pytorch.org/docs/stable/generated/torch.normal.html?highlight=normal#torch.normal"/>
+    <hyperlink ref="F23" r:id="rId175" location="torch.nn.functional.margin_ranking_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.margin_ranking_loss.html?highlight=margin_ranking_loss#torch.nn.functional.margin_ranking_loss"/>
+    <hyperlink ref="F248" r:id="rId176" location="torch.lgamma" display="https://pytorch.org/docs/stable/generated/torch.lgamma.html?highlight=lgamma#torch.lgamma"/>
+    <hyperlink ref="F132" r:id="rId177" location="torch.transpose" display="https://pytorch.org/docs/stable/generated/torch.transpose.html#torch.transpose"/>
+    <hyperlink ref="F211" r:id="rId178" location="torch.le" display="https://pytorch.org/docs/stable/generated/torch.le.html?highlight=le#torch.le"/>
+    <hyperlink ref="F133" r:id="rId179" location="torch.stack" display="https://pytorch.org/docs/stable/generated/torch.stack.html?highlight=stack#torch.stack"/>
+    <hyperlink ref="F222" r:id="rId180" location="torch.logical_and" display="https://pytorch.org/docs/stable/generated/torch.logical_and.html?highlight=logical_#torch.logical_and"/>
+    <hyperlink ref="F16" r:id="rId181" location="torch.nn.functional.cross_entropy" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.cross_entropy.html?highlight=cross_entropy#torch.nn.functional.cross_entropy"/>
+    <hyperlink ref="F153" r:id="rId182" location="torch.gather" display="https://pytorch.org/docs/stable/generated/torch.gather.html?highlight=gather#torch.gather"/>
+    <hyperlink ref="F51" r:id="rId183" location="torch.nn.CELU" display="https://pytorch.org/docs/stable/generated/torch.nn.CELU.html#torch.nn.CELU"/>
+    <hyperlink ref="F72" r:id="rId184" location="torch.ger" display="https://pytorch.org/docs/stable/generated/torch.ger.html?highlight=ger#torch.ger"/>
+    <hyperlink ref="F75" r:id="rId9" location="torch.dot" display="https://pytorch.org/docs/stable/generated/torch.dot.html?highlight=dot#torch.dot"/>
+    <hyperlink ref="F3" r:id="rId185" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.conv_transpose2d.html?highlight=conv_transpose2d"/>
+    <hyperlink ref="F103" r:id="rId186" location="torch.nn.PairwiseDistance" display="https://pytorch.org/docs/1.11/generated/torch.nn.PairwiseDistance.html#torch.nn.PairwiseDistance"/>
+    <hyperlink ref="F285" r:id="rId187" location="torch.logsumexp" display="https://pytorch.org/docs/stable/generated/torch.logsumexp.html?highlight=logsumexp#torch.logsumexp"/>
+    <hyperlink ref="F113" r:id="rId188" location="torch.tril_indices" display="https://pytorch.org/docs/stable/generated/torch.tril_indices.html?highlight=tril_indices#torch.tril_indices"/>
+    <hyperlink ref="F261" r:id="rId189" location="torch.arange" display="https://pytorch.org/docs/stable/generated/torch.arange.html?highlight=arange#torch.arange"/>
+    <hyperlink ref="F43" r:id="rId190" location="torch.nn.functional.sigmoid" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.sigmoid.html#torch.nn.functional.sigmoid"/>
+    <hyperlink ref="F214" r:id="rId191" location="torch.div" display="https://pytorch.org/docs/stable/generated/torch.div.html?highlight=div#torch.div"/>
+    <hyperlink ref="F109" r:id="rId192" location="torch.diag_embed" display="https://pytorch.org/docs/stable/generated/torch.diag_embed.html?highlight=diag_embed#torch.diag_embed"/>
+    <hyperlink ref="F283" r:id="rId130" location="torch.argmin" display="https://pytorch.org/docs/stable/generated/torch.argmin.html?highlight=argmin#torch.argmin"/>
+    <hyperlink ref="F107" r:id="rId193" location="torch.linalg.matrix_power" display="https://pytorch.org/docs/stable/generated/torch.linalg.matrix_power.html#torch.linalg.matrix_power"/>
+    <hyperlink ref="F139" r:id="rId194" location="torch.Tensor.view" display="https://pytorch.org/docs/stable/generated/torch.Tensor.view.html?highlight=view#torch.Tensor.view"/>
+    <hyperlink ref="F106" r:id="rId195" location="torch.cross" display="https://pytorch.org/docs/stable/generated/torch.cross.html?highlight=cross#torch.cross"/>
+    <hyperlink ref="F159" r:id="rId196" location="torch.Tensor.index_add" display="https://pytorch.org/docs/stable/generated/torch.Tensor.index_add.html?highlight=index_add#torch.Tensor.index_add"/>
+    <hyperlink ref="F184" r:id="rId197" location="torch.cuda.seed_all" display="https://pytorch.org/docs/stable/generated/torch.cuda.seed_all.html#torch.cuda.seed_all"/>
+    <hyperlink ref="F175" r:id="rId198" location="torch.Tensor.cauchy_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.cauchy_.html?highlight=cauchy#torch.Tensor.cauchy_"/>
+    <hyperlink ref="F295" r:id="rId199" location="torch.bincount" display="https://pytorch.org/docs/stable/generated/torch.bincount.html#torch.bincount"/>
+    <hyperlink ref="F249" r:id="rId200" location="torch.mvlgamma" display="https://pytorch.org/docs/stable/generated/torch.mvlgamma.html?highlight=mvlgamma#torch.mvlgamma"/>
+    <hyperlink ref="F146" r:id="rId201" location="torch.chunk" display="https://pytorch.org/docs/stable/generated/torch.chunk.html?highlight=chunk#torch.chunk"/>
+    <hyperlink ref="F298" r:id="rId202" location="torch.nn.functional.embedding_bag" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.embedding_bag.html?highlight=embedding_bag#torch.nn.functional.embedding_bag"/>
+    <hyperlink ref="F14" r:id="rId203" location="torch.nn.functional.pad" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.pad.html?highlight=pad#torch.nn.functional.pad"/>
+    <hyperlink ref="F97" r:id="rId204" location="torch.tril" display="https://pytorch.org/docs/stable/generated/torch.tril.html#torch.tril"/>
+    <hyperlink ref="F257" r:id="rId205" location="torch.empty" display="https://pytorch.org/docs/stable/generated/torch.empty.html?highlight=empty#torch.empty"/>
+    <hyperlink ref="F52" r:id="rId206" location="torch.nn.functional.rrelu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.rrelu.html#torch.nn.functional.rrelu"/>
+    <hyperlink ref="F64" r:id="rId207" location="torch.lerp" display="https://pytorch.org/docs/stable/generated/torch.lerp.html?highlight=lerp#torch.lerp"/>
+    <hyperlink ref="F218" r:id="rId208" location="torch.addcdiv" display="https://pytorch.org/docs/stable/generated/torch.addcdiv.html#torch.addcdiv"/>
+    <hyperlink ref="F76" r:id="rId77" location="torch.mv" display="https://pytorch.org/docs/stable/generated/torch.mv.html?highlight=mv#torch.mv"/>
+    <hyperlink ref="F143" r:id="rId209" location="torch.flatten" display="https://pytorch.org/docs/stable/generated/torch.flatten.html?highlight=flatten#torch.flatten"/>
+    <hyperlink ref="F20" r:id="rId210" location="torch.nn.functional.smooth_l1_loss" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.smooth_l1_loss.html#torch.nn.functional.smooth_l1_loss"/>
+    <hyperlink ref="F176" r:id="rId211" location="torch.Tensor.exponential_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.exponential_.html?highlight=exponential#torch.Tensor.exponential_"/>
+    <hyperlink ref="F225" r:id="rId212" location="torch.logical_xor" display="https://pytorch.org/docs/stable/generated/torch.logical_xor.html?highlight=logical_xor#torch.logical_xor"/>
+    <hyperlink ref="F26" r:id="rId213" location="torch.nn.CosineEmbeddingLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.CosineEmbeddingLoss.html#torch.nn.CosineEmbeddingLoss"/>
+    <hyperlink ref="F22" r:id="rId102" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.kl_div.html?highlight=kl_div"/>
+    <hyperlink ref="F297" r:id="rId214" location="torch.kthvalue" display="https://pytorch.org/docs/stable/generated/torch.kthvalue.html?highlight=kthvalue#torch.kthvalue"/>
+    <hyperlink ref="F19" r:id="rId215" location="torch.nn.NLLLoss" display="https://pytorch.org/docs/stable/generated/torch.nn.NLLLoss.html#torch.nn.NLLLoss"/>
+    <hyperlink ref="F41" r:id="rId129" location="torch.nn.functional.hardshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.hardshrink.html?highlight=hardshrink#torch.nn.functional.hardshrink"/>
+    <hyperlink ref="F202" r:id="rId216" location="torch.nn.functional.threshold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.threshold.html#torch.nn.functional.threshold"/>
+    <hyperlink ref="F247" r:id="rId217" location="torch.trunc" display="https://pytorch.org/docs/stable/generated/torch.trunc.html#torch.trunc"/>
+    <hyperlink ref="F61" r:id="rId218" location="torch.nn.functional.feature_alpha_dropout" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.feature_alpha_dropout.html?highlight=feature_alpha_dropout#torch.nn.functional.feature_alpha_dropout"/>
+    <hyperlink ref="F216" r:id="rId219" location="torch.sub" display="https://pytorch.org/docs/stable/generated/torch.sub.html?highlight=sub#torch.sub"/>
+    <hyperlink ref="F272" r:id="rId220" display="https://pytorch.org/docs/stable/generated/torch.mean.html"/>
+    <hyperlink ref="F120" r:id="rId221" location="torch.geqrf" display="https://pytorch.org/docs/stable/generated/torch.geqrf.html?highlight=geqrf#torch.geqrf"/>
+    <hyperlink ref="F270" r:id="rId222" location="torch.any" display="https://pytorch.org/docs/stable/generated/torch.any.html?highlight=any#torch.any"/>
+    <hyperlink ref="F280" r:id="rId223" location="torch.median" display="https://pytorch.org/docs/stable/generated/torch.median.html?highlight=median#torch.median"/>
+    <hyperlink ref="F92" r:id="rId224" location="torch.diagflat" display="https://pytorch.org/docs/stable/generated/torch.diagflat.html?highlight=diagflat#torch.diagflat"/>
+    <hyperlink ref="F198" r:id="rId225" location="torch.neg" display="https://pytorch.org/docs/stable/generated/torch.neg.html?highlight=neg#torch.neg"/>
+    <hyperlink ref="F212" r:id="rId226" location="torch.ne" display="https://pytorch.org/docs/stable/generated/torch.ne.html?highlight=ne#torch.ne"/>
+    <hyperlink ref="F4" r:id="rId227" location="torch.nn.functional.unfold" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.unfold.html?highlight=fold#torch.nn.functional.unfold"/>
+    <hyperlink ref="F42" r:id="rId41" location="torch.nn.functional.glu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.glu.html?highlight=glu#torch.nn.functional.glu"/>
+    <hyperlink ref="F32" r:id="rId228" location="torch.nn.functional.batch_norm" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.batch_norm.html?highlight=batch_norm#torch.nn.functional.batch_norm"/>
+    <hyperlink ref="F207" r:id="rId229" location="torch.minimum" display="https://pytorch.org/docs/stable/generated/torch.minimum.html?highlight=minimum#torch.minimum"/>
+    <hyperlink ref="F275" r:id="rId230" location="torch.std" display="https://pytorch.org/docs/stable/generated/torch.std.html?highlight=std#torch.std"/>
+    <hyperlink ref="F203" r:id="rId231" location="torch.clamp" display="https://pytorch.org/docs/stable/generated/torch.clamp.html?highlight=clamp#torch.clamp"/>
+    <hyperlink ref="F55" r:id="rId232" location="torch.nn.functional.softshrink" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.softshrink.html#torch.nn.functional.softshrink"/>
+    <hyperlink ref="F53" r:id="rId233" location="torch.nn.functional.selu" display="https://pytorch.org/docs/stable/generated/torch.nn.functional.selu.html#torch.nn.functional.selu"/>
+    <hyperlink ref="F99" r:id="rId234" location="torch.renorm" display="https://pytorch.org/docs/stable/generated/torch.renorm.html#torch.renorm"/>
+    <hyperlink ref="F121" r:id="rId235" location="torch.linalg.slogdet" display="https://pytorch.org/docs/stable/generated/torch.linalg.slogdet.html#torch.linalg.slogdet"/>
+    <hyperlink ref="F135" r:id="rId236" location="torch.roll" display="https://pytorch.org/docs/stable/generated/torch.roll.html#torch.roll"/>
+    <hyperlink ref="F172" r:id="rId237" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
+    <hyperlink ref="F171" r:id="rId237" location="torch.randint" display="https://pytorch.org/docs/stable/generated/torch.randint.html#torch.randint"/>
+    <hyperlink ref="F169" r:id="rId238" location="torch.randn" display="https://pytorch.org/docs/stable/generated/torch.randn.html#torch.randn"/>
+    <hyperlink ref="F160" r:id="rId239" location="torch.Tensor.scatter_add_" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_add_.html#torch.Tensor.scatter_add_"/>
+    <hyperlink ref="F150" r:id="rId240" location="torch.select" display="https://pytorch.org/docs/stable/generated/torch.select.html#torch.select"/>
+    <hyperlink ref="F310" r:id="rId241" display="https://docs.pytorch.org/torchtune/0.4/generated/torchtune.modules.RotaryPositionalEmbeddings.html"/>
+    <hyperlink ref="F311" r:id="rId242" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.RMSNorm.html"/>
+    <hyperlink ref="F307" r:id="rId243" display="https://github.com/Dao-AILab/flash-attention" tooltip="https://github.com/Dao-AILab/flash-attention"/>
+    <hyperlink ref="F306" r:id="rId244" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention" tooltip="https://docs.pytorch.org/docs/stable/generated/torch.nn.MultiheadAttention.html#multiheadattention"/>
+    <hyperlink ref="F309" r:id="rId245" display="https://huggingface.co/docs/diffusers/main/en/api/activations#diffusers.models.activations.SwiGLU"/>
+    <hyperlink ref="F199" r:id="rId246" display="https://pytorch.org/docs/stable/generated/torch.sign.html#torch.sign"/>
+    <hyperlink ref="F217" r:id="rId247" display="https://pytorch.org/docs/stable/generated/torch.remainder.html#torch.remainder"/>
+    <hyperlink ref="F154" r:id="rId248" display="https://pytorch.org/docs/stable/generated/torch.Tensor.scatter_.html#torch.Tensor.scatter_"/>
+    <hyperlink ref="F322" r:id="rId249" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_gather_rs/test_moe_gather_rs.py"/>
+    <hyperlink ref="F321" r:id="rId250" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/moe_ag_scatter/test_moe_ag.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="F320" r:id="rId249" display="https://arxiv.org/pdf/2506.11309&#10;https://docs.nvidia.com/nvshmem/api/examples.html#gemm-allreduce-fused-kernel-example"/>
+    <hyperlink ref="F319" r:id="rId250" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/gemm_rs/test_gemm_rs.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="F308" r:id="rId250" display="https://arxiv.org/pdf/2305.13245&#10;https://github.com/Dao-AILab/flash-attention" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="F312" r:id="rId251" display="https://arxiv.org/pdf/1911.02150&#10;https://github.com/huggingface/transformers/blob/main/src/transformers/models/llama/modeling_llama.py" tooltip="https://arxiv.org/pdf/1911.02150&#10;"/>
+    <hyperlink ref="F313" r:id="rId252" display="https://arxiv.org/pdf/2412.19255"/>
+    <hyperlink ref="F314" r:id="rId253" display="https://arxiv.org/pdf/2108.12409&#10;https://github.com/huggingface/transformers/blob/main/src/transformers/models/bloom/modeling_bloom.py#L56-L97"/>
+    <hyperlink ref="F315" r:id="rId254" display="https://docs.pytorch.org/docs/stable/generated/torch.nn.GELU.html"/>
+    <hyperlink ref="F318" r:id="rId250" display="https://arxiv.org/html/2406.06858v1#S3&#10;https://github.com/bytedance/flux/blob/main/test/python/ag_gemm/test_ag_kernel.py" tooltip="https://arxiv.org/html/2406.06858v1#S3&#10;"/>
+    <hyperlink ref="F316" r:id="rId255" display="https://arxiv.org/pdf/1904.10509&#10;https://github.com/openai/sparse_attention"/>
+    <hyperlink ref="F317" r:id="rId256" display="https://arxiv.org/pdf/2103.14899&#10;https://github.com/IBM/CrossViT/blob/main/models/crossvit.py"/>
+    <hyperlink ref="F88" r:id="rId257" location="torch.cumsum" display="https://pytorch.org/docs/stable/generated/torch.cumsum.html?highlight=cumsum#torch.cumsum"/>
+    <hyperlink ref="F87" r:id="rId258" display="https://pytorch.org/docs/stable/generated/torch.cdist.html?highlight=cdist"/>
+    <hyperlink ref="F86" r:id="rId259" location="torch.norm" display="https://pytorch.org/docs/stable/generated/torch.norm.html?highlight=norm#torch.norm"/>
+    <hyperlink ref="F284" r:id="rId260" display="https://docs.pytorch.org/docs/stable/generated/torch.sparse.sum.html"/>
+    <hyperlink ref="F83" r:id="rId261" display="https://docs.pytorch.org/docs/stable/generated/torch.sparse.addmm.html"/>
+    <hyperlink ref="F84" r:id="rId262" display="https://docs.pytorch.org/docs/stable/generated/torch.sparse.sampled_addmm.html"/>
+    <hyperlink ref="F85" r:id="rId263" display="https://docs.pytorch.org/docs/stable/generated/torch.sparse.mm.html"/>
+    <hyperlink ref="F56" r:id="rId264" display="https://docs.pytorch.org/docs/stable/generated/torch.sparse.softmax.html"/>
+    <hyperlink ref="F57" r:id="rId265" display="https://docs.pytorch.org/docs/stable/generated/torch.sparse.log_softmax.html"/>
+    <hyperlink ref="F287" r:id="rId266" display="https://docs.pytorch.org/docs/stable/generated/torch.sparse.spdiags.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <picture r:id="rId260"/>
+  <picture r:id="rId267"/>
 </worksheet>
 </file>
--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -41,7 +41,7 @@
     <t>算子分级</t>
   </si>
   <si>
-    <t>dense/sparse</t>
+    <t>Sparsity</t>
   </si>
   <si>
     <t>Package</t>
@@ -4236,14 +4236,14 @@
     </font>
     <font>
       <u/>
-      <sz val="10.5"/>
+      <sz val="9.75"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="9.75"/>
+      <sz val="10.5"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4753,7 +4753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4810,30 +4810,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4851,9 +4830,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5185,7 +5161,7 @@
   <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -6693,7 +6669,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" ht="14.55" spans="1:6">
+    <row r="83" ht="13.95" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="12" t="s">
         <v>155</v>
@@ -6711,7 +6687,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" ht="14.55" spans="1:6">
+    <row r="84" ht="13.95" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="12" t="s">
         <v>178</v>
@@ -6729,7 +6705,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" ht="14.55" spans="1:6">
+    <row r="85" ht="13.95" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="12" t="s">
         <v>149</v>
@@ -10268,16 +10244,16 @@
       <c r="B284" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="C284" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="20" t="s">
+      <c r="C284" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E284" s="20" t="s">
+      <c r="E284" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F284" s="21" t="s">
+      <c r="F284" s="15" t="s">
         <v>554</v>
       </c>
     </row>
@@ -10324,16 +10300,16 @@
       <c r="B287" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="C287" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="20" t="s">
+      <c r="C287" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E287" s="20" t="s">
+      <c r="E287" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F287" s="21" t="s">
+      <c r="F287" s="15" t="s">
         <v>561</v>
       </c>
     </row>
@@ -10461,7 +10437,7 @@
       <c r="E294" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F294" s="23" t="s">
+      <c r="F294" s="20" t="s">
         <v>576</v>
       </c>
     </row>
@@ -10668,13 +10644,13 @@
       <c r="B306" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="C306" s="24" t="s">
+      <c r="C306" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E306" s="25" t="s">
+      <c r="E306" s="13" t="s">
         <v>599</v>
       </c>
       <c r="F306" s="11" t="s">
@@ -10686,13 +10662,13 @@
       <c r="B307" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="C307" s="26" t="s">
+      <c r="C307" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E307" s="26" t="s">
+      <c r="E307" s="14" t="s">
         <v>602</v>
       </c>
       <c r="F307" s="11" t="s">
@@ -10704,16 +10680,16 @@
       <c r="B308" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="C308" s="27" t="s">
+      <c r="C308" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E308" s="25" t="s">
+      <c r="E308" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="F308" s="28" t="s">
+      <c r="F308" s="15" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10722,16 +10698,16 @@
       <c r="B309" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C309" s="29" t="s">
+      <c r="C309" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E309" s="30" t="s">
+      <c r="E309" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="F309" s="31" t="s">
+      <c r="F309" s="24" t="s">
         <v>609</v>
       </c>
     </row>
@@ -10740,16 +10716,16 @@
       <c r="B310" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C310" s="29" t="s">
+      <c r="C310" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E310" s="25" t="s">
+      <c r="E310" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="F310" s="28" t="s">
+      <c r="F310" s="15" t="s">
         <v>612</v>
       </c>
     </row>
@@ -10758,16 +10734,16 @@
       <c r="B311" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C311" s="29" t="s">
+      <c r="C311" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E311" s="25" t="s">
+      <c r="E311" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="F311" s="28" t="s">
+      <c r="F311" s="15" t="s">
         <v>614</v>
       </c>
     </row>
@@ -10782,10 +10758,10 @@
       <c r="D312" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E312" s="30" t="s">
+      <c r="E312" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="F312" s="32" t="s">
+      <c r="F312" s="25" t="s">
         <v>616</v>
       </c>
     </row>
@@ -10800,8 +10776,8 @@
       <c r="D313" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E313" s="33"/>
-      <c r="F313" s="32" t="s">
+      <c r="E313" s="26"/>
+      <c r="F313" s="25" t="s">
         <v>618</v>
       </c>
     </row>
@@ -10816,10 +10792,10 @@
       <c r="D314" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E314" s="30" t="s">
+      <c r="E314" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="F314" s="32" t="s">
+      <c r="F314" s="25" t="s">
         <v>620</v>
       </c>
     </row>
@@ -10834,10 +10810,10 @@
       <c r="D315" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E315" s="25" t="s">
+      <c r="E315" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="F315" s="34" t="s">
+      <c r="F315" s="27" t="s">
         <v>622</v>
       </c>
     </row>
@@ -10852,8 +10828,8 @@
       <c r="D316" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E316" s="33"/>
-      <c r="F316" s="32" t="s">
+      <c r="E316" s="26"/>
+      <c r="F316" s="25" t="s">
         <v>624</v>
       </c>
     </row>
@@ -10868,8 +10844,8 @@
       <c r="D317" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E317" s="33"/>
-      <c r="F317" s="32" t="s">
+      <c r="E317" s="26"/>
+      <c r="F317" s="25" t="s">
         <v>626</v>
       </c>
     </row>
@@ -10877,89 +10853,89 @@
       <c r="A318" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B318" s="24" t="s">
+      <c r="B318" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="C318" s="26" t="s">
+      <c r="C318" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E318" s="33"/>
-      <c r="F318" s="35" t="s">
+      <c r="E318" s="26"/>
+      <c r="F318" s="28" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="319" ht="27.15" spans="1:6">
       <c r="A319" s="3"/>
-      <c r="B319" s="24" t="s">
+      <c r="B319" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="C319" s="26" t="s">
+      <c r="C319" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E319" s="33"/>
-      <c r="F319" s="35" t="s">
+      <c r="E319" s="26"/>
+      <c r="F319" s="28" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="320" ht="27.15" spans="1:6">
       <c r="A320" s="3"/>
-      <c r="B320" s="36" t="s">
+      <c r="B320" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="C320" s="25" t="s">
+      <c r="C320" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E320" s="33"/>
-      <c r="F320" s="35" t="s">
+      <c r="E320" s="26"/>
+      <c r="F320" s="28" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="321" ht="27.15" spans="1:6">
       <c r="A321" s="3"/>
-      <c r="B321" s="24" t="s">
+      <c r="B321" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="C321" s="26" t="s">
+      <c r="C321" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E321" s="37"/>
-      <c r="F321" s="35" t="s">
+      <c r="E321" s="29"/>
+      <c r="F321" s="28" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="322" ht="27.15" spans="1:6">
       <c r="A322" s="3"/>
-      <c r="B322" s="24" t="s">
+      <c r="B322" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C322" s="26" t="s">
+      <c r="C322" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E322" s="33"/>
-      <c r="F322" s="35" t="s">
+      <c r="E322" s="26"/>
+      <c r="F322" s="28" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="323" spans="6:6">
-      <c r="F323" s="38"/>
+    <row r="323" ht="13.95" spans="6:6">
+      <c r="F323" s="30"/>
     </row>
     <row r="324" spans="6:6">
-      <c r="F324" s="38"/>
+      <c r="F324" s="30"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F322" etc:filterBottomFollowUsedRange="0">

--- a/docs/doc/Operators/operators.xlsx
+++ b/docs/doc/Operators/operators.xlsx
@@ -41,7 +41,7 @@
     <t>算子分级</t>
   </si>
   <si>
-    <t>Sparsity</t>
+    <t>稠密/稀疏类别</t>
   </si>
   <si>
     <t>Package</t>
@@ -5161,7 +5161,7 @@
   <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="5"/>
